--- a/BackTest/2019-10-27 BackTest PAY.xlsx
+++ b/BackTest/2019-10-27 BackTest PAY.xlsx
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -3251,20 +3251,14 @@
         <v>75.10000000000019</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>75.3</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3292,20 +3286,14 @@
         <v>75.13333333333352</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>75.2</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3333,20 +3321,14 @@
         <v>75.13333333333351</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>75</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3374,20 +3356,14 @@
         <v>75.06666666666685</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>75</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3415,20 +3391,14 @@
         <v>74.96666666666687</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>74.90000000000001</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3456,20 +3426,14 @@
         <v>74.96666666666687</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>75.8</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3497,20 +3461,14 @@
         <v>74.96666666666687</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>75.09999999999999</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3538,20 +3496,14 @@
         <v>75.0000000000002</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>74.90000000000001</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3579,20 +3531,14 @@
         <v>75.00000000000018</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>75</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3620,20 +3566,14 @@
         <v>74.83333333333353</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>74.7</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3661,20 +3601,14 @@
         <v>74.83333333333353</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>75</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3702,20 +3636,14 @@
         <v>74.80000000000018</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>74.90000000000001</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3743,20 +3671,14 @@
         <v>74.96666666666685</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>74.90000000000001</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3784,20 +3706,14 @@
         <v>74.96666666666685</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>75</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3825,20 +3741,14 @@
         <v>75.00000000000018</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>75</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3866,20 +3776,14 @@
         <v>75.00000000000018</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>75</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3907,20 +3811,14 @@
         <v>75.00000000000018</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>75</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3954,14 +3852,12 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="K99" t="n">
+        <v>75</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3995,12 +3891,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
+        <v>75.90000000000001</v>
+      </c>
+      <c r="K100" t="n">
+        <v>75</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M100" t="n">
@@ -4030,15 +3928,15 @@
         <v>75.33333333333353</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>75</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4071,15 +3969,15 @@
         <v>75.13333333333352</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>75</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>75</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4112,15 +4010,15 @@
         <v>75.2000000000002</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>75</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4153,15 +4051,15 @@
         <v>75.16666666666687</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>75</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4194,15 +4092,15 @@
         <v>75.16666666666686</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>75</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4235,15 +4133,15 @@
         <v>75.33333333333351</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>75</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4276,15 +4174,15 @@
         <v>75.36666666666684</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>75</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4317,15 +4215,15 @@
         <v>75.40000000000019</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>75</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4358,15 +4256,15 @@
         <v>75.56666666666686</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>75</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4399,15 +4297,15 @@
         <v>75.76666666666686</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>76</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>75</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4440,15 +4338,15 @@
         <v>76.23333333333353</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>75</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4481,15 +4379,15 @@
         <v>76.26666666666686</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>76</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>75</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4528,7 +4426,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>75</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4567,7 +4467,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>75</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4606,7 +4508,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>75</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4645,7 +4549,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>75</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4684,7 +4590,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>75</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4723,7 +4631,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>75</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4762,7 +4672,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>75</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4801,7 +4713,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>75</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4840,7 +4754,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>75</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4879,7 +4795,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>75</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4918,7 +4836,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>75</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4957,7 +4877,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>75</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4996,7 +4918,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>75</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5035,7 +4959,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>75</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5074,7 +5000,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>75</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5113,7 +5041,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>75</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5152,7 +5082,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>75</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5191,7 +5123,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>75</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5230,7 +5164,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>75</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5269,7 +5205,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>75</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5308,7 +5246,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>75</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5347,7 +5287,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>75</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5386,7 +5328,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>75</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5425,7 +5369,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>75</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5464,7 +5410,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>75</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5503,7 +5451,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>75</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5542,7 +5492,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>75</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5581,7 +5533,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>75</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5620,7 +5574,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>75</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5659,7 +5615,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>75</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5698,7 +5656,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>75</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5737,7 +5697,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>75</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5776,7 +5738,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>75</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5815,7 +5779,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>75</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5854,7 +5820,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>75</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5893,7 +5861,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>75</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5932,7 +5902,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>75</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5971,7 +5943,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>75</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6010,7 +5984,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>75</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6049,7 +6025,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>75</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6088,7 +6066,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>75</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6127,7 +6107,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>75</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6166,7 +6148,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>75</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6205,7 +6189,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>75</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6244,7 +6230,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>75</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6283,7 +6271,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>75</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6322,7 +6312,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>75</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6361,7 +6353,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>75</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6400,7 +6394,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>75</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6439,7 +6435,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>75</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6478,7 +6476,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>75</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6517,7 +6517,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>75</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6556,7 +6558,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>75</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6595,7 +6599,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>75</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6634,7 +6640,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>75</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6673,7 +6681,9 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>75</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6712,7 +6722,9 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>75</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6751,7 +6763,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>75</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6790,7 +6804,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>75</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6829,7 +6845,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>75</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6868,7 +6886,9 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>75</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6907,7 +6927,9 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>75</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6946,7 +6968,9 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>75</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6985,7 +7009,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>75</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7024,7 +7050,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>75</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7063,7 +7091,9 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>75</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7102,7 +7132,9 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>75</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7141,7 +7173,9 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>75</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7180,7 +7214,9 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>75</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7219,7 +7255,9 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>75</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7258,7 +7296,9 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>75</v>
+      </c>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7297,7 +7337,9 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>75</v>
+      </c>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7336,7 +7378,9 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>75</v>
+      </c>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7375,7 +7419,9 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>75</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7414,7 +7460,9 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>75</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7453,7 +7501,9 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>75</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7492,7 +7542,9 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>75</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7531,7 +7583,9 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>75</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7570,7 +7624,9 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>75</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7609,7 +7665,9 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>75</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7648,7 +7706,9 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>75</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7687,7 +7747,9 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>75</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7726,7 +7788,9 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>75</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7765,7 +7829,9 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>75</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7804,7 +7870,9 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>75</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7843,7 +7911,9 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>75</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7879,17 +7949,19 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>75</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>1</v>
+        <v>1.040333333333334</v>
       </c>
     </row>
     <row r="200">
@@ -7922,11 +7994,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7957,15 +8025,11 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8000,11 +8064,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8039,11 +8099,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8074,16 +8130,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">

--- a/BackTest/2019-10-27 BackTest PAY.xlsx
+++ b/BackTest/2019-10-27 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M205"/>
+  <dimension ref="A1:M206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>77.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G2" t="n">
-        <v>77.70000000000017</v>
+        <v>77.64500000000011</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>77.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1700.5461</v>
+        <v>1200</v>
       </c>
       <c r="G3" t="n">
-        <v>77.70000000000017</v>
+        <v>77.6600000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="C4" t="n">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="D4" t="n">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="E4" t="n">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="F4" t="n">
-        <v>800</v>
+        <v>1700.5461</v>
       </c>
       <c r="G4" t="n">
-        <v>77.73333333333352</v>
+        <v>77.62833333333342</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>78</v>
+        <v>77.8</v>
       </c>
       <c r="C5" t="n">
-        <v>78</v>
+        <v>77.8</v>
       </c>
       <c r="D5" t="n">
-        <v>78</v>
+        <v>77.8</v>
       </c>
       <c r="E5" t="n">
-        <v>78</v>
+        <v>77.8</v>
       </c>
       <c r="F5" t="n">
-        <v>9870</v>
+        <v>800</v>
       </c>
       <c r="G5" t="n">
-        <v>77.83333333333353</v>
+        <v>77.62666666666676</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>78</v>
       </c>
       <c r="F6" t="n">
-        <v>2650181.5922</v>
+        <v>9870</v>
       </c>
       <c r="G6" t="n">
-        <v>77.93333333333352</v>
+        <v>77.63166666666676</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="F7" t="n">
-        <v>3642396.4078</v>
+        <v>2650181.5922</v>
       </c>
       <c r="G7" t="n">
-        <v>78.00000000000018</v>
+        <v>77.63833333333342</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>78</v>
       </c>
       <c r="F8" t="n">
-        <v>297184</v>
+        <v>3642396.4078</v>
       </c>
       <c r="G8" t="n">
-        <v>78.00000000000018</v>
+        <v>77.63666666666676</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>78</v>
       </c>
       <c r="F9" t="n">
-        <v>200800</v>
+        <v>297184</v>
       </c>
       <c r="G9" t="n">
-        <v>78.00000000000018</v>
+        <v>77.63333333333343</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>78.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="C10" t="n">
-        <v>78.3</v>
+        <v>78</v>
       </c>
       <c r="D10" t="n">
-        <v>78.3</v>
+        <v>78</v>
       </c>
       <c r="E10" t="n">
         <v>78</v>
       </c>
       <c r="F10" t="n">
-        <v>7330.8184</v>
+        <v>200800</v>
       </c>
       <c r="G10" t="n">
-        <v>78.10000000000019</v>
+        <v>77.63000000000009</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>78.09999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>78</v>
+        <v>78.3</v>
       </c>
       <c r="D11" t="n">
-        <v>78.09999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="E11" t="n">
         <v>78</v>
       </c>
       <c r="F11" t="n">
-        <v>2254.4105</v>
+        <v>7330.8184</v>
       </c>
       <c r="G11" t="n">
-        <v>78.10000000000019</v>
+        <v>77.61666666666676</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="C12" t="n">
         <v>78</v>
       </c>
-      <c r="C12" t="n">
-        <v>77.90000000000001</v>
-      </c>
       <c r="D12" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="E12" t="n">
         <v>78</v>
       </c>
-      <c r="E12" t="n">
-        <v>77.90000000000001</v>
-      </c>
       <c r="F12" t="n">
-        <v>400</v>
+        <v>2254.4105</v>
       </c>
       <c r="G12" t="n">
-        <v>78.06666666666688</v>
+        <v>77.60500000000009</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>78</v>
+      </c>
+      <c r="C13" t="n">
         <v>77.90000000000001</v>
       </c>
-      <c r="C13" t="n">
-        <v>76.8</v>
-      </c>
       <c r="D13" t="n">
+        <v>78</v>
+      </c>
+      <c r="E13" t="n">
         <v>77.90000000000001</v>
       </c>
-      <c r="E13" t="n">
-        <v>76.8</v>
-      </c>
       <c r="F13" t="n">
-        <v>4133</v>
+        <v>400</v>
       </c>
       <c r="G13" t="n">
-        <v>77.56666666666688</v>
+        <v>77.58166666666675</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>77.90000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>77.90000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="D14" t="n">
         <v>77.90000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>77.90000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="F14" t="n">
-        <v>500</v>
+        <v>4133</v>
       </c>
       <c r="G14" t="n">
-        <v>77.53333333333353</v>
+        <v>77.54000000000009</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>77.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>76.8</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>77.7</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>76.8</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>7489</v>
+        <v>500</v>
       </c>
       <c r="G15" t="n">
-        <v>77.16666666666687</v>
+        <v>77.50833333333341</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>76.8</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C16" t="n">
         <v>76.8</v>
       </c>
       <c r="D16" t="n">
-        <v>76.8</v>
+        <v>77.7</v>
       </c>
       <c r="E16" t="n">
         <v>76.8</v>
       </c>
       <c r="F16" t="n">
-        <v>1188.2008</v>
+        <v>7489</v>
       </c>
       <c r="G16" t="n">
-        <v>77.16666666666686</v>
+        <v>77.46333333333341</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>77.3</v>
+        <v>76.8</v>
       </c>
       <c r="C17" t="n">
-        <v>77.3</v>
+        <v>76.8</v>
       </c>
       <c r="D17" t="n">
-        <v>77.3</v>
+        <v>76.8</v>
       </c>
       <c r="E17" t="n">
-        <v>77.3</v>
+        <v>76.8</v>
       </c>
       <c r="F17" t="n">
-        <v>400</v>
+        <v>1188.2008</v>
       </c>
       <c r="G17" t="n">
-        <v>76.96666666666685</v>
+        <v>77.40666666666675</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>77.2</v>
+        <v>77.3</v>
       </c>
       <c r="C18" t="n">
-        <v>77.2</v>
+        <v>77.3</v>
       </c>
       <c r="D18" t="n">
-        <v>77.2</v>
+        <v>77.3</v>
       </c>
       <c r="E18" t="n">
-        <v>77.2</v>
+        <v>77.3</v>
       </c>
       <c r="F18" t="n">
-        <v>3200</v>
+        <v>400</v>
       </c>
       <c r="G18" t="n">
-        <v>77.10000000000019</v>
+        <v>77.38000000000009</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="C19" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="D19" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="E19" t="n">
-        <v>76.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="F19" t="n">
-        <v>22</v>
+        <v>3200</v>
       </c>
       <c r="G19" t="n">
-        <v>77.13333333333354</v>
+        <v>77.34500000000008</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>76.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>76.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>76.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>76.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>1200</v>
+        <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>76.93333333333352</v>
+        <v>77.31666666666675</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>76.7</v>
       </c>
       <c r="C21" t="n">
-        <v>76.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="D21" t="n">
         <v>76.7</v>
       </c>
       <c r="E21" t="n">
-        <v>76.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="F21" t="n">
-        <v>17103.4181</v>
+        <v>1200</v>
       </c>
       <c r="G21" t="n">
-        <v>76.66666666666687</v>
+        <v>77.31333333333342</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>76.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="C22" t="n">
         <v>76.40000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>76.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="E22" t="n">
         <v>76.40000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>163</v>
+        <v>17103.4181</v>
       </c>
       <c r="G22" t="n">
-        <v>76.50000000000021</v>
+        <v>77.2833333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>76.40000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1311</v>
+        <v>163</v>
       </c>
       <c r="G23" t="n">
-        <v>76.40000000000022</v>
+        <v>77.25500000000007</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>76.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>76.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>76.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>76.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>299.25</v>
+        <v>0.1311</v>
       </c>
       <c r="G24" t="n">
-        <v>76.46666666666688</v>
+        <v>77.21833333333339</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>76.3</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>76.3</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>76.3</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>76.3</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>6075.2568</v>
+        <v>299.25</v>
       </c>
       <c r="G25" t="n">
-        <v>76.43333333333354</v>
+        <v>77.19166666666673</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>76.3</v>
       </c>
       <c r="C26" t="n">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
       <c r="D26" t="n">
         <v>76.3</v>
       </c>
       <c r="E26" t="n">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
       <c r="F26" t="n">
-        <v>5467.7311</v>
+        <v>6075.2568</v>
       </c>
       <c r="G26" t="n">
-        <v>76.36666666666687</v>
+        <v>77.15666666666674</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>76.3</v>
       </c>
       <c r="C27" t="n">
-        <v>76.40000000000001</v>
+        <v>76.2</v>
       </c>
       <c r="D27" t="n">
-        <v>76.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="E27" t="n">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="F27" t="n">
-        <v>127.08</v>
+        <v>5467.7311</v>
       </c>
       <c r="G27" t="n">
-        <v>76.30000000000021</v>
+        <v>77.1183333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>76.3</v>
       </c>
       <c r="C28" t="n">
-        <v>76.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>76.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E28" t="n">
         <v>76.3</v>
       </c>
       <c r="F28" t="n">
-        <v>127.0836</v>
+        <v>127.08</v>
       </c>
       <c r="G28" t="n">
-        <v>76.3000000000002</v>
+        <v>77.08166666666672</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1384,16 +1384,16 @@
         <v>76.3</v>
       </c>
       <c r="D29" t="n">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="E29" t="n">
         <v>76.3</v>
       </c>
       <c r="F29" t="n">
-        <v>54.5454</v>
+        <v>127.0836</v>
       </c>
       <c r="G29" t="n">
-        <v>76.33333333333354</v>
+        <v>77.04666666666672</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>76.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="C30" t="n">
-        <v>76.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="D30" t="n">
-        <v>76.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="E30" t="n">
-        <v>76.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="F30" t="n">
-        <v>90.90900000000001</v>
+        <v>54.5454</v>
       </c>
       <c r="G30" t="n">
-        <v>76.33333333333356</v>
+        <v>77.01333333333339</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>76.40000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>36.3636</v>
+        <v>90.90900000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>76.36666666666689</v>
+        <v>76.99166666666673</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>76.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>76.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>76.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>76.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>0.18</v>
+        <v>36.3636</v>
       </c>
       <c r="G32" t="n">
-        <v>76.43333333333355</v>
+        <v>76.97500000000007</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>77.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="C33" t="n">
-        <v>77.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="D33" t="n">
-        <v>77.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="E33" t="n">
-        <v>77.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="F33" t="n">
-        <v>11.5234</v>
+        <v>0.18</v>
       </c>
       <c r="G33" t="n">
-        <v>76.83333333333356</v>
+        <v>76.96166666666673</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>77.59999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>4552.9664</v>
+        <v>11.5234</v>
       </c>
       <c r="G34" t="n">
-        <v>77.23333333333355</v>
+        <v>76.95000000000006</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>77.59999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E35" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>3080</v>
+        <v>4552.9664</v>
       </c>
       <c r="G35" t="n">
-        <v>77.63333333333355</v>
+        <v>76.95666666666673</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C36" t="n">
         <v>77.7</v>
@@ -1632,13 +1632,13 @@
         <v>77.7</v>
       </c>
       <c r="E36" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>822.2741</v>
+        <v>3080</v>
       </c>
       <c r="G36" t="n">
-        <v>77.66666666666688</v>
+        <v>76.9733333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>78.3</v>
+        <v>77.7</v>
       </c>
       <c r="C37" t="n">
-        <v>78.3</v>
+        <v>77.7</v>
       </c>
       <c r="D37" t="n">
-        <v>78.3</v>
+        <v>77.7</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3</v>
+        <v>77.7</v>
       </c>
       <c r="F37" t="n">
-        <v>23.1324</v>
+        <v>822.2741</v>
       </c>
       <c r="G37" t="n">
-        <v>77.90000000000022</v>
+        <v>76.99166666666673</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>77.7</v>
+        <v>78.3</v>
       </c>
       <c r="C38" t="n">
-        <v>77.7</v>
+        <v>78.3</v>
       </c>
       <c r="D38" t="n">
-        <v>77.7</v>
+        <v>78.3</v>
       </c>
       <c r="E38" t="n">
-        <v>77.7</v>
+        <v>78.3</v>
       </c>
       <c r="F38" t="n">
-        <v>2582</v>
+        <v>23.1324</v>
       </c>
       <c r="G38" t="n">
-        <v>77.90000000000022</v>
+        <v>77.02000000000005</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>78.2</v>
+        <v>77.7</v>
       </c>
       <c r="C39" t="n">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="D39" t="n">
-        <v>78.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="E39" t="n">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="F39" t="n">
-        <v>15244.8801</v>
+        <v>2582</v>
       </c>
       <c r="G39" t="n">
-        <v>77.93333333333356</v>
+        <v>77.04000000000005</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>78.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="C40" t="n">
-        <v>78.3</v>
+        <v>77.8</v>
       </c>
       <c r="D40" t="n">
         <v>78.59999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>78.2</v>
+        <v>77.8</v>
       </c>
       <c r="F40" t="n">
-        <v>2070</v>
+        <v>15244.8801</v>
       </c>
       <c r="G40" t="n">
-        <v>77.93333333333356</v>
+        <v>77.06166666666672</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>78.90000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>79.5</v>
+        <v>78.3</v>
       </c>
       <c r="D41" t="n">
-        <v>79.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>78.90000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="F41" t="n">
-        <v>200</v>
+        <v>2070</v>
       </c>
       <c r="G41" t="n">
-        <v>78.53333333333357</v>
+        <v>77.09500000000006</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>78.2</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>78.2</v>
+        <v>79.5</v>
       </c>
       <c r="D42" t="n">
-        <v>78.2</v>
+        <v>79.5</v>
       </c>
       <c r="E42" t="n">
-        <v>78.2</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>8455.2405</v>
+        <v>200</v>
       </c>
       <c r="G42" t="n">
-        <v>78.6666666666669</v>
+        <v>77.15000000000006</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,28 +1868,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>78.09999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="C43" t="n">
-        <v>78.09999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="D43" t="n">
-        <v>78.09999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="E43" t="n">
-        <v>78.09999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="F43" t="n">
-        <v>12417.178</v>
+        <v>8455.2405</v>
       </c>
       <c r="G43" t="n">
-        <v>78.60000000000024</v>
+        <v>77.18000000000006</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>79.09999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>79.09999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>79.09999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>79.09999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>11</v>
+        <v>12417.178</v>
       </c>
       <c r="G44" t="n">
-        <v>78.46666666666688</v>
+        <v>77.20166666666674</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>78.09999999999999</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>78.09999999999999</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>78.09999999999999</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>78.09999999999999</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>9620.9228</v>
+        <v>11</v>
       </c>
       <c r="G45" t="n">
-        <v>78.43333333333356</v>
+        <v>77.24000000000007</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,28 +1973,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>77.90000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>77.7</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>77.90000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>77.7</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>26985.5346</v>
+        <v>9620.9228</v>
       </c>
       <c r="G46" t="n">
-        <v>78.30000000000022</v>
+        <v>77.26833333333342</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>77.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>77.5</v>
+        <v>77.7</v>
       </c>
       <c r="D47" t="n">
-        <v>77.5</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>77.40000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="F47" t="n">
-        <v>2392.8817</v>
+        <v>26985.5346</v>
       </c>
       <c r="G47" t="n">
-        <v>77.76666666666689</v>
+        <v>77.29000000000009</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>77.2</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="D48" t="n">
-        <v>77.2</v>
+        <v>77.5</v>
       </c>
       <c r="E48" t="n">
-        <v>76.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>24216.3855</v>
+        <v>2392.8817</v>
       </c>
       <c r="G48" t="n">
-        <v>77.23333333333355</v>
+        <v>77.31500000000008</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>76.5</v>
+        <v>77.2</v>
       </c>
       <c r="C49" t="n">
         <v>76.5</v>
       </c>
       <c r="D49" t="n">
-        <v>76.5</v>
+        <v>77.2</v>
       </c>
       <c r="E49" t="n">
         <v>76.5</v>
       </c>
       <c r="F49" t="n">
-        <v>5616.801</v>
+        <v>24216.3855</v>
       </c>
       <c r="G49" t="n">
-        <v>76.83333333333354</v>
+        <v>77.32333333333342</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>77.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="C50" t="n">
-        <v>77.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="D50" t="n">
-        <v>77.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="E50" t="n">
-        <v>77.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="F50" t="n">
-        <v>2839.923</v>
+        <v>5616.801</v>
       </c>
       <c r="G50" t="n">
-        <v>76.7000000000002</v>
+        <v>77.33166666666675</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>77.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>77.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>3552.3124</v>
+        <v>2839.923</v>
       </c>
       <c r="G51" t="n">
-        <v>77.03333333333353</v>
+        <v>77.35000000000009</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>77.5</v>
+        <v>77.2</v>
       </c>
       <c r="C52" t="n">
         <v>77.5</v>
@@ -2192,13 +2192,13 @@
         <v>77.5</v>
       </c>
       <c r="E52" t="n">
-        <v>77.5</v>
+        <v>77.2</v>
       </c>
       <c r="F52" t="n">
-        <v>115756.0838</v>
+        <v>3552.3124</v>
       </c>
       <c r="G52" t="n">
-        <v>77.36666666666686</v>
+        <v>77.37500000000009</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>77.09999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="C53" t="n">
-        <v>75.5</v>
+        <v>77.5</v>
       </c>
       <c r="D53" t="n">
-        <v>77.09999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="E53" t="n">
-        <v>75.5</v>
+        <v>77.5</v>
       </c>
       <c r="F53" t="n">
-        <v>315532.1936</v>
+        <v>115756.0838</v>
       </c>
       <c r="G53" t="n">
-        <v>76.83333333333353</v>
+        <v>77.38333333333343</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>76.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>77</v>
+        <v>75.5</v>
       </c>
       <c r="D54" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>76.5</v>
+        <v>75.5</v>
       </c>
       <c r="F54" t="n">
-        <v>2652.5596</v>
+        <v>315532.1936</v>
       </c>
       <c r="G54" t="n">
-        <v>76.66666666666686</v>
+        <v>77.36666666666676</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,7 +2288,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>76.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="C55" t="n">
         <v>77</v>
@@ -2300,10 +2300,10 @@
         <v>76.5</v>
       </c>
       <c r="F55" t="n">
-        <v>8597.402</v>
+        <v>2652.5596</v>
       </c>
       <c r="G55" t="n">
-        <v>76.50000000000018</v>
+        <v>77.3600000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>76.2</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>76.2</v>
+        <v>77</v>
       </c>
       <c r="D56" t="n">
-        <v>76.2</v>
+        <v>77</v>
       </c>
       <c r="E56" t="n">
-        <v>76.2</v>
+        <v>76.5</v>
       </c>
       <c r="F56" t="n">
-        <v>446</v>
+        <v>8597.402</v>
       </c>
       <c r="G56" t="n">
-        <v>76.73333333333352</v>
+        <v>77.36666666666676</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>76.5</v>
+        <v>76.2</v>
       </c>
       <c r="C57" t="n">
-        <v>77</v>
+        <v>76.2</v>
       </c>
       <c r="D57" t="n">
-        <v>77</v>
+        <v>76.2</v>
       </c>
       <c r="E57" t="n">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="F57" t="n">
-        <v>1954</v>
+        <v>446</v>
       </c>
       <c r="G57" t="n">
-        <v>76.73333333333352</v>
+        <v>77.34333333333342</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,31 +2393,35 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>76.7</v>
+        <v>76.5</v>
       </c>
       <c r="C58" t="n">
-        <v>75.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="D58" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="E58" t="n">
-        <v>75.59999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="F58" t="n">
-        <v>23.97</v>
+        <v>1954</v>
       </c>
       <c r="G58" t="n">
-        <v>76.26666666666684</v>
+        <v>77.33000000000008</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="K58" t="n">
+        <v>76.2</v>
+      </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
@@ -2428,32 +2432,40 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="C59" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="D59" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="E59" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="F59" t="n">
+        <v>23.97</v>
+      </c>
+      <c r="G59" t="n">
+        <v>77.29666666666675</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
         <v>77</v>
       </c>
-      <c r="C59" t="n">
-        <v>77</v>
-      </c>
-      <c r="D59" t="n">
-        <v>77</v>
-      </c>
-      <c r="E59" t="n">
-        <v>77</v>
-      </c>
-      <c r="F59" t="n">
-        <v>11</v>
-      </c>
-      <c r="G59" t="n">
-        <v>76.53333333333352</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2475,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>76.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="C60" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="D60" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="E60" t="n">
-        <v>76.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="F60" t="n">
-        <v>1608.7542</v>
+        <v>11</v>
       </c>
       <c r="G60" t="n">
-        <v>76.50000000000018</v>
+        <v>77.28500000000008</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,8 +2499,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2516,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>76.8</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>76.8</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>1754.7242</v>
+        <v>1608.7542</v>
       </c>
       <c r="G61" t="n">
-        <v>76.90000000000019</v>
+        <v>77.27166666666675</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,8 +2540,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2557,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>76.90000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="C62" t="n">
-        <v>76.90000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="D62" t="n">
-        <v>76.90000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="E62" t="n">
-        <v>76.90000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="F62" t="n">
-        <v>9915</v>
+        <v>1754.7242</v>
       </c>
       <c r="G62" t="n">
-        <v>76.86666666666686</v>
+        <v>77.25666666666675</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,8 +2581,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2598,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>76.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>76.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>12036.1444</v>
+        <v>9915</v>
       </c>
       <c r="G63" t="n">
-        <v>76.76666666666686</v>
+        <v>77.24333333333341</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,8 +2622,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2639,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="C64" t="n">
-        <v>76.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="E64" t="n">
-        <v>76.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>4377.7848</v>
+        <v>12036.1444</v>
       </c>
       <c r="G64" t="n">
-        <v>76.73333333333353</v>
+        <v>77.22500000000009</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,8 +2663,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2650,10 +2692,10 @@
         <v>76.7</v>
       </c>
       <c r="F65" t="n">
-        <v>5727.6779</v>
+        <v>4377.7848</v>
       </c>
       <c r="G65" t="n">
-        <v>76.66666666666687</v>
+        <v>77.20666666666675</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,8 +2704,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2676,19 +2724,19 @@
         <v>76.7</v>
       </c>
       <c r="C66" t="n">
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="D66" t="n">
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="E66" t="n">
         <v>76.7</v>
       </c>
       <c r="F66" t="n">
-        <v>4800</v>
+        <v>5727.6779</v>
       </c>
       <c r="G66" t="n">
-        <v>76.8000000000002</v>
+        <v>77.18500000000009</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,8 +2745,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2762,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="C67" t="n">
         <v>77</v>
       </c>
-      <c r="C67" t="n">
-        <v>77.5</v>
-      </c>
       <c r="D67" t="n">
-        <v>77.5</v>
+        <v>77</v>
       </c>
       <c r="E67" t="n">
-        <v>76.09999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="F67" t="n">
-        <v>16474.9985</v>
+        <v>4800</v>
       </c>
       <c r="G67" t="n">
-        <v>77.06666666666685</v>
+        <v>77.16833333333342</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,8 +2786,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2803,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>76.2</v>
+        <v>77</v>
       </c>
       <c r="C68" t="n">
-        <v>75.8</v>
+        <v>77.5</v>
       </c>
       <c r="D68" t="n">
-        <v>76.2</v>
+        <v>77.5</v>
       </c>
       <c r="E68" t="n">
-        <v>75.8</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>15000</v>
+        <v>16474.9985</v>
       </c>
       <c r="G68" t="n">
-        <v>76.76666666666686</v>
+        <v>77.16000000000008</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,8 +2827,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +2844,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="C69" t="n">
         <v>75.8</v>
       </c>
-      <c r="C69" t="n">
-        <v>75.59999999999999</v>
-      </c>
       <c r="D69" t="n">
-        <v>76.59999999999999</v>
+        <v>76.2</v>
       </c>
       <c r="E69" t="n">
-        <v>75.59999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="F69" t="n">
-        <v>36528.1268</v>
+        <v>15000</v>
       </c>
       <c r="G69" t="n">
-        <v>76.30000000000018</v>
+        <v>77.12333333333342</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,8 +2868,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,22 +2885,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="C70" t="n">
         <v>75.59999999999999</v>
       </c>
-      <c r="C70" t="n">
-        <v>75.40000000000001</v>
-      </c>
       <c r="D70" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="E70" t="n">
         <v>75.59999999999999</v>
       </c>
-      <c r="E70" t="n">
-        <v>75.40000000000001</v>
-      </c>
       <c r="F70" t="n">
-        <v>27702.7752</v>
+        <v>36528.1268</v>
       </c>
       <c r="G70" t="n">
-        <v>75.60000000000018</v>
+        <v>77.08333333333343</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,8 +2909,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +2926,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>75.3</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>75.2</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>75.3</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>75.2</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>23452.9294</v>
+        <v>27702.7752</v>
       </c>
       <c r="G71" t="n">
-        <v>75.40000000000016</v>
+        <v>77.03500000000008</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,8 +2950,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,22 +2967,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="C72" t="n">
         <v>75.2</v>
-      </c>
-      <c r="C72" t="n">
-        <v>75.3</v>
       </c>
       <c r="D72" t="n">
         <v>75.3</v>
       </c>
       <c r="E72" t="n">
-        <v>74.59999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="F72" t="n">
-        <v>43304.0058</v>
+        <v>23452.9294</v>
       </c>
       <c r="G72" t="n">
-        <v>75.30000000000017</v>
+        <v>76.98833333333341</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,8 +2991,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +3008,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>74.40000000000001</v>
+        <v>75.2</v>
       </c>
       <c r="C73" t="n">
-        <v>75.5</v>
+        <v>75.3</v>
       </c>
       <c r="D73" t="n">
-        <v>75.5</v>
+        <v>75.3</v>
       </c>
       <c r="E73" t="n">
-        <v>74.09999999999999</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>28839.3515</v>
+        <v>43304.0058</v>
       </c>
       <c r="G73" t="n">
-        <v>75.33333333333351</v>
+        <v>76.94500000000009</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,8 +3032,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +3049,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="C74" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="D74" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="E74" t="n">
         <v>74.09999999999999</v>
       </c>
-      <c r="C74" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="D74" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="E74" t="n">
-        <v>74</v>
-      </c>
       <c r="F74" t="n">
-        <v>5610.5113</v>
+        <v>28839.3515</v>
       </c>
       <c r="G74" t="n">
-        <v>75.66666666666686</v>
+        <v>76.92333333333342</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,8 +3073,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,22 +3090,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>75</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="D75" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="E75" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F75" t="n">
-        <v>1763</v>
+        <v>5610.5113</v>
       </c>
       <c r="G75" t="n">
-        <v>75.56666666666685</v>
+        <v>76.89500000000008</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,8 +3114,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +3131,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>75.40000000000001</v>
+        <v>75</v>
       </c>
       <c r="C76" t="n">
-        <v>75.40000000000001</v>
+        <v>75</v>
       </c>
       <c r="D76" t="n">
-        <v>75.40000000000001</v>
+        <v>75</v>
       </c>
       <c r="E76" t="n">
-        <v>75.40000000000001</v>
+        <v>75</v>
       </c>
       <c r="F76" t="n">
-        <v>26</v>
+        <v>1763</v>
       </c>
       <c r="G76" t="n">
-        <v>75.53333333333353</v>
+        <v>76.86500000000008</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,8 +3155,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +3172,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>75.3</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>76</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>76</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>75.3</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>1308</v>
+        <v>26</v>
       </c>
       <c r="G77" t="n">
-        <v>75.46666666666687</v>
+        <v>76.84166666666674</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,8 +3196,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,22 +3213,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>75.09999999999999</v>
+        <v>75.3</v>
       </c>
       <c r="C78" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D78" t="n">
-        <v>75.09999999999999</v>
+        <v>76</v>
       </c>
       <c r="E78" t="n">
-        <v>75</v>
+        <v>75.3</v>
       </c>
       <c r="F78" t="n">
-        <v>19763.268</v>
+        <v>1308</v>
       </c>
       <c r="G78" t="n">
-        <v>75.46666666666687</v>
+        <v>76.82000000000008</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3117,8 +3237,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,22 +3254,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>75.2</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>75.2</v>
+        <v>75</v>
       </c>
       <c r="D79" t="n">
-        <v>75.2</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>75.2</v>
+        <v>75</v>
       </c>
       <c r="F79" t="n">
-        <v>120</v>
+        <v>19763.268</v>
       </c>
       <c r="G79" t="n">
-        <v>75.40000000000019</v>
+        <v>76.7833333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3152,8 +3278,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3163,22 +3295,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>75.09999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="C80" t="n">
-        <v>75.09999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="D80" t="n">
-        <v>75.09999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="E80" t="n">
-        <v>75.09999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="F80" t="n">
-        <v>1000.5609</v>
+        <v>120</v>
       </c>
       <c r="G80" t="n">
-        <v>75.10000000000019</v>
+        <v>76.75500000000008</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,8 +3319,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3201,19 +3339,19 @@
         <v>75.09999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>75</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="D81" t="n">
         <v>75.09999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>75</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>1231.1986</v>
+        <v>1000.5609</v>
       </c>
       <c r="G81" t="n">
-        <v>75.10000000000019</v>
+        <v>76.72833333333342</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,8 +3360,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,22 +3377,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>75.3</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>75.2</v>
+        <v>75</v>
       </c>
       <c r="D82" t="n">
-        <v>75.3</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>75.2</v>
+        <v>75</v>
       </c>
       <c r="F82" t="n">
-        <v>5978.8087</v>
+        <v>1231.1986</v>
       </c>
       <c r="G82" t="n">
-        <v>75.10000000000019</v>
+        <v>76.7050000000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,8 +3401,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3418,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="C83" t="n">
         <v>75.2</v>
       </c>
       <c r="D83" t="n">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="E83" t="n">
         <v>75.2</v>
       </c>
       <c r="F83" t="n">
-        <v>2790.4328</v>
+        <v>5978.8087</v>
       </c>
       <c r="G83" t="n">
-        <v>75.13333333333352</v>
+        <v>76.6850000000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,8 +3442,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3459,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>75</v>
+        <v>75.2</v>
       </c>
       <c r="C84" t="n">
-        <v>75</v>
+        <v>75.2</v>
       </c>
       <c r="D84" t="n">
-        <v>75</v>
+        <v>75.2</v>
       </c>
       <c r="E84" t="n">
-        <v>75</v>
+        <v>75.2</v>
       </c>
       <c r="F84" t="n">
-        <v>1702</v>
+        <v>2790.4328</v>
       </c>
       <c r="G84" t="n">
-        <v>75.13333333333351</v>
+        <v>76.66500000000011</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,8 +3483,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3350,10 +3512,10 @@
         <v>75</v>
       </c>
       <c r="F85" t="n">
-        <v>280</v>
+        <v>1702</v>
       </c>
       <c r="G85" t="n">
-        <v>75.06666666666685</v>
+        <v>76.63833333333342</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,8 +3524,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3541,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="C86" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="D86" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="E86" t="n">
-        <v>74.8</v>
+        <v>75</v>
       </c>
       <c r="F86" t="n">
-        <v>2299.3564</v>
+        <v>280</v>
       </c>
       <c r="G86" t="n">
-        <v>74.96666666666687</v>
+        <v>76.61666666666676</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,8 +3565,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3582,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>75.8</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>75.8</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>75</v>
+        <v>74.8</v>
       </c>
       <c r="F87" t="n">
-        <v>840</v>
+        <v>2299.3564</v>
       </c>
       <c r="G87" t="n">
-        <v>74.96666666666687</v>
+        <v>76.59500000000008</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,8 +3606,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,22 +3623,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>75.09999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="C88" t="n">
         <v>75</v>
       </c>
       <c r="D88" t="n">
-        <v>75.09999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="E88" t="n">
         <v>75</v>
       </c>
       <c r="F88" t="n">
-        <v>30429.9413</v>
+        <v>840</v>
       </c>
       <c r="G88" t="n">
-        <v>74.96666666666687</v>
+        <v>76.57166666666676</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3467,8 +3647,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,32 +3664,40 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>74.90000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C89" t="n">
         <v>75</v>
       </c>
       <c r="D89" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="E89" t="n">
         <v>75</v>
       </c>
-      <c r="E89" t="n">
-        <v>74.90000000000001</v>
-      </c>
       <c r="F89" t="n">
-        <v>832</v>
+        <v>30429.9413</v>
       </c>
       <c r="G89" t="n">
-        <v>75.0000000000002</v>
+        <v>76.5500000000001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>75</v>
+      </c>
+      <c r="K89" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3513,7 +3707,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C90" t="n">
         <v>75</v>
@@ -3522,13 +3716,13 @@
         <v>75</v>
       </c>
       <c r="E90" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>800</v>
+        <v>832</v>
       </c>
       <c r="G90" t="n">
-        <v>75.00000000000018</v>
+        <v>76.52833333333342</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,8 +3731,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,22 +3748,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>74.7</v>
+        <v>75</v>
       </c>
       <c r="C91" t="n">
-        <v>74.5</v>
+        <v>75</v>
       </c>
       <c r="D91" t="n">
-        <v>74.7</v>
+        <v>75</v>
       </c>
       <c r="E91" t="n">
-        <v>74.5</v>
+        <v>75</v>
       </c>
       <c r="F91" t="n">
-        <v>15145.9936</v>
+        <v>800</v>
       </c>
       <c r="G91" t="n">
-        <v>74.83333333333353</v>
+        <v>76.50500000000009</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,8 +3772,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3583,22 +3789,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>75</v>
+        <v>74.7</v>
       </c>
       <c r="C92" t="n">
-        <v>75</v>
+        <v>74.5</v>
       </c>
       <c r="D92" t="n">
-        <v>75</v>
+        <v>74.7</v>
       </c>
       <c r="E92" t="n">
-        <v>75</v>
+        <v>74.5</v>
       </c>
       <c r="F92" t="n">
-        <v>378</v>
+        <v>15145.9936</v>
       </c>
       <c r="G92" t="n">
-        <v>74.83333333333353</v>
+        <v>76.47333333333343</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,8 +3813,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3618,32 +3830,40 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="C93" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="D93" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="E93" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="F93" t="n">
-        <v>428</v>
+        <v>378</v>
       </c>
       <c r="G93" t="n">
-        <v>74.80000000000018</v>
+        <v>76.44833333333344</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3656,29 +3876,37 @@
         <v>74.90000000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E94" t="n">
         <v>74.90000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G94" t="n">
-        <v>74.96666666666685</v>
+        <v>76.40333333333342</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>75</v>
+      </c>
+      <c r="K94" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3688,7 +3916,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C95" t="n">
         <v>75</v>
@@ -3697,23 +3925,31 @@
         <v>75</v>
       </c>
       <c r="E95" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>65</v>
+        <v>425</v>
       </c>
       <c r="G95" t="n">
-        <v>74.96666666666685</v>
+        <v>76.36000000000008</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K95" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3735,10 +3971,10 @@
         <v>75</v>
       </c>
       <c r="F96" t="n">
-        <v>269</v>
+        <v>65</v>
       </c>
       <c r="G96" t="n">
-        <v>75.00000000000018</v>
+        <v>76.31500000000008</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3747,8 +3983,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3770,20 +4012,28 @@
         <v>75</v>
       </c>
       <c r="F97" t="n">
-        <v>338</v>
+        <v>269</v>
       </c>
       <c r="G97" t="n">
-        <v>75.00000000000018</v>
+        <v>76.27000000000008</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>75</v>
+      </c>
+      <c r="K97" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3805,10 +4055,10 @@
         <v>75</v>
       </c>
       <c r="F98" t="n">
-        <v>15180.7866</v>
+        <v>338</v>
       </c>
       <c r="G98" t="n">
-        <v>75.00000000000018</v>
+        <v>76.21500000000009</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3817,8 +4067,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3828,36 +4084,38 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>75.59999999999999</v>
+        <v>75</v>
       </c>
       <c r="C99" t="n">
-        <v>75.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="D99" t="n">
-        <v>75.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="E99" t="n">
-        <v>75.59999999999999</v>
+        <v>75</v>
       </c>
       <c r="F99" t="n">
-        <v>800</v>
+        <v>15180.7866</v>
       </c>
       <c r="G99" t="n">
-        <v>75.30000000000018</v>
+        <v>76.17000000000009</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>75</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>75</v>
-      </c>
-      <c r="L99" t="inlineStr"/>
+        <v>76.2</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3867,38 +4125,36 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>74.8</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>74.7</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>74.8</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>74.7</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="F100" t="n">
-        <v>14019.5433</v>
+        <v>800</v>
       </c>
       <c r="G100" t="n">
-        <v>75.20000000000017</v>
+        <v>76.13833333333341</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>75.90000000000001</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M100" t="n">
@@ -3910,22 +4166,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>75.40000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="C101" t="n">
-        <v>75.40000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="D101" t="n">
-        <v>75.40000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="E101" t="n">
-        <v>75.40000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="F101" t="n">
-        <v>388</v>
+        <v>14019.5433</v>
       </c>
       <c r="G101" t="n">
-        <v>75.33333333333353</v>
+        <v>76.0783333333334</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3935,7 +4191,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -3951,22 +4207,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>75</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>75.3</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>75.3</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>75</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>1163</v>
+        <v>388</v>
       </c>
       <c r="G102" t="n">
-        <v>75.13333333333352</v>
+        <v>76.01000000000006</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3976,7 +4232,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -3992,22 +4248,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>75</v>
+      </c>
+      <c r="C103" t="n">
         <v>75.3</v>
-      </c>
-      <c r="C103" t="n">
-        <v>74.90000000000001</v>
       </c>
       <c r="D103" t="n">
         <v>75.3</v>
       </c>
       <c r="E103" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="F103" t="n">
-        <v>23.97</v>
+        <v>1163</v>
       </c>
       <c r="G103" t="n">
-        <v>75.2000000000002</v>
+        <v>75.96166666666674</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4017,7 +4273,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4036,19 +4292,19 @@
         <v>75.3</v>
       </c>
       <c r="C104" t="n">
-        <v>75.3</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D104" t="n">
         <v>75.3</v>
       </c>
       <c r="E104" t="n">
-        <v>75.3</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>336</v>
+        <v>23.97</v>
       </c>
       <c r="G104" t="n">
-        <v>75.16666666666687</v>
+        <v>75.90833333333339</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4058,7 +4314,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4086,10 +4342,10 @@
         <v>75.3</v>
       </c>
       <c r="F105" t="n">
-        <v>7945.4847</v>
+        <v>336</v>
       </c>
       <c r="G105" t="n">
-        <v>75.16666666666686</v>
+        <v>75.84500000000006</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4099,7 +4355,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4115,22 +4371,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>75.40000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="C106" t="n">
-        <v>75.40000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="D106" t="n">
-        <v>75.40000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="E106" t="n">
-        <v>75.40000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="F106" t="n">
-        <v>553</v>
+        <v>7945.4847</v>
       </c>
       <c r="G106" t="n">
-        <v>75.33333333333351</v>
+        <v>75.79833333333339</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4140,7 +4396,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4168,10 +4424,10 @@
         <v>75.40000000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>418</v>
+        <v>553</v>
       </c>
       <c r="G107" t="n">
-        <v>75.36666666666684</v>
+        <v>75.76000000000005</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4181,7 +4437,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4209,10 +4465,10 @@
         <v>75.40000000000001</v>
       </c>
       <c r="F108" t="n">
-        <v>925</v>
+        <v>418</v>
       </c>
       <c r="G108" t="n">
-        <v>75.40000000000019</v>
+        <v>75.72500000000005</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4222,7 +4478,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4238,22 +4494,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>75.7</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>75.90000000000001</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>75.90000000000001</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>75.7</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>12735.7971</v>
+        <v>925</v>
       </c>
       <c r="G109" t="n">
-        <v>75.56666666666686</v>
+        <v>75.70666666666671</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4263,7 +4519,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4279,22 +4535,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>76</v>
+        <v>75.7</v>
       </c>
       <c r="C110" t="n">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>76</v>
+        <v>75.7</v>
       </c>
       <c r="F110" t="n">
-        <v>18895.7971</v>
+        <v>12735.7971</v>
       </c>
       <c r="G110" t="n">
-        <v>75.76666666666686</v>
+        <v>75.6966666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4304,7 +4560,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4320,22 +4576,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>76.8</v>
+        <v>76</v>
       </c>
       <c r="C111" t="n">
-        <v>76.8</v>
+        <v>76</v>
       </c>
       <c r="D111" t="n">
-        <v>76.8</v>
+        <v>76</v>
       </c>
       <c r="E111" t="n">
-        <v>76.8</v>
+        <v>76</v>
       </c>
       <c r="F111" t="n">
-        <v>10</v>
+        <v>18895.7971</v>
       </c>
       <c r="G111" t="n">
-        <v>76.23333333333353</v>
+        <v>75.67833333333336</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4345,7 +4601,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4361,22 +4617,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>76</v>
+        <v>76.8</v>
       </c>
       <c r="C112" t="n">
-        <v>76</v>
+        <v>76.8</v>
       </c>
       <c r="D112" t="n">
-        <v>76</v>
+        <v>76.8</v>
       </c>
       <c r="E112" t="n">
-        <v>76</v>
+        <v>76.8</v>
       </c>
       <c r="F112" t="n">
-        <v>122.0581</v>
+        <v>10</v>
       </c>
       <c r="G112" t="n">
-        <v>76.26666666666686</v>
+        <v>75.6666666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4386,7 +4642,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4414,10 +4670,10 @@
         <v>76</v>
       </c>
       <c r="F113" t="n">
-        <v>1322.3124</v>
+        <v>122.0581</v>
       </c>
       <c r="G113" t="n">
-        <v>76.26666666666688</v>
+        <v>75.64166666666669</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4427,7 +4683,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4455,10 +4711,10 @@
         <v>76</v>
       </c>
       <c r="F114" t="n">
-        <v>1418.7236</v>
+        <v>1322.3124</v>
       </c>
       <c r="G114" t="n">
-        <v>76.00000000000021</v>
+        <v>75.65000000000003</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4468,7 +4724,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4496,10 +4752,10 @@
         <v>76</v>
       </c>
       <c r="F115" t="n">
-        <v>1000</v>
+        <v>1418.7236</v>
       </c>
       <c r="G115" t="n">
-        <v>76.00000000000021</v>
+        <v>75.63333333333337</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4509,7 +4765,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4537,10 +4793,10 @@
         <v>76</v>
       </c>
       <c r="F116" t="n">
-        <v>123</v>
+        <v>1000</v>
       </c>
       <c r="G116" t="n">
-        <v>76.00000000000021</v>
+        <v>75.6166666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4550,7 +4806,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4578,10 +4834,10 @@
         <v>76</v>
       </c>
       <c r="F117" t="n">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G117" t="n">
-        <v>76.00000000000021</v>
+        <v>75.61333333333337</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4591,7 +4847,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4619,10 +4875,10 @@
         <v>76</v>
       </c>
       <c r="F118" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>76.00000000000021</v>
+        <v>75.59666666666671</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4632,7 +4888,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4660,10 +4916,10 @@
         <v>76</v>
       </c>
       <c r="F119" t="n">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="G119" t="n">
-        <v>76.00000000000021</v>
+        <v>75.60333333333337</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4673,7 +4929,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4701,10 +4957,10 @@
         <v>76</v>
       </c>
       <c r="F120" t="n">
-        <v>1329.3815</v>
+        <v>109</v>
       </c>
       <c r="G120" t="n">
-        <v>76.00000000000021</v>
+        <v>75.58666666666669</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4714,7 +4970,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -4730,22 +4986,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>75.90000000000001</v>
+        <v>76</v>
       </c>
       <c r="C121" t="n">
-        <v>75.90000000000001</v>
+        <v>76</v>
       </c>
       <c r="D121" t="n">
-        <v>75.90000000000001</v>
+        <v>76</v>
       </c>
       <c r="E121" t="n">
-        <v>75.90000000000001</v>
+        <v>76</v>
       </c>
       <c r="F121" t="n">
-        <v>2000</v>
+        <v>1329.3815</v>
       </c>
       <c r="G121" t="n">
-        <v>75.96666666666688</v>
+        <v>75.5716666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4755,7 +5011,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -4783,10 +5039,10 @@
         <v>75.90000000000001</v>
       </c>
       <c r="F122" t="n">
-        <v>15</v>
+        <v>2000</v>
       </c>
       <c r="G122" t="n">
-        <v>75.93333333333355</v>
+        <v>75.55666666666669</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4796,7 +5052,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -4815,19 +5071,19 @@
         <v>75.90000000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="E123" t="n">
         <v>75.90000000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>1049.1332</v>
+        <v>15</v>
       </c>
       <c r="G123" t="n">
-        <v>75.93333333333355</v>
+        <v>75.54000000000002</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4837,7 +5093,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -4853,22 +5109,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>76.8</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>76.8</v>
+        <v>76</v>
       </c>
       <c r="D124" t="n">
-        <v>76.8</v>
+        <v>76</v>
       </c>
       <c r="E124" t="n">
-        <v>76.8</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="F124" t="n">
-        <v>11.3265</v>
+        <v>1049.1332</v>
       </c>
       <c r="G124" t="n">
-        <v>76.23333333333355</v>
+        <v>75.53000000000002</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4878,7 +5134,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -4894,22 +5150,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="C125" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="D125" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="E125" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="F125" t="n">
-        <v>15</v>
+        <v>11.3265</v>
       </c>
       <c r="G125" t="n">
-        <v>76.50000000000021</v>
+        <v>75.53166666666669</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4919,7 +5175,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -4935,22 +5191,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>76.5</v>
+        <v>76.7</v>
       </c>
       <c r="C126" t="n">
-        <v>76.5</v>
+        <v>76.7</v>
       </c>
       <c r="D126" t="n">
-        <v>76.5</v>
+        <v>76.7</v>
       </c>
       <c r="E126" t="n">
-        <v>76.5</v>
+        <v>76.7</v>
       </c>
       <c r="F126" t="n">
         <v>15</v>
       </c>
       <c r="G126" t="n">
-        <v>76.6666666666669</v>
+        <v>75.53166666666669</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4960,7 +5216,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -4976,22 +5232,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>75.8</v>
+        <v>76.5</v>
       </c>
       <c r="C127" t="n">
-        <v>75.7</v>
+        <v>76.5</v>
       </c>
       <c r="D127" t="n">
-        <v>75.90000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="E127" t="n">
-        <v>75.7</v>
+        <v>76.5</v>
       </c>
       <c r="F127" t="n">
-        <v>8190.7092</v>
+        <v>15</v>
       </c>
       <c r="G127" t="n">
-        <v>76.30000000000022</v>
+        <v>75.52333333333335</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5001,7 +5257,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5017,22 +5273,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>76.40000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="C128" t="n">
-        <v>76.5</v>
+        <v>75.7</v>
       </c>
       <c r="D128" t="n">
-        <v>76.5</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>76.40000000000001</v>
+        <v>75.7</v>
       </c>
       <c r="F128" t="n">
-        <v>4182.9842</v>
+        <v>8190.7092</v>
       </c>
       <c r="G128" t="n">
-        <v>76.23333333333356</v>
+        <v>75.49333333333335</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5042,7 +5298,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5058,22 +5314,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>76.7</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>76.8</v>
+        <v>76.5</v>
       </c>
       <c r="D129" t="n">
-        <v>76.8</v>
+        <v>76.5</v>
       </c>
       <c r="E129" t="n">
-        <v>76.7</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F129" t="n">
-        <v>5187.8422</v>
+        <v>4182.9842</v>
       </c>
       <c r="G129" t="n">
-        <v>76.33333333333356</v>
+        <v>75.50500000000002</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5083,7 +5339,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5099,7 +5355,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>76.8</v>
+        <v>76.7</v>
       </c>
       <c r="C130" t="n">
         <v>76.8</v>
@@ -5108,13 +5364,13 @@
         <v>76.8</v>
       </c>
       <c r="E130" t="n">
-        <v>76.8</v>
+        <v>76.7</v>
       </c>
       <c r="F130" t="n">
-        <v>1200</v>
+        <v>5187.8422</v>
       </c>
       <c r="G130" t="n">
-        <v>76.70000000000023</v>
+        <v>75.52500000000002</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5124,7 +5380,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5152,10 +5408,10 @@
         <v>76.8</v>
       </c>
       <c r="F131" t="n">
-        <v>2285</v>
+        <v>1200</v>
       </c>
       <c r="G131" t="n">
-        <v>76.80000000000024</v>
+        <v>75.54833333333336</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5165,7 +5421,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5181,22 +5437,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>76.09999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="C132" t="n">
-        <v>76.09999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="D132" t="n">
-        <v>76.09999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="E132" t="n">
-        <v>76.09999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="F132" t="n">
-        <v>2800</v>
+        <v>2285</v>
       </c>
       <c r="G132" t="n">
-        <v>76.56666666666689</v>
+        <v>75.57500000000003</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5206,7 +5462,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5222,22 +5478,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>76</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>76</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>76</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>76</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="F133" t="n">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="G133" t="n">
-        <v>76.30000000000022</v>
+        <v>75.58833333333337</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5247,7 +5503,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5263,22 +5519,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>75.90000000000001</v>
+        <v>76</v>
       </c>
       <c r="C134" t="n">
-        <v>75.8</v>
+        <v>76</v>
       </c>
       <c r="D134" t="n">
-        <v>75.90000000000001</v>
+        <v>76</v>
       </c>
       <c r="E134" t="n">
-        <v>75.8</v>
+        <v>76</v>
       </c>
       <c r="F134" t="n">
-        <v>9370.8264</v>
+        <v>800</v>
       </c>
       <c r="G134" t="n">
-        <v>75.96666666666688</v>
+        <v>75.59666666666671</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5288,7 +5544,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5304,22 +5560,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>76</v>
+        <v>75.8</v>
       </c>
       <c r="D135" t="n">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>76</v>
+        <v>75.8</v>
       </c>
       <c r="F135" t="n">
-        <v>1726.4736</v>
+        <v>9370.8264</v>
       </c>
       <c r="G135" t="n">
-        <v>75.93333333333355</v>
+        <v>75.59000000000005</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5329,7 +5585,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5345,22 +5601,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>75.8</v>
+        <v>76</v>
       </c>
       <c r="C136" t="n">
-        <v>75.8</v>
+        <v>76</v>
       </c>
       <c r="D136" t="n">
-        <v>75.8</v>
+        <v>76</v>
       </c>
       <c r="E136" t="n">
-        <v>75.8</v>
+        <v>76</v>
       </c>
       <c r="F136" t="n">
-        <v>7129.5349</v>
+        <v>1726.4736</v>
       </c>
       <c r="G136" t="n">
-        <v>75.86666666666689</v>
+        <v>75.60666666666671</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5370,7 +5626,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5386,22 +5642,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>76</v>
+        <v>75.8</v>
       </c>
       <c r="C137" t="n">
-        <v>76</v>
+        <v>75.8</v>
       </c>
       <c r="D137" t="n">
-        <v>76</v>
+        <v>75.8</v>
       </c>
       <c r="E137" t="n">
-        <v>76</v>
+        <v>75.8</v>
       </c>
       <c r="F137" t="n">
-        <v>80</v>
+        <v>7129.5349</v>
       </c>
       <c r="G137" t="n">
-        <v>75.93333333333355</v>
+        <v>75.61333333333339</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5411,7 +5667,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5439,10 +5695,10 @@
         <v>76</v>
       </c>
       <c r="F138" t="n">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="G138" t="n">
-        <v>75.93333333333355</v>
+        <v>75.61333333333339</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5452,7 +5708,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5480,10 +5736,10 @@
         <v>76</v>
       </c>
       <c r="F139" t="n">
-        <v>400</v>
+        <v>104</v>
       </c>
       <c r="G139" t="n">
-        <v>76.00000000000021</v>
+        <v>75.63000000000005</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5493,7 +5749,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5521,10 +5777,10 @@
         <v>76</v>
       </c>
       <c r="F140" t="n">
-        <v>1747.2479</v>
+        <v>400</v>
       </c>
       <c r="G140" t="n">
-        <v>76.00000000000021</v>
+        <v>75.64333333333339</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5534,7 +5790,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5562,10 +5818,10 @@
         <v>76</v>
       </c>
       <c r="F141" t="n">
-        <v>1315.0104</v>
+        <v>1747.2479</v>
       </c>
       <c r="G141" t="n">
-        <v>76.00000000000021</v>
+        <v>75.65833333333337</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5575,7 +5831,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5603,10 +5859,10 @@
         <v>76</v>
       </c>
       <c r="F142" t="n">
-        <v>1468.0657</v>
+        <v>1315.0104</v>
       </c>
       <c r="G142" t="n">
-        <v>76.00000000000021</v>
+        <v>75.67500000000004</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5616,7 +5872,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5644,10 +5900,10 @@
         <v>76</v>
       </c>
       <c r="F143" t="n">
-        <v>15</v>
+        <v>1468.0657</v>
       </c>
       <c r="G143" t="n">
-        <v>76.00000000000021</v>
+        <v>75.68833333333338</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5657,7 +5913,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5676,19 +5932,19 @@
         <v>76</v>
       </c>
       <c r="C144" t="n">
-        <v>76.8</v>
+        <v>76</v>
       </c>
       <c r="D144" t="n">
-        <v>76.8</v>
+        <v>76</v>
       </c>
       <c r="E144" t="n">
         <v>76</v>
       </c>
       <c r="F144" t="n">
-        <v>3640</v>
+        <v>15</v>
       </c>
       <c r="G144" t="n">
-        <v>76.26666666666688</v>
+        <v>75.70166666666672</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5698,7 +5954,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5714,7 +5970,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>76.8</v>
+        <v>76</v>
       </c>
       <c r="C145" t="n">
         <v>76.8</v>
@@ -5723,13 +5979,13 @@
         <v>76.8</v>
       </c>
       <c r="E145" t="n">
-        <v>76.8</v>
+        <v>76</v>
       </c>
       <c r="F145" t="n">
-        <v>4095</v>
+        <v>3640</v>
       </c>
       <c r="G145" t="n">
-        <v>76.53333333333354</v>
+        <v>75.73166666666673</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5739,7 +5995,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -5767,10 +6023,10 @@
         <v>76.8</v>
       </c>
       <c r="F146" t="n">
-        <v>417.0165</v>
+        <v>4095</v>
       </c>
       <c r="G146" t="n">
-        <v>76.80000000000022</v>
+        <v>75.76166666666673</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5780,7 +6036,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -5808,10 +6064,10 @@
         <v>76.8</v>
       </c>
       <c r="F147" t="n">
-        <v>38.625</v>
+        <v>417.0165</v>
       </c>
       <c r="G147" t="n">
-        <v>76.80000000000022</v>
+        <v>75.79333333333339</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5821,7 +6077,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -5837,22 +6093,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>77.5</v>
+        <v>76.8</v>
       </c>
       <c r="C148" t="n">
-        <v>77.5</v>
+        <v>76.8</v>
       </c>
       <c r="D148" t="n">
-        <v>77.5</v>
+        <v>76.8</v>
       </c>
       <c r="E148" t="n">
-        <v>77.5</v>
+        <v>76.8</v>
       </c>
       <c r="F148" t="n">
-        <v>25.3124</v>
+        <v>38.625</v>
       </c>
       <c r="G148" t="n">
-        <v>77.03333333333354</v>
+        <v>75.82333333333341</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5862,7 +6118,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -5878,22 +6134,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>77.2</v>
+        <v>77.5</v>
       </c>
       <c r="C149" t="n">
-        <v>77.2</v>
+        <v>77.5</v>
       </c>
       <c r="D149" t="n">
-        <v>77.2</v>
+        <v>77.5</v>
       </c>
       <c r="E149" t="n">
-        <v>77.2</v>
+        <v>77.5</v>
       </c>
       <c r="F149" t="n">
-        <v>921</v>
+        <v>25.3124</v>
       </c>
       <c r="G149" t="n">
-        <v>77.16666666666687</v>
+        <v>75.86500000000007</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5903,7 +6159,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -5919,22 +6175,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>76.7</v>
+        <v>77.2</v>
       </c>
       <c r="C150" t="n">
-        <v>76.59999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="D150" t="n">
-        <v>76.7</v>
+        <v>77.2</v>
       </c>
       <c r="E150" t="n">
-        <v>76.59999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="F150" t="n">
-        <v>2352.1657</v>
+        <v>921</v>
       </c>
       <c r="G150" t="n">
-        <v>77.10000000000019</v>
+        <v>75.90166666666673</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5944,7 +6200,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -5960,22 +6216,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>76.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="C151" t="n">
         <v>76.59999999999999</v>
       </c>
       <c r="D151" t="n">
-        <v>76.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="E151" t="n">
         <v>76.59999999999999</v>
       </c>
       <c r="F151" t="n">
-        <v>380.6248</v>
+        <v>2352.1657</v>
       </c>
       <c r="G151" t="n">
-        <v>76.80000000000018</v>
+        <v>75.92833333333341</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5985,7 +6241,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6001,22 +6257,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>77.09999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C152" t="n">
-        <v>77.09999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D152" t="n">
-        <v>77.09999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E152" t="n">
-        <v>77.09999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F152" t="n">
-        <v>10</v>
+        <v>380.6248</v>
       </c>
       <c r="G152" t="n">
-        <v>76.76666666666686</v>
+        <v>75.96333333333341</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6026,7 +6282,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6042,22 +6298,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>76.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C153" t="n">
-        <v>76.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D153" t="n">
-        <v>76.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E153" t="n">
-        <v>76.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F153" t="n">
-        <v>3304.7663</v>
+        <v>10</v>
       </c>
       <c r="G153" t="n">
-        <v>76.83333333333353</v>
+        <v>75.99833333333342</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6067,7 +6323,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6086,19 +6342,19 @@
         <v>76.8</v>
       </c>
       <c r="C154" t="n">
-        <v>76.90000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="D154" t="n">
-        <v>76.90000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="E154" t="n">
         <v>76.8</v>
       </c>
       <c r="F154" t="n">
-        <v>2627.5341</v>
+        <v>3304.7663</v>
       </c>
       <c r="G154" t="n">
-        <v>76.93333333333354</v>
+        <v>76.0300000000001</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6108,7 +6364,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6124,22 +6380,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>77.40000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="C155" t="n">
-        <v>77.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D155" t="n">
-        <v>77.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E155" t="n">
-        <v>77.40000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="F155" t="n">
-        <v>33.1324</v>
+        <v>2627.5341</v>
       </c>
       <c r="G155" t="n">
-        <v>77.03333333333354</v>
+        <v>76.06166666666675</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6149,7 +6405,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6165,22 +6421,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>76.90000000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C156" t="n">
-        <v>76.90000000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D156" t="n">
-        <v>76.90000000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E156" t="n">
-        <v>76.90000000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F156" t="n">
-        <v>168.7631</v>
+        <v>33.1324</v>
       </c>
       <c r="G156" t="n">
-        <v>77.06666666666688</v>
+        <v>76.10166666666674</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6190,7 +6446,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6206,22 +6462,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C157" t="n">
-        <v>77.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D157" t="n">
-        <v>77.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E157" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F157" t="n">
-        <v>19723.7398</v>
+        <v>168.7631</v>
       </c>
       <c r="G157" t="n">
-        <v>77.2000000000002</v>
+        <v>76.13333333333341</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6231,7 +6487,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6247,22 +6503,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>76.5</v>
+        <v>76.8</v>
       </c>
       <c r="C158" t="n">
-        <v>76.5</v>
+        <v>77.3</v>
       </c>
       <c r="D158" t="n">
-        <v>76.5</v>
+        <v>77.3</v>
       </c>
       <c r="E158" t="n">
-        <v>76.5</v>
+        <v>76.8</v>
       </c>
       <c r="F158" t="n">
-        <v>200</v>
+        <v>19723.7398</v>
       </c>
       <c r="G158" t="n">
-        <v>76.90000000000019</v>
+        <v>76.17166666666675</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6272,7 +6528,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -6288,22 +6544,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="C159" t="n">
-        <v>75.8</v>
+        <v>76.5</v>
       </c>
       <c r="D159" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="E159" t="n">
-        <v>75.8</v>
+        <v>76.5</v>
       </c>
       <c r="F159" t="n">
-        <v>34007.6914</v>
+        <v>200</v>
       </c>
       <c r="G159" t="n">
-        <v>76.53333333333352</v>
+        <v>76.19666666666674</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6313,7 +6569,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -6329,22 +6585,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>76</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C160" t="n">
-        <v>76.8</v>
+        <v>75.8</v>
       </c>
       <c r="D160" t="n">
-        <v>76.8</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E160" t="n">
-        <v>76</v>
+        <v>75.8</v>
       </c>
       <c r="F160" t="n">
-        <v>67.11920000000001</v>
+        <v>34007.6914</v>
       </c>
       <c r="G160" t="n">
-        <v>76.36666666666684</v>
+        <v>76.19500000000009</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6354,7 +6610,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -6370,22 +6626,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
+        <v>76</v>
+      </c>
+      <c r="C161" t="n">
         <v>76.8</v>
       </c>
-      <c r="C161" t="n">
-        <v>76.90000000000001</v>
-      </c>
       <c r="D161" t="n">
-        <v>76.90000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="E161" t="n">
-        <v>76.8</v>
+        <v>76</v>
       </c>
       <c r="F161" t="n">
-        <v>800</v>
+        <v>67.11920000000001</v>
       </c>
       <c r="G161" t="n">
-        <v>76.50000000000018</v>
+        <v>76.23000000000009</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6395,7 +6651,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -6411,22 +6667,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>76</v>
+        <v>76.8</v>
       </c>
       <c r="C162" t="n">
-        <v>76</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D162" t="n">
-        <v>76</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E162" t="n">
-        <v>76</v>
+        <v>76.8</v>
       </c>
       <c r="F162" t="n">
-        <v>1697.3323</v>
+        <v>800</v>
       </c>
       <c r="G162" t="n">
-        <v>76.56666666666685</v>
+        <v>76.25500000000009</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6436,7 +6692,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -6452,22 +6708,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>76.90000000000001</v>
+        <v>76</v>
       </c>
       <c r="C163" t="n">
-        <v>76.90000000000001</v>
+        <v>76</v>
       </c>
       <c r="D163" t="n">
-        <v>76.90000000000001</v>
+        <v>76</v>
       </c>
       <c r="E163" t="n">
-        <v>76.90000000000001</v>
+        <v>76</v>
       </c>
       <c r="F163" t="n">
-        <v>2688</v>
+        <v>1697.3323</v>
       </c>
       <c r="G163" t="n">
-        <v>76.60000000000019</v>
+        <v>76.26666666666675</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6477,7 +6733,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -6505,10 +6761,10 @@
         <v>76.90000000000001</v>
       </c>
       <c r="F164" t="n">
-        <v>1200</v>
+        <v>2688</v>
       </c>
       <c r="G164" t="n">
-        <v>76.60000000000021</v>
+        <v>76.3000000000001</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6518,7 +6774,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -6534,22 +6790,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C165" t="n">
-        <v>76.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D165" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E165" t="n">
-        <v>76.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F165" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="G165" t="n">
-        <v>76.7000000000002</v>
+        <v>76.32666666666675</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6559,7 +6815,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -6575,22 +6831,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>76.5</v>
+        <v>77</v>
       </c>
       <c r="C166" t="n">
         <v>76.3</v>
       </c>
       <c r="D166" t="n">
-        <v>76.5</v>
+        <v>77</v>
       </c>
       <c r="E166" t="n">
         <v>76.3</v>
       </c>
       <c r="F166" t="n">
-        <v>12013.617</v>
+        <v>800</v>
       </c>
       <c r="G166" t="n">
-        <v>76.5000000000002</v>
+        <v>76.34333333333342</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6600,7 +6856,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -6616,22 +6872,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>76.90000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="C167" t="n">
-        <v>76.90000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="D167" t="n">
-        <v>76.90000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="E167" t="n">
-        <v>76.90000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="F167" t="n">
-        <v>3707</v>
+        <v>12013.617</v>
       </c>
       <c r="G167" t="n">
-        <v>76.5000000000002</v>
+        <v>76.35833333333342</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6641,7 +6897,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -6669,10 +6925,10 @@
         <v>76.90000000000001</v>
       </c>
       <c r="F168" t="n">
-        <v>1200</v>
+        <v>3707</v>
       </c>
       <c r="G168" t="n">
-        <v>76.7000000000002</v>
+        <v>76.38333333333343</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6682,7 +6938,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -6698,22 +6954,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C169" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D169" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E169" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F169" t="n">
-        <v>3355.1324</v>
+        <v>1200</v>
       </c>
       <c r="G169" t="n">
-        <v>76.93333333333352</v>
+        <v>76.40833333333343</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6723,7 +6979,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -6751,10 +7007,10 @@
         <v>77</v>
       </c>
       <c r="F170" t="n">
-        <v>4877</v>
+        <v>3355.1324</v>
       </c>
       <c r="G170" t="n">
-        <v>76.96666666666685</v>
+        <v>76.42666666666676</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6764,7 +7020,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -6792,10 +7048,10 @@
         <v>77</v>
       </c>
       <c r="F171" t="n">
-        <v>4610</v>
+        <v>4877</v>
       </c>
       <c r="G171" t="n">
-        <v>77.00000000000018</v>
+        <v>76.44333333333343</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6805,7 +7061,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -6824,19 +7080,19 @@
         <v>77</v>
       </c>
       <c r="C172" t="n">
-        <v>77.2</v>
+        <v>77</v>
       </c>
       <c r="D172" t="n">
-        <v>77.2</v>
+        <v>77</v>
       </c>
       <c r="E172" t="n">
         <v>77</v>
       </c>
       <c r="F172" t="n">
-        <v>3000</v>
+        <v>4610</v>
       </c>
       <c r="G172" t="n">
-        <v>77.06666666666685</v>
+        <v>76.44666666666676</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6846,7 +7102,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -6862,22 +7118,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="C173" t="n">
-        <v>76.59999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="D173" t="n">
-        <v>76.7</v>
+        <v>77.2</v>
       </c>
       <c r="E173" t="n">
-        <v>76.5</v>
+        <v>77</v>
       </c>
       <c r="F173" t="n">
-        <v>10807</v>
+        <v>3000</v>
       </c>
       <c r="G173" t="n">
-        <v>76.93333333333351</v>
+        <v>76.46666666666675</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6887,7 +7143,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -6903,22 +7159,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>76.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="C174" t="n">
         <v>76.59999999999999</v>
       </c>
       <c r="D174" t="n">
-        <v>76.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="E174" t="n">
-        <v>76.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="F174" t="n">
-        <v>3823</v>
+        <v>10807</v>
       </c>
       <c r="G174" t="n">
-        <v>76.80000000000018</v>
+        <v>76.47666666666676</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6928,7 +7184,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -6947,19 +7203,19 @@
         <v>76.59999999999999</v>
       </c>
       <c r="C175" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D175" t="n">
         <v>76.59999999999999</v>
       </c>
       <c r="E175" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F175" t="n">
-        <v>2800</v>
+        <v>3823</v>
       </c>
       <c r="G175" t="n">
-        <v>76.56666666666685</v>
+        <v>76.48666666666676</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6969,7 +7225,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -6985,22 +7241,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C176" t="n">
         <v>76.5</v>
       </c>
       <c r="D176" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E176" t="n">
         <v>76.5</v>
       </c>
       <c r="F176" t="n">
-        <v>12096.5032</v>
+        <v>2800</v>
       </c>
       <c r="G176" t="n">
-        <v>76.53333333333352</v>
+        <v>76.4950000000001</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7010,7 +7266,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -7026,22 +7282,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="C177" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="D177" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="E177" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="F177" t="n">
-        <v>3142.945</v>
+        <v>12096.5032</v>
       </c>
       <c r="G177" t="n">
-        <v>76.46666666666685</v>
+        <v>76.50333333333343</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7051,7 +7307,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -7079,10 +7335,10 @@
         <v>76.40000000000001</v>
       </c>
       <c r="F178" t="n">
-        <v>1220</v>
+        <v>3142.945</v>
       </c>
       <c r="G178" t="n">
-        <v>76.43333333333352</v>
+        <v>76.51000000000009</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7092,7 +7348,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -7120,10 +7376,10 @@
         <v>76.40000000000001</v>
       </c>
       <c r="F179" t="n">
-        <v>280.0523</v>
+        <v>1220</v>
       </c>
       <c r="G179" t="n">
-        <v>76.4000000000002</v>
+        <v>76.51666666666675</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7133,7 +7389,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -7161,10 +7417,10 @@
         <v>76.40000000000001</v>
       </c>
       <c r="F180" t="n">
-        <v>1799.1917</v>
+        <v>280.0523</v>
       </c>
       <c r="G180" t="n">
-        <v>76.40000000000019</v>
+        <v>76.52333333333341</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7174,7 +7430,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -7202,10 +7458,10 @@
         <v>76.40000000000001</v>
       </c>
       <c r="F181" t="n">
-        <v>12393.2146</v>
+        <v>1799.1917</v>
       </c>
       <c r="G181" t="n">
-        <v>76.40000000000019</v>
+        <v>76.53000000000007</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7215,7 +7471,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -7243,10 +7499,10 @@
         <v>76.40000000000001</v>
       </c>
       <c r="F182" t="n">
-        <v>1600</v>
+        <v>12393.2146</v>
       </c>
       <c r="G182" t="n">
-        <v>76.40000000000019</v>
+        <v>76.53833333333341</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7256,7 +7512,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -7284,10 +7540,10 @@
         <v>76.40000000000001</v>
       </c>
       <c r="F183" t="n">
-        <v>12273</v>
+        <v>1600</v>
       </c>
       <c r="G183" t="n">
-        <v>76.40000000000019</v>
+        <v>76.54666666666675</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7297,7 +7553,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -7325,10 +7581,10 @@
         <v>76.40000000000001</v>
       </c>
       <c r="F184" t="n">
-        <v>400</v>
+        <v>12273</v>
       </c>
       <c r="G184" t="n">
-        <v>76.40000000000019</v>
+        <v>76.55333333333341</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7338,7 +7594,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -7366,10 +7622,10 @@
         <v>76.40000000000001</v>
       </c>
       <c r="F185" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="G185" t="n">
-        <v>76.40000000000019</v>
+        <v>76.54666666666672</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7379,7 +7635,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -7407,10 +7663,10 @@
         <v>76.40000000000001</v>
       </c>
       <c r="F186" t="n">
-        <v>2760.0009</v>
+        <v>15</v>
       </c>
       <c r="G186" t="n">
-        <v>76.40000000000019</v>
+        <v>76.54166666666673</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7420,7 +7676,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -7448,10 +7704,10 @@
         <v>76.40000000000001</v>
       </c>
       <c r="F187" t="n">
-        <v>339</v>
+        <v>2760.0009</v>
       </c>
       <c r="G187" t="n">
-        <v>76.40000000000019</v>
+        <v>76.54000000000005</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7461,7 +7717,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -7489,10 +7745,10 @@
         <v>76.40000000000001</v>
       </c>
       <c r="F188" t="n">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="G188" t="n">
-        <v>76.40000000000019</v>
+        <v>76.55166666666672</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7502,7 +7758,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -7530,10 +7786,10 @@
         <v>76.40000000000001</v>
       </c>
       <c r="F189" t="n">
-        <v>2452</v>
+        <v>300</v>
       </c>
       <c r="G189" t="n">
-        <v>76.40000000000019</v>
+        <v>76.55000000000004</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7543,7 +7799,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -7571,10 +7827,10 @@
         <v>76.40000000000001</v>
       </c>
       <c r="F190" t="n">
-        <v>479</v>
+        <v>2452</v>
       </c>
       <c r="G190" t="n">
-        <v>76.40000000000019</v>
+        <v>76.54333333333336</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7584,7 +7840,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -7612,10 +7868,10 @@
         <v>76.40000000000001</v>
       </c>
       <c r="F191" t="n">
-        <v>2185</v>
+        <v>479</v>
       </c>
       <c r="G191" t="n">
-        <v>76.40000000000019</v>
+        <v>76.53666666666669</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7625,7 +7881,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -7653,10 +7909,10 @@
         <v>76.40000000000001</v>
       </c>
       <c r="F192" t="n">
-        <v>249.2135</v>
+        <v>2185</v>
       </c>
       <c r="G192" t="n">
-        <v>76.40000000000019</v>
+        <v>76.53000000000002</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7666,7 +7922,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -7682,22 +7938,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>77.2</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C193" t="n">
-        <v>77.2</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D193" t="n">
-        <v>77.2</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E193" t="n">
-        <v>77.2</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F193" t="n">
-        <v>13.6782</v>
+        <v>249.2135</v>
       </c>
       <c r="G193" t="n">
-        <v>76.66666666666687</v>
+        <v>76.53500000000001</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7707,7 +7963,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -7735,10 +7991,10 @@
         <v>77.2</v>
       </c>
       <c r="F194" t="n">
-        <v>4669</v>
+        <v>13.6782</v>
       </c>
       <c r="G194" t="n">
-        <v>76.93333333333354</v>
+        <v>76.55500000000001</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7748,7 +8004,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -7764,22 +8020,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>77.40000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="C195" t="n">
-        <v>78.3</v>
+        <v>77.2</v>
       </c>
       <c r="D195" t="n">
-        <v>78.3</v>
+        <v>77.2</v>
       </c>
       <c r="E195" t="n">
-        <v>77.40000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="F195" t="n">
-        <v>32112.90970740741</v>
+        <v>4669</v>
       </c>
       <c r="G195" t="n">
-        <v>77.56666666666686</v>
+        <v>76.57833333333333</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7789,7 +8045,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -7805,22 +8061,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>78</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C196" t="n">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="D196" t="n">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="E196" t="n">
-        <v>78</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F196" t="n">
-        <v>14846.1518</v>
+        <v>32112.90970740741</v>
       </c>
       <c r="G196" t="n">
-        <v>77.9000000000002</v>
+        <v>76.61666666666666</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7830,7 +8086,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -7846,22 +8102,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>78.59999999999999</v>
+        <v>78</v>
       </c>
       <c r="C197" t="n">
-        <v>78.59999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="D197" t="n">
-        <v>78.59999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="E197" t="n">
-        <v>78.59999999999999</v>
+        <v>78</v>
       </c>
       <c r="F197" t="n">
-        <v>1211.6157</v>
+        <v>14846.1518</v>
       </c>
       <c r="G197" t="n">
-        <v>78.36666666666689</v>
+        <v>76.65666666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7871,7 +8127,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -7887,22 +8143,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>78.2</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="C198" t="n">
-        <v>78.2</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="D198" t="n">
-        <v>78.2</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="E198" t="n">
-        <v>78.2</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="F198" t="n">
-        <v>1479.951</v>
+        <v>1211.6157</v>
       </c>
       <c r="G198" t="n">
-        <v>78.33333333333354</v>
+        <v>76.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7912,7 +8168,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -7928,40 +8184,40 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>78.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="C199" t="n">
-        <v>78.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="D199" t="n">
-        <v>78.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="E199" t="n">
-        <v>78.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="F199" t="n">
-        <v>1878.9413</v>
+        <v>1479.951</v>
       </c>
       <c r="G199" t="n">
-        <v>78.40000000000022</v>
+        <v>76.73666666666666</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>1.040333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -7981,10 +8237,10 @@
         <v>78.40000000000001</v>
       </c>
       <c r="F200" t="n">
-        <v>414.9459</v>
+        <v>1878.9413</v>
       </c>
       <c r="G200" t="n">
-        <v>78.33333333333357</v>
+        <v>76.77666666666666</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7993,8 +8249,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8016,20 +8278,26 @@
         <v>78.40000000000001</v>
       </c>
       <c r="F201" t="n">
-        <v>43.3163</v>
+        <v>414.9459</v>
       </c>
       <c r="G201" t="n">
-        <v>78.40000000000025</v>
+        <v>76.81666666666665</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8039,34 +8307,40 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C202" t="n">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D202" t="n">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E202" t="n">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F202" t="n">
-        <v>2476.968</v>
+        <v>43.3163</v>
       </c>
       <c r="G202" t="n">
-        <v>78.36666666666692</v>
+        <v>76.85666666666664</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M202" t="n">
-        <v>1</v>
+        <v>1.023871391076116</v>
       </c>
     </row>
     <row r="203">
@@ -8074,28 +8348,28 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>78.59999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="C203" t="n">
-        <v>78.7</v>
+        <v>78.3</v>
       </c>
       <c r="D203" t="n">
-        <v>78.7</v>
+        <v>78.3</v>
       </c>
       <c r="E203" t="n">
-        <v>78.59999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="F203" t="n">
-        <v>525</v>
+        <v>2476.968</v>
       </c>
       <c r="G203" t="n">
-        <v>78.46666666666691</v>
+        <v>76.89499999999998</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
@@ -8121,16 +8395,16 @@
         <v>78.59999999999999</v>
       </c>
       <c r="F204" t="n">
-        <v>3442</v>
+        <v>525</v>
       </c>
       <c r="G204" t="n">
-        <v>78.56666666666692</v>
+        <v>76.93999999999998</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
@@ -8144,22 +8418,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>79.2</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="C205" t="n">
-        <v>79.3</v>
+        <v>78.7</v>
       </c>
       <c r="D205" t="n">
-        <v>79.3</v>
+        <v>78.7</v>
       </c>
       <c r="E205" t="n">
-        <v>79.2</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="F205" t="n">
-        <v>148.6883</v>
+        <v>3442</v>
       </c>
       <c r="G205" t="n">
-        <v>78.90000000000025</v>
+        <v>76.97166666666664</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8174,6 +8448,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="C206" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="D206" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="E206" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="F206" t="n">
+        <v>148.6883</v>
+      </c>
+      <c r="G206" t="n">
+        <v>77.01333333333331</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-27 BackTest PAY.xlsx
+++ b/BackTest/2019-10-27 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M206"/>
+  <dimension ref="A1:N216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>800</v>
       </c>
       <c r="G2" t="n">
+        <v>76.90666666666661</v>
+      </c>
+      <c r="H2" t="n">
         <v>77.64500000000011</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1200</v>
       </c>
       <c r="G3" t="n">
+        <v>77.01999999999995</v>
+      </c>
+      <c r="H3" t="n">
         <v>77.6600000000001</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>1700.5461</v>
       </c>
       <c r="G4" t="n">
+        <v>77.13333333333328</v>
+      </c>
+      <c r="H4" t="n">
         <v>77.62833333333342</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>800</v>
       </c>
       <c r="G5" t="n">
+        <v>77.25333333333329</v>
+      </c>
+      <c r="H5" t="n">
         <v>77.62666666666676</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>9870</v>
       </c>
       <c r="G6" t="n">
+        <v>77.38666666666661</v>
+      </c>
+      <c r="H6" t="n">
         <v>77.63166666666676</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>2650181.5922</v>
       </c>
       <c r="G7" t="n">
+        <v>77.51999999999995</v>
+      </c>
+      <c r="H7" t="n">
         <v>77.63833333333342</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>3642396.4078</v>
       </c>
       <c r="G8" t="n">
+        <v>77.58666666666662</v>
+      </c>
+      <c r="H8" t="n">
         <v>77.63666666666676</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>297184</v>
       </c>
       <c r="G9" t="n">
+        <v>77.68666666666662</v>
+      </c>
+      <c r="H9" t="n">
         <v>77.63333333333343</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>200800</v>
       </c>
       <c r="G10" t="n">
+        <v>77.72666666666662</v>
+      </c>
+      <c r="H10" t="n">
         <v>77.63000000000009</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>7330.8184</v>
       </c>
       <c r="G11" t="n">
+        <v>77.83999999999995</v>
+      </c>
+      <c r="H11" t="n">
         <v>77.61666666666676</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>2254.4105</v>
       </c>
       <c r="G12" t="n">
+        <v>77.86666666666662</v>
+      </c>
+      <c r="H12" t="n">
         <v>77.60500000000009</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>400</v>
       </c>
       <c r="G13" t="n">
+        <v>77.87333333333329</v>
+      </c>
+      <c r="H13" t="n">
         <v>77.58166666666675</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>4133</v>
       </c>
       <c r="G14" t="n">
+        <v>77.81999999999996</v>
+      </c>
+      <c r="H14" t="n">
         <v>77.54000000000009</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>500</v>
       </c>
       <c r="G15" t="n">
+        <v>77.8333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>77.50833333333341</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>7489</v>
       </c>
       <c r="G16" t="n">
+        <v>77.7733333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>77.46333333333341</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>1188.2008</v>
       </c>
       <c r="G17" t="n">
+        <v>77.7133333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>77.40666666666675</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>400</v>
       </c>
       <c r="G18" t="n">
+        <v>77.68666666666662</v>
+      </c>
+      <c r="H18" t="n">
         <v>77.38000000000009</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>3200</v>
       </c>
       <c r="G19" t="n">
+        <v>77.65333333333328</v>
+      </c>
+      <c r="H19" t="n">
         <v>77.34500000000008</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>22</v>
       </c>
       <c r="G20" t="n">
+        <v>77.59333333333329</v>
+      </c>
+      <c r="H20" t="n">
         <v>77.31666666666675</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>1200</v>
       </c>
       <c r="G21" t="n">
+        <v>77.50666666666663</v>
+      </c>
+      <c r="H21" t="n">
         <v>77.31333333333342</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>17103.4181</v>
       </c>
       <c r="G22" t="n">
+        <v>77.39999999999996</v>
+      </c>
+      <c r="H22" t="n">
         <v>77.2833333333334</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>163</v>
       </c>
       <c r="G23" t="n">
+        <v>77.29333333333331</v>
+      </c>
+      <c r="H23" t="n">
         <v>77.25500000000007</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>0.1311</v>
       </c>
       <c r="G24" t="n">
+        <v>77.18666666666665</v>
+      </c>
+      <c r="H24" t="n">
         <v>77.21833333333339</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>299.25</v>
       </c>
       <c r="G25" t="n">
+        <v>77.09333333333331</v>
+      </c>
+      <c r="H25" t="n">
         <v>77.19166666666673</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>6075.2568</v>
       </c>
       <c r="G26" t="n">
+        <v>76.95999999999998</v>
+      </c>
+      <c r="H26" t="n">
         <v>77.15666666666674</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>5467.7311</v>
       </c>
       <c r="G27" t="n">
+        <v>76.83999999999997</v>
+      </c>
+      <c r="H27" t="n">
         <v>77.1183333333334</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,25 @@
         <v>127.08</v>
       </c>
       <c r="G28" t="n">
+        <v>76.73999999999998</v>
+      </c>
+      <c r="H28" t="n">
         <v>77.08166666666672</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1483,29 @@
         <v>127.0836</v>
       </c>
       <c r="G29" t="n">
+        <v>76.70666666666665</v>
+      </c>
+      <c r="H29" t="n">
         <v>77.04666666666672</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="L29" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1529,29 @@
         <v>54.5454</v>
       </c>
       <c r="G30" t="n">
+        <v>76.59999999999997</v>
+      </c>
+      <c r="H30" t="n">
         <v>77.01333333333339</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L30" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1575,25 @@
         <v>90.90900000000001</v>
       </c>
       <c r="G31" t="n">
+        <v>76.57333333333331</v>
+      </c>
+      <c r="H31" t="n">
         <v>76.99166666666673</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L31" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1617,29 @@
         <v>36.3636</v>
       </c>
       <c r="G32" t="n">
+        <v>76.54666666666665</v>
+      </c>
+      <c r="H32" t="n">
         <v>76.97500000000007</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="L32" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1663,29 @@
         <v>0.18</v>
       </c>
       <c r="G33" t="n">
+        <v>76.49333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>76.96166666666673</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="L33" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1709,25 @@
         <v>11.5234</v>
       </c>
       <c r="G34" t="n">
+        <v>76.51999999999998</v>
+      </c>
+      <c r="H34" t="n">
         <v>76.95000000000006</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="L34" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1751,27 @@
         <v>4552.9664</v>
       </c>
       <c r="G35" t="n">
+        <v>76.56666666666663</v>
+      </c>
+      <c r="H35" t="n">
         <v>76.95666666666673</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1795,27 @@
         <v>3080</v>
       </c>
       <c r="G36" t="n">
+        <v>76.6333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>76.9733333333334</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1839,21 @@
         <v>822.2741</v>
       </c>
       <c r="G37" t="n">
+        <v>76.71999999999997</v>
+      </c>
+      <c r="H37" t="n">
         <v>76.99166666666673</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1877,21 @@
         <v>23.1324</v>
       </c>
       <c r="G38" t="n">
+        <v>76.84666666666662</v>
+      </c>
+      <c r="H38" t="n">
         <v>77.02000000000005</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1915,21 @@
         <v>2582</v>
       </c>
       <c r="G39" t="n">
+        <v>76.93333333333329</v>
+      </c>
+      <c r="H39" t="n">
         <v>77.04000000000005</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1953,21 @@
         <v>15244.8801</v>
       </c>
       <c r="G40" t="n">
+        <v>77.01333333333329</v>
+      </c>
+      <c r="H40" t="n">
         <v>77.06166666666672</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1991,21 @@
         <v>2070</v>
       </c>
       <c r="G41" t="n">
+        <v>77.14666666666662</v>
+      </c>
+      <c r="H41" t="n">
         <v>77.09500000000006</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2029,21 @@
         <v>200</v>
       </c>
       <c r="G42" t="n">
+        <v>77.36666666666662</v>
+      </c>
+      <c r="H42" t="n">
         <v>77.15000000000006</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2067,21 @@
         <v>8455.2405</v>
       </c>
       <c r="G43" t="n">
+        <v>77.48666666666662</v>
+      </c>
+      <c r="H43" t="n">
         <v>77.18000000000006</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2105,21 @@
         <v>12417.178</v>
       </c>
       <c r="G44" t="n">
+        <v>77.60666666666661</v>
+      </c>
+      <c r="H44" t="n">
         <v>77.20166666666674</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2143,21 @@
         <v>11</v>
       </c>
       <c r="G45" t="n">
+        <v>77.79333333333328</v>
+      </c>
+      <c r="H45" t="n">
         <v>77.24000000000007</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2181,21 @@
         <v>9620.9228</v>
       </c>
       <c r="G46" t="n">
+        <v>77.9066666666666</v>
+      </c>
+      <c r="H46" t="n">
         <v>77.26833333333342</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2219,21 @@
         <v>26985.5346</v>
       </c>
       <c r="G47" t="n">
+        <v>77.99333333333327</v>
+      </c>
+      <c r="H47" t="n">
         <v>77.29000000000009</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2257,21 @@
         <v>2392.8817</v>
       </c>
       <c r="G48" t="n">
+        <v>78.05999999999993</v>
+      </c>
+      <c r="H48" t="n">
         <v>77.31500000000008</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2295,21 @@
         <v>24216.3855</v>
       </c>
       <c r="G49" t="n">
+        <v>77.98666666666661</v>
+      </c>
+      <c r="H49" t="n">
         <v>77.32333333333342</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2333,21 @@
         <v>5616.801</v>
       </c>
       <c r="G50" t="n">
+        <v>77.91333333333327</v>
+      </c>
+      <c r="H50" t="n">
         <v>77.33166666666675</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2371,21 @@
         <v>2839.923</v>
       </c>
       <c r="G51" t="n">
+        <v>77.87333333333326</v>
+      </c>
+      <c r="H51" t="n">
         <v>77.35000000000009</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2409,21 @@
         <v>3552.3124</v>
       </c>
       <c r="G52" t="n">
+        <v>77.85999999999993</v>
+      </c>
+      <c r="H52" t="n">
         <v>77.37500000000009</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2447,21 @@
         <v>115756.0838</v>
       </c>
       <c r="G53" t="n">
+        <v>77.8066666666666</v>
+      </c>
+      <c r="H53" t="n">
         <v>77.38333333333343</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2485,21 @@
         <v>315532.1936</v>
       </c>
       <c r="G54" t="n">
+        <v>77.65999999999993</v>
+      </c>
+      <c r="H54" t="n">
         <v>77.36666666666676</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2523,21 @@
         <v>2652.5596</v>
       </c>
       <c r="G55" t="n">
+        <v>77.6066666666666</v>
+      </c>
+      <c r="H55" t="n">
         <v>77.3600000000001</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2561,21 @@
         <v>8597.402</v>
       </c>
       <c r="G56" t="n">
+        <v>77.51999999999994</v>
+      </c>
+      <c r="H56" t="n">
         <v>77.36666666666676</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2599,21 @@
         <v>446</v>
       </c>
       <c r="G57" t="n">
+        <v>77.29999999999994</v>
+      </c>
+      <c r="H57" t="n">
         <v>77.34333333333342</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,22 +2637,21 @@
         <v>1954</v>
       </c>
       <c r="G58" t="n">
+        <v>77.21999999999994</v>
+      </c>
+      <c r="H58" t="n">
         <v>77.33000000000008</v>
       </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="K58" t="n">
-        <v>76.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2447,26 +2675,21 @@
         <v>23.97</v>
       </c>
       <c r="G59" t="n">
+        <v>77.05333333333327</v>
+      </c>
+      <c r="H59" t="n">
         <v>77.29666666666675</v>
       </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>77</v>
-      </c>
-      <c r="K59" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,24 +2713,21 @@
         <v>11</v>
       </c>
       <c r="G60" t="n">
+        <v>76.91333333333327</v>
+      </c>
+      <c r="H60" t="n">
         <v>77.28500000000008</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2531,24 +2751,21 @@
         <v>1608.7542</v>
       </c>
       <c r="G61" t="n">
+        <v>76.83333333333329</v>
+      </c>
+      <c r="H61" t="n">
         <v>77.27166666666675</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2572,24 +2789,21 @@
         <v>1754.7242</v>
       </c>
       <c r="G62" t="n">
+        <v>76.77333333333328</v>
+      </c>
+      <c r="H62" t="n">
         <v>77.25666666666675</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2613,24 +2827,21 @@
         <v>9915</v>
       </c>
       <c r="G63" t="n">
+        <v>76.73333333333329</v>
+      </c>
+      <c r="H63" t="n">
         <v>77.24333333333341</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2654,24 +2865,21 @@
         <v>12036.1444</v>
       </c>
       <c r="G64" t="n">
+        <v>76.73999999999995</v>
+      </c>
+      <c r="H64" t="n">
         <v>77.22500000000009</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2695,24 +2903,21 @@
         <v>4377.7848</v>
       </c>
       <c r="G65" t="n">
+        <v>76.75333333333329</v>
+      </c>
+      <c r="H65" t="n">
         <v>77.20666666666675</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2736,24 +2941,21 @@
         <v>5727.6779</v>
       </c>
       <c r="G66" t="n">
+        <v>76.72666666666663</v>
+      </c>
+      <c r="H66" t="n">
         <v>77.18500000000009</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2777,24 +2979,21 @@
         <v>4800</v>
       </c>
       <c r="G67" t="n">
+        <v>76.6933333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>77.16833333333342</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2818,24 +3017,21 @@
         <v>16474.9985</v>
       </c>
       <c r="G68" t="n">
+        <v>76.6933333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>77.16000000000008</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2859,24 +3055,21 @@
         <v>15000</v>
       </c>
       <c r="G69" t="n">
+        <v>76.7133333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>77.12333333333342</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2900,24 +3093,21 @@
         <v>36528.1268</v>
       </c>
       <c r="G70" t="n">
+        <v>76.61999999999995</v>
+      </c>
+      <c r="H70" t="n">
         <v>77.08333333333343</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2941,24 +3131,21 @@
         <v>27702.7752</v>
       </c>
       <c r="G71" t="n">
+        <v>76.51333333333329</v>
+      </c>
+      <c r="H71" t="n">
         <v>77.03500000000008</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2982,24 +3169,21 @@
         <v>23452.9294</v>
       </c>
       <c r="G72" t="n">
+        <v>76.44666666666663</v>
+      </c>
+      <c r="H72" t="n">
         <v>76.98833333333341</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3023,24 +3207,21 @@
         <v>43304.0058</v>
       </c>
       <c r="G73" t="n">
+        <v>76.33333333333329</v>
+      </c>
+      <c r="H73" t="n">
         <v>76.94500000000009</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3064,24 +3245,27 @@
         <v>28839.3515</v>
       </c>
       <c r="G74" t="n">
+        <v>76.32666666666663</v>
+      </c>
+      <c r="H74" t="n">
         <v>76.92333333333342</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3105,24 +3289,27 @@
         <v>5610.5113</v>
       </c>
       <c r="G75" t="n">
+        <v>76.2733333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>76.89500000000008</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3146,24 +3333,25 @@
         <v>1763</v>
       </c>
       <c r="G76" t="n">
+        <v>76.14666666666662</v>
+      </c>
+      <c r="H76" t="n">
         <v>76.86500000000008</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3187,24 +3375,25 @@
         <v>26</v>
       </c>
       <c r="G77" t="n">
+        <v>76.0533333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>76.84166666666674</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3228,24 +3417,25 @@
         <v>1308</v>
       </c>
       <c r="G78" t="n">
+        <v>75.9933333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>76.82000000000008</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3269,24 +3459,25 @@
         <v>19763.268</v>
       </c>
       <c r="G79" t="n">
+        <v>75.88666666666663</v>
+      </c>
+      <c r="H79" t="n">
         <v>76.7833333333334</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3310,24 +3501,25 @@
         <v>120</v>
       </c>
       <c r="G80" t="n">
+        <v>75.78666666666663</v>
+      </c>
+      <c r="H80" t="n">
         <v>76.75500000000008</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3351,24 +3543,25 @@
         <v>1000.5609</v>
       </c>
       <c r="G81" t="n">
+        <v>75.67999999999996</v>
+      </c>
+      <c r="H81" t="n">
         <v>76.72833333333342</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3392,24 +3585,27 @@
         <v>1231.1986</v>
       </c>
       <c r="G82" t="n">
+        <v>75.54666666666662</v>
+      </c>
+      <c r="H82" t="n">
         <v>76.7050000000001</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3433,24 +3629,27 @@
         <v>5978.8087</v>
       </c>
       <c r="G83" t="n">
+        <v>75.39333333333329</v>
+      </c>
+      <c r="H83" t="n">
         <v>76.6850000000001</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+        <v>75</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3474,24 +3673,27 @@
         <v>2790.4328</v>
       </c>
       <c r="G84" t="n">
+        <v>75.3533333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>76.66500000000011</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3515,24 +3717,27 @@
         <v>1702</v>
       </c>
       <c r="G85" t="n">
+        <v>75.3133333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>76.63833333333342</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3556,24 +3761,27 @@
         <v>280</v>
       </c>
       <c r="G86" t="n">
+        <v>75.28666666666663</v>
+      </c>
+      <c r="H86" t="n">
         <v>76.61666666666676</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+        <v>75</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3597,24 +3805,27 @@
         <v>2299.3564</v>
       </c>
       <c r="G87" t="n">
+        <v>75.26666666666664</v>
+      </c>
+      <c r="H87" t="n">
         <v>76.59500000000008</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+        <v>75</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3638,24 +3849,25 @@
         <v>840</v>
       </c>
       <c r="G88" t="n">
+        <v>75.24666666666664</v>
+      </c>
+      <c r="H88" t="n">
         <v>76.57166666666676</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3679,26 +3891,25 @@
         <v>30429.9413</v>
       </c>
       <c r="G89" t="n">
+        <v>75.21333333333331</v>
+      </c>
+      <c r="H89" t="n">
         <v>76.5500000000001</v>
       </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>75</v>
-      </c>
-      <c r="K89" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3722,24 +3933,25 @@
         <v>832</v>
       </c>
       <c r="G90" t="n">
+        <v>75.1333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>76.52833333333342</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,24 +3975,25 @@
         <v>800</v>
       </c>
       <c r="G91" t="n">
+        <v>75.1333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>76.50500000000009</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3804,24 +4017,25 @@
         <v>15145.9936</v>
       </c>
       <c r="G92" t="n">
+        <v>75.0733333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>76.47333333333343</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3845,26 +4059,25 @@
         <v>378</v>
       </c>
       <c r="G93" t="n">
+        <v>75.00666666666663</v>
+      </c>
+      <c r="H93" t="n">
         <v>76.44833333333344</v>
       </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="K93" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3888,26 +4101,25 @@
         <v>428</v>
       </c>
       <c r="G94" t="n">
+        <v>74.99999999999997</v>
+      </c>
+      <c r="H94" t="n">
         <v>76.40333333333342</v>
       </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>75</v>
-      </c>
-      <c r="K94" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3931,26 +4143,25 @@
         <v>425</v>
       </c>
       <c r="G95" t="n">
+        <v>74.98666666666664</v>
+      </c>
+      <c r="H95" t="n">
         <v>76.36000000000008</v>
       </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K95" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3974,24 +4185,25 @@
         <v>65</v>
       </c>
       <c r="G96" t="n">
+        <v>74.97999999999998</v>
+      </c>
+      <c r="H96" t="n">
         <v>76.31500000000008</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4015,26 +4227,27 @@
         <v>269</v>
       </c>
       <c r="G97" t="n">
+        <v>74.97999999999998</v>
+      </c>
+      <c r="H97" t="n">
         <v>76.27000000000008</v>
       </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
         <v>75</v>
       </c>
-      <c r="K97" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4058,24 +4271,25 @@
         <v>338</v>
       </c>
       <c r="G98" t="n">
+        <v>74.96666666666664</v>
+      </c>
+      <c r="H98" t="n">
         <v>76.21500000000009</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4099,24 +4313,25 @@
         <v>15180.7866</v>
       </c>
       <c r="G99" t="n">
+        <v>74.9533333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>76.17000000000009</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4140,24 +4355,25 @@
         <v>800</v>
       </c>
       <c r="G100" t="n">
+        <v>75.01333333333331</v>
+      </c>
+      <c r="H100" t="n">
         <v>76.13833333333341</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4181,24 +4397,25 @@
         <v>14019.5433</v>
       </c>
       <c r="G101" t="n">
+        <v>74.99333333333331</v>
+      </c>
+      <c r="H101" t="n">
         <v>76.0783333333334</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,24 +4439,25 @@
         <v>388</v>
       </c>
       <c r="G102" t="n">
+        <v>75.02666666666664</v>
+      </c>
+      <c r="H102" t="n">
         <v>76.01000000000006</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,24 +4481,27 @@
         <v>1163</v>
       </c>
       <c r="G103" t="n">
+        <v>75.04666666666664</v>
+      </c>
+      <c r="H103" t="n">
         <v>75.96166666666674</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4304,24 +4525,25 @@
         <v>23.97</v>
       </c>
       <c r="G104" t="n">
+        <v>75.03999999999998</v>
+      </c>
+      <c r="H104" t="n">
         <v>75.90833333333339</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4345,24 +4567,27 @@
         <v>336</v>
       </c>
       <c r="G105" t="n">
+        <v>75.05999999999997</v>
+      </c>
+      <c r="H105" t="n">
         <v>75.84500000000006</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4386,24 +4611,25 @@
         <v>7945.4847</v>
       </c>
       <c r="G106" t="n">
+        <v>75.07999999999997</v>
+      </c>
+      <c r="H106" t="n">
         <v>75.79833333333339</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4427,24 +4653,25 @@
         <v>553</v>
       </c>
       <c r="G107" t="n">
+        <v>75.13999999999997</v>
+      </c>
+      <c r="H107" t="n">
         <v>75.76000000000005</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4468,24 +4695,25 @@
         <v>418</v>
       </c>
       <c r="G108" t="n">
+        <v>75.16666666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>75.72500000000005</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4509,24 +4737,25 @@
         <v>925</v>
       </c>
       <c r="G109" t="n">
+        <v>75.19999999999999</v>
+      </c>
+      <c r="H109" t="n">
         <v>75.70666666666671</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4550,24 +4779,25 @@
         <v>12735.7971</v>
       </c>
       <c r="G110" t="n">
+        <v>75.25999999999999</v>
+      </c>
+      <c r="H110" t="n">
         <v>75.6966666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4591,24 +4821,25 @@
         <v>18895.7971</v>
       </c>
       <c r="G111" t="n">
+        <v>75.32666666666665</v>
+      </c>
+      <c r="H111" t="n">
         <v>75.67833333333336</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4632,24 +4863,25 @@
         <v>10</v>
       </c>
       <c r="G112" t="n">
+        <v>75.44666666666666</v>
+      </c>
+      <c r="H112" t="n">
         <v>75.6666666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4673,24 +4905,25 @@
         <v>122.0581</v>
       </c>
       <c r="G113" t="n">
+        <v>75.51333333333332</v>
+      </c>
+      <c r="H113" t="n">
         <v>75.64166666666669</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4714,24 +4947,25 @@
         <v>1322.3124</v>
       </c>
       <c r="G114" t="n">
+        <v>75.57999999999998</v>
+      </c>
+      <c r="H114" t="n">
         <v>75.65000000000003</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4755,24 +4989,25 @@
         <v>1418.7236</v>
       </c>
       <c r="G115" t="n">
+        <v>75.58666666666664</v>
+      </c>
+      <c r="H115" t="n">
         <v>75.63333333333337</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4796,24 +5031,25 @@
         <v>1000</v>
       </c>
       <c r="G116" t="n">
+        <v>75.67333333333332</v>
+      </c>
+      <c r="H116" t="n">
         <v>75.6166666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4837,24 +5073,25 @@
         <v>123</v>
       </c>
       <c r="G117" t="n">
+        <v>75.71333333333331</v>
+      </c>
+      <c r="H117" t="n">
         <v>75.61333333333337</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4878,24 +5115,27 @@
         <v>10</v>
       </c>
       <c r="G118" t="n">
+        <v>75.75999999999998</v>
+      </c>
+      <c r="H118" t="n">
         <v>75.59666666666671</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+        <v>76</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4919,24 +5159,27 @@
         <v>23</v>
       </c>
       <c r="G119" t="n">
+        <v>75.8333333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>75.60333333333337</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+        <v>76</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4960,24 +5203,25 @@
         <v>109</v>
       </c>
       <c r="G120" t="n">
+        <v>75.87999999999997</v>
+      </c>
+      <c r="H120" t="n">
         <v>75.58666666666669</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5001,24 +5245,27 @@
         <v>1329.3815</v>
       </c>
       <c r="G121" t="n">
+        <v>75.92666666666665</v>
+      </c>
+      <c r="H121" t="n">
         <v>75.5716666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+        <v>76</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5042,24 +5289,27 @@
         <v>2000</v>
       </c>
       <c r="G122" t="n">
+        <v>75.95999999999998</v>
+      </c>
+      <c r="H122" t="n">
         <v>75.55666666666669</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+        <v>76</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5083,24 +5333,27 @@
         <v>15</v>
       </c>
       <c r="G123" t="n">
+        <v>75.99333333333331</v>
+      </c>
+      <c r="H123" t="n">
         <v>75.54000000000002</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5124,24 +5377,27 @@
         <v>1049.1332</v>
       </c>
       <c r="G124" t="n">
+        <v>76.0333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>75.53000000000002</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5165,24 +5421,27 @@
         <v>11.3265</v>
       </c>
       <c r="G125" t="n">
+        <v>76.09333333333329</v>
+      </c>
+      <c r="H125" t="n">
         <v>75.53166666666669</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+        <v>76</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5206,24 +5465,25 @@
         <v>15</v>
       </c>
       <c r="G126" t="n">
+        <v>76.13999999999996</v>
+      </c>
+      <c r="H126" t="n">
         <v>75.53166666666669</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5247,24 +5507,25 @@
         <v>15</v>
       </c>
       <c r="G127" t="n">
+        <v>76.11999999999996</v>
+      </c>
+      <c r="H127" t="n">
         <v>75.52333333333335</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5288,24 +5549,25 @@
         <v>8190.7092</v>
       </c>
       <c r="G128" t="n">
+        <v>76.09999999999997</v>
+      </c>
+      <c r="H128" t="n">
         <v>75.49333333333335</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5329,24 +5591,25 @@
         <v>4182.9842</v>
       </c>
       <c r="G129" t="n">
+        <v>76.1333333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>75.50500000000002</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5370,24 +5633,25 @@
         <v>5187.8422</v>
       </c>
       <c r="G130" t="n">
+        <v>76.18666666666664</v>
+      </c>
+      <c r="H130" t="n">
         <v>75.52500000000002</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5411,24 +5675,25 @@
         <v>1200</v>
       </c>
       <c r="G131" t="n">
+        <v>76.23999999999997</v>
+      </c>
+      <c r="H131" t="n">
         <v>75.54833333333336</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5452,24 +5717,25 @@
         <v>2285</v>
       </c>
       <c r="G132" t="n">
+        <v>76.29333333333329</v>
+      </c>
+      <c r="H132" t="n">
         <v>75.57500000000003</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5493,24 +5759,25 @@
         <v>2800</v>
       </c>
       <c r="G133" t="n">
+        <v>76.29999999999995</v>
+      </c>
+      <c r="H133" t="n">
         <v>75.58833333333337</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5534,24 +5801,25 @@
         <v>800</v>
       </c>
       <c r="G134" t="n">
+        <v>76.29999999999995</v>
+      </c>
+      <c r="H134" t="n">
         <v>75.59666666666671</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5575,24 +5843,27 @@
         <v>9370.8264</v>
       </c>
       <c r="G135" t="n">
+        <v>76.28666666666662</v>
+      </c>
+      <c r="H135" t="n">
         <v>75.59000000000005</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+        <v>76</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5616,24 +5887,27 @@
         <v>1726.4736</v>
       </c>
       <c r="G136" t="n">
+        <v>76.28666666666662</v>
+      </c>
+      <c r="H136" t="n">
         <v>75.60666666666671</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5657,24 +5931,27 @@
         <v>7129.5349</v>
       </c>
       <c r="G137" t="n">
+        <v>76.27999999999994</v>
+      </c>
+      <c r="H137" t="n">
         <v>75.61333333333339</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+        <v>76</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,24 +5975,27 @@
         <v>80</v>
       </c>
       <c r="G138" t="n">
+        <v>76.2866666666666</v>
+      </c>
+      <c r="H138" t="n">
         <v>75.61333333333339</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5739,24 +6019,27 @@
         <v>104</v>
       </c>
       <c r="G139" t="n">
+        <v>76.2866666666666</v>
+      </c>
+      <c r="H139" t="n">
         <v>75.63000000000005</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+        <v>76</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5780,24 +6063,27 @@
         <v>400</v>
       </c>
       <c r="G140" t="n">
+        <v>76.23333333333328</v>
+      </c>
+      <c r="H140" t="n">
         <v>75.64333333333339</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+        <v>76</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5821,24 +6107,27 @@
         <v>1747.2479</v>
       </c>
       <c r="G141" t="n">
+        <v>76.1866666666666</v>
+      </c>
+      <c r="H141" t="n">
         <v>75.65833333333337</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+        <v>76</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5862,24 +6151,27 @@
         <v>1315.0104</v>
       </c>
       <c r="G142" t="n">
+        <v>76.15333333333326</v>
+      </c>
+      <c r="H142" t="n">
         <v>75.67500000000004</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+        <v>76</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5903,24 +6195,25 @@
         <v>1468.0657</v>
       </c>
       <c r="G143" t="n">
+        <v>76.17333333333326</v>
+      </c>
+      <c r="H143" t="n">
         <v>75.68833333333338</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5944,24 +6237,25 @@
         <v>15</v>
       </c>
       <c r="G144" t="n">
+        <v>76.13999999999993</v>
+      </c>
+      <c r="H144" t="n">
         <v>75.70166666666672</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5985,24 +6279,27 @@
         <v>3640</v>
       </c>
       <c r="G145" t="n">
+        <v>76.13999999999993</v>
+      </c>
+      <c r="H145" t="n">
         <v>75.73166666666673</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+        <v>76</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6026,24 +6323,27 @@
         <v>4095</v>
       </c>
       <c r="G146" t="n">
+        <v>76.13999999999993</v>
+      </c>
+      <c r="H146" t="n">
         <v>75.76166666666673</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6067,24 +6367,25 @@
         <v>417.0165</v>
       </c>
       <c r="G147" t="n">
+        <v>76.13999999999993</v>
+      </c>
+      <c r="H147" t="n">
         <v>75.79333333333339</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6108,24 +6409,25 @@
         <v>38.625</v>
       </c>
       <c r="G148" t="n">
+        <v>76.1866666666666</v>
+      </c>
+      <c r="H148" t="n">
         <v>75.82333333333341</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6149,24 +6451,25 @@
         <v>25.3124</v>
       </c>
       <c r="G149" t="n">
+        <v>76.2866666666666</v>
+      </c>
+      <c r="H149" t="n">
         <v>75.86500000000007</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6190,24 +6493,25 @@
         <v>921</v>
       </c>
       <c r="G150" t="n">
+        <v>76.37999999999994</v>
+      </c>
+      <c r="H150" t="n">
         <v>75.90166666666673</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6231,24 +6535,25 @@
         <v>2352.1657</v>
       </c>
       <c r="G151" t="n">
+        <v>76.41999999999993</v>
+      </c>
+      <c r="H151" t="n">
         <v>75.92833333333341</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6272,24 +6577,25 @@
         <v>380.6248</v>
       </c>
       <c r="G152" t="n">
+        <v>76.47333333333327</v>
+      </c>
+      <c r="H152" t="n">
         <v>75.96333333333341</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,24 +6619,25 @@
         <v>10</v>
       </c>
       <c r="G153" t="n">
+        <v>76.5466666666666</v>
+      </c>
+      <c r="H153" t="n">
         <v>75.99833333333342</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6354,24 +6661,25 @@
         <v>3304.7663</v>
       </c>
       <c r="G154" t="n">
+        <v>76.59999999999992</v>
+      </c>
+      <c r="H154" t="n">
         <v>76.0300000000001</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6395,24 +6703,25 @@
         <v>2627.5341</v>
       </c>
       <c r="G155" t="n">
+        <v>76.65999999999993</v>
+      </c>
+      <c r="H155" t="n">
         <v>76.06166666666675</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6436,24 +6745,25 @@
         <v>33.1324</v>
       </c>
       <c r="G156" t="n">
+        <v>76.75333333333327</v>
+      </c>
+      <c r="H156" t="n">
         <v>76.10166666666674</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6477,24 +6787,25 @@
         <v>168.7631</v>
       </c>
       <c r="G157" t="n">
+        <v>76.81333333333328</v>
+      </c>
+      <c r="H157" t="n">
         <v>76.13333333333341</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6518,24 +6829,25 @@
         <v>19723.7398</v>
       </c>
       <c r="G158" t="n">
+        <v>76.89999999999993</v>
+      </c>
+      <c r="H158" t="n">
         <v>76.17166666666675</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6559,24 +6871,25 @@
         <v>200</v>
       </c>
       <c r="G159" t="n">
+        <v>76.93333333333327</v>
+      </c>
+      <c r="H159" t="n">
         <v>76.19666666666674</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6600,24 +6913,25 @@
         <v>34007.6914</v>
       </c>
       <c r="G160" t="n">
+        <v>76.8666666666666</v>
+      </c>
+      <c r="H160" t="n">
         <v>76.19500000000009</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6641,24 +6955,25 @@
         <v>67.11920000000001</v>
       </c>
       <c r="G161" t="n">
+        <v>76.8666666666666</v>
+      </c>
+      <c r="H161" t="n">
         <v>76.23000000000009</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6682,24 +6997,25 @@
         <v>800</v>
       </c>
       <c r="G162" t="n">
+        <v>76.87333333333328</v>
+      </c>
+      <c r="H162" t="n">
         <v>76.25500000000009</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6723,24 +7039,25 @@
         <v>1697.3323</v>
       </c>
       <c r="G163" t="n">
+        <v>76.81999999999995</v>
+      </c>
+      <c r="H163" t="n">
         <v>76.26666666666675</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6764,24 +7081,25 @@
         <v>2688</v>
       </c>
       <c r="G164" t="n">
+        <v>76.77999999999996</v>
+      </c>
+      <c r="H164" t="n">
         <v>76.3000000000001</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6805,24 +7123,25 @@
         <v>1200</v>
       </c>
       <c r="G165" t="n">
+        <v>76.75999999999996</v>
+      </c>
+      <c r="H165" t="n">
         <v>76.32666666666675</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6846,24 +7165,25 @@
         <v>800</v>
       </c>
       <c r="G166" t="n">
+        <v>76.73999999999997</v>
+      </c>
+      <c r="H166" t="n">
         <v>76.34333333333342</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6887,24 +7207,25 @@
         <v>12013.617</v>
       </c>
       <c r="G167" t="n">
+        <v>76.71999999999997</v>
+      </c>
+      <c r="H167" t="n">
         <v>76.35833333333342</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6928,24 +7249,25 @@
         <v>3707</v>
       </c>
       <c r="G168" t="n">
+        <v>76.70666666666665</v>
+      </c>
+      <c r="H168" t="n">
         <v>76.38333333333343</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6969,24 +7291,25 @@
         <v>1200</v>
       </c>
       <c r="G169" t="n">
+        <v>76.71333333333332</v>
+      </c>
+      <c r="H169" t="n">
         <v>76.40833333333343</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7010,24 +7333,25 @@
         <v>3355.1324</v>
       </c>
       <c r="G170" t="n">
+        <v>76.71999999999998</v>
+      </c>
+      <c r="H170" t="n">
         <v>76.42666666666676</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7051,24 +7375,25 @@
         <v>4877</v>
       </c>
       <c r="G171" t="n">
+        <v>76.69333333333331</v>
+      </c>
+      <c r="H171" t="n">
         <v>76.44333333333343</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7092,24 +7417,25 @@
         <v>4610</v>
       </c>
       <c r="G172" t="n">
+        <v>76.69999999999997</v>
+      </c>
+      <c r="H172" t="n">
         <v>76.44666666666676</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,24 +7459,25 @@
         <v>3000</v>
       </c>
       <c r="G173" t="n">
+        <v>76.69333333333331</v>
+      </c>
+      <c r="H173" t="n">
         <v>76.46666666666675</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7174,24 +7501,25 @@
         <v>10807</v>
       </c>
       <c r="G174" t="n">
+        <v>76.69999999999997</v>
+      </c>
+      <c r="H174" t="n">
         <v>76.47666666666676</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7215,24 +7543,25 @@
         <v>3823</v>
       </c>
       <c r="G175" t="n">
+        <v>76.7533333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>76.48666666666676</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7256,24 +7585,25 @@
         <v>2800</v>
       </c>
       <c r="G176" t="n">
+        <v>76.73333333333331</v>
+      </c>
+      <c r="H176" t="n">
         <v>76.4950000000001</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7297,24 +7627,25 @@
         <v>12096.5032</v>
       </c>
       <c r="G177" t="n">
+        <v>76.70666666666664</v>
+      </c>
+      <c r="H177" t="n">
         <v>76.50333333333343</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7338,24 +7669,25 @@
         <v>3142.945</v>
       </c>
       <c r="G178" t="n">
+        <v>76.73333333333331</v>
+      </c>
+      <c r="H178" t="n">
         <v>76.51000000000009</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7379,24 +7711,25 @@
         <v>1220</v>
       </c>
       <c r="G179" t="n">
+        <v>76.69999999999997</v>
+      </c>
+      <c r="H179" t="n">
         <v>76.51666666666675</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7420,24 +7753,27 @@
         <v>280.0523</v>
       </c>
       <c r="G180" t="n">
+        <v>76.66666666666664</v>
+      </c>
+      <c r="H180" t="n">
         <v>76.52333333333341</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7461,24 +7797,27 @@
         <v>1799.1917</v>
       </c>
       <c r="G181" t="n">
+        <v>76.67333333333332</v>
+      </c>
+      <c r="H181" t="n">
         <v>76.53000000000007</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7502,24 +7841,27 @@
         <v>12393.2146</v>
       </c>
       <c r="G182" t="n">
+        <v>76.67999999999999</v>
+      </c>
+      <c r="H182" t="n">
         <v>76.53833333333341</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7543,24 +7885,27 @@
         <v>1600</v>
       </c>
       <c r="G183" t="n">
+        <v>76.64666666666666</v>
+      </c>
+      <c r="H183" t="n">
         <v>76.54666666666675</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7584,24 +7929,27 @@
         <v>12273</v>
       </c>
       <c r="G184" t="n">
+        <v>76.61333333333332</v>
+      </c>
+      <c r="H184" t="n">
         <v>76.55333333333341</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7625,24 +7973,27 @@
         <v>400</v>
       </c>
       <c r="G185" t="n">
+        <v>76.57333333333332</v>
+      </c>
+      <c r="H185" t="n">
         <v>76.54666666666672</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7666,24 +8017,27 @@
         <v>15</v>
       </c>
       <c r="G186" t="n">
+        <v>76.53333333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>76.54166666666673</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7707,24 +8061,27 @@
         <v>2760.0009</v>
       </c>
       <c r="G187" t="n">
+        <v>76.49333333333334</v>
+      </c>
+      <c r="H187" t="n">
         <v>76.54000000000005</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7748,24 +8105,27 @@
         <v>339</v>
       </c>
       <c r="G188" t="n">
+        <v>76.44000000000001</v>
+      </c>
+      <c r="H188" t="n">
         <v>76.55166666666672</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7789,24 +8149,27 @@
         <v>300</v>
       </c>
       <c r="G189" t="n">
+        <v>76.42666666666669</v>
+      </c>
+      <c r="H189" t="n">
         <v>76.55000000000004</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7830,24 +8193,27 @@
         <v>2452</v>
       </c>
       <c r="G190" t="n">
+        <v>76.41333333333337</v>
+      </c>
+      <c r="H190" t="n">
         <v>76.54333333333336</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7871,24 +8237,27 @@
         <v>479</v>
       </c>
       <c r="G191" t="n">
+        <v>76.40666666666671</v>
+      </c>
+      <c r="H191" t="n">
         <v>76.53666666666669</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7912,24 +8281,27 @@
         <v>2185</v>
       </c>
       <c r="G192" t="n">
+        <v>76.40000000000005</v>
+      </c>
+      <c r="H192" t="n">
         <v>76.53000000000002</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7953,24 +8325,27 @@
         <v>249.2135</v>
       </c>
       <c r="G193" t="n">
+        <v>76.40000000000005</v>
+      </c>
+      <c r="H193" t="n">
         <v>76.53500000000001</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7994,24 +8369,27 @@
         <v>13.6782</v>
       </c>
       <c r="G194" t="n">
+        <v>76.45333333333338</v>
+      </c>
+      <c r="H194" t="n">
         <v>76.55500000000001</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8035,24 +8413,25 @@
         <v>4669</v>
       </c>
       <c r="G195" t="n">
+        <v>76.5066666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>76.57833333333333</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8076,24 +8455,25 @@
         <v>32112.90970740741</v>
       </c>
       <c r="G196" t="n">
+        <v>76.63333333333337</v>
+      </c>
+      <c r="H196" t="n">
         <v>76.61666666666666</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8117,24 +8497,25 @@
         <v>14846.1518</v>
       </c>
       <c r="G197" t="n">
+        <v>76.75333333333336</v>
+      </c>
+      <c r="H197" t="n">
         <v>76.65666666666667</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8158,24 +8539,25 @@
         <v>1211.6157</v>
       </c>
       <c r="G198" t="n">
+        <v>76.90000000000002</v>
+      </c>
+      <c r="H198" t="n">
         <v>76.7</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8199,24 +8581,25 @@
         <v>1479.951</v>
       </c>
       <c r="G199" t="n">
+        <v>77.02000000000001</v>
+      </c>
+      <c r="H199" t="n">
         <v>76.73666666666666</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8240,24 +8623,25 @@
         <v>1878.9413</v>
       </c>
       <c r="G200" t="n">
+        <v>77.15333333333335</v>
+      </c>
+      <c r="H200" t="n">
         <v>76.77666666666666</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8281,24 +8665,25 @@
         <v>414.9459</v>
       </c>
       <c r="G201" t="n">
+        <v>77.28666666666668</v>
+      </c>
+      <c r="H201" t="n">
         <v>76.81666666666665</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8322,25 +8707,26 @@
         <v>43.3163</v>
       </c>
       <c r="G202" t="n">
+        <v>77.42000000000002</v>
+      </c>
+      <c r="H202" t="n">
         <v>76.85666666666664</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
-        <v>1</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1.023871391076116</v>
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -8363,18 +8749,25 @@
         <v>2476.968</v>
       </c>
       <c r="G203" t="n">
+        <v>77.54666666666667</v>
+      </c>
+      <c r="H203" t="n">
         <v>76.89499999999998</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8398,18 +8791,25 @@
         <v>525</v>
       </c>
       <c r="G204" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="H204" t="n">
         <v>76.93999999999998</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8433,18 +8833,25 @@
         <v>3442</v>
       </c>
       <c r="G205" t="n">
+        <v>77.85333333333332</v>
+      </c>
+      <c r="H205" t="n">
         <v>76.97166666666664</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8468,18 +8875,423 @@
         <v>148.6883</v>
       </c>
       <c r="G206" t="n">
+        <v>78.04666666666665</v>
+      </c>
+      <c r="H206" t="n">
         <v>77.01333333333331</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="C207" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="D207" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="E207" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="F207" t="n">
+        <v>800</v>
+      </c>
+      <c r="G207" t="n">
+        <v>78.17999999999999</v>
+      </c>
+      <c r="H207" t="n">
+        <v>77.03999999999996</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="C208" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="D208" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="E208" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="F208" t="n">
+        <v>16408.1028</v>
+      </c>
+      <c r="G208" t="n">
+        <v>78.27333333333331</v>
+      </c>
+      <c r="H208" t="n">
+        <v>77.05666666666663</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>79</v>
+      </c>
+      <c r="C209" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="D209" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="E209" t="n">
+        <v>79</v>
+      </c>
+      <c r="F209" t="n">
+        <v>3289</v>
+      </c>
+      <c r="G209" t="n">
+        <v>78.40666666666665</v>
+      </c>
+      <c r="H209" t="n">
+        <v>77.08499999999997</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>79</v>
+      </c>
+      <c r="C210" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="D210" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="E210" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F210" t="n">
+        <v>10975.7534</v>
+      </c>
+      <c r="G210" t="n">
+        <v>78.54666666666664</v>
+      </c>
+      <c r="H210" t="n">
+        <v>77.11999999999996</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="C211" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="D211" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="E211" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G211" t="n">
+        <v>78.58666666666664</v>
+      </c>
+      <c r="H211" t="n">
+        <v>77.15833333333329</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>1</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="C212" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="D212" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="E212" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="F212" t="n">
+        <v>11134.4722</v>
+      </c>
+      <c r="G212" t="n">
+        <v>78.65999999999998</v>
+      </c>
+      <c r="H212" t="n">
+        <v>77.20333333333329</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="D213" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="E213" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="F213" t="n">
+        <v>10394.5275</v>
+      </c>
+      <c r="G213" t="n">
+        <v>78.60666666666664</v>
+      </c>
+      <c r="H213" t="n">
+        <v>77.21499999999995</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="C214" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="D214" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="E214" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="F214" t="n">
+        <v>728</v>
+      </c>
+      <c r="G214" t="n">
+        <v>78.6133333333333</v>
+      </c>
+      <c r="H214" t="n">
+        <v>77.23999999999995</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="C215" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="D215" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="E215" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1032</v>
+      </c>
+      <c r="G215" t="n">
+        <v>78.63999999999996</v>
+      </c>
+      <c r="H215" t="n">
+        <v>77.27166666666662</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>1</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="C216" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="D216" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="E216" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="F216" t="n">
+        <v>90.7868</v>
+      </c>
+      <c r="G216" t="n">
+        <v>78.66666666666661</v>
+      </c>
+      <c r="H216" t="n">
+        <v>77.29499999999997</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>1</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-27 BackTest PAY.xlsx
+++ b/BackTest/2019-10-27 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N274"/>
+  <dimension ref="A1:M274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-261288.5281</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-262161.5281</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-262452.5281</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-252707.1242</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-223742.522</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>-405756.4278</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>-405174.4278</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>-399543.4278</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1804,15 @@
         <v>-399543.4278</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,15 @@
         <v>-402381.4278</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>-398525.3866688946</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>-404326.7139884823</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>-404010.1502884823</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>-404010.1502884823</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2365,15 @@
         <v>-404010.1502884823</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>-404010.1502884823</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>-404010.1502884823</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>-403210.1502884823</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>-393340.1502884823</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>-393340.1502884823</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>-393340.1502884823</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>-388263.7423884823</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2761,15 @@
         <v>-392796.7423884823</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>-399785.7423884823</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +2893,15 @@
         <v>-399385.7423884823</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3157,15 @@
         <v>-426687.1672884822</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3223,15 @@
         <v>-432027.8183884822</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3256,15 @@
         <v>-432154.9019884822</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,18 +3289,15 @@
         <v>-432154.9019884822</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3388,15 @@
         <v>-432063.8129884822</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3421,15 @@
         <v>-432052.2895884822</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3454,15 @@
         <v>-432052.2895884822</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>-428972.2895884822</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3520,15 @@
         <v>-428972.2895884822</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3553,15 @@
         <v>-428949.1571884822</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3586,15 @@
         <v>-431531.1571884822</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,18 +3619,15 @@
         <v>-416286.2770884822</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +3751,15 @@
         <v>-434888.6955884823</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4092,18 +3784,15 @@
         <v>-434877.6955884823</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4128,18 +3817,15 @@
         <v>-444498.6183884823</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4164,18 +3850,15 @@
         <v>-471484.1529884823</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4200,18 +3883,15 @@
         <v>-473877.0346884823</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4344,18 +4015,15 @@
         <v>-491701.1847884823</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4380,18 +4048,15 @@
         <v>-491701.1847884823</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4740,18 +4378,15 @@
         <v>-796534.2671884822</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4776,18 +4411,15 @@
         <v>-808570.4115884822</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4812,18 +4444,15 @@
         <v>-804192.6267884822</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4848,18 +4477,15 @@
         <v>-804192.6267884822</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4884,18 +4510,15 @@
         <v>-799392.6267884822</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4920,18 +4543,15 @@
         <v>-782917.6282884822</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4956,18 +4576,15 @@
         <v>-797917.6282884822</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4992,18 +4609,15 @@
         <v>-834445.7550884822</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5100,18 +4708,15 @@
         <v>-842297.4538884822</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6036,18 +5566,19 @@
         <v>-842105.1598884823</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J157" t="n">
+        <v>75</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6072,22 +5603,23 @@
         <v>-841305.1598884823</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J158" t="n">
         <v>75</v>
       </c>
-      <c r="K158" t="n">
-        <v>75</v>
-      </c>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6112,24 +5644,23 @@
         <v>-855324.7031884823</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>75</v>
-      </c>
-      <c r="L159" t="inlineStr">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="J159" t="n">
+        <v>75</v>
+      </c>
+      <c r="K159" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6154,26 +5685,23 @@
         <v>-854936.7031884823</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>74.7</v>
       </c>
       <c r="J160" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="K160" t="n">
-        <v>75</v>
-      </c>
-      <c r="L160" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6198,24 +5726,23 @@
         <v>-856099.7031884823</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>75</v>
-      </c>
-      <c r="L161" t="inlineStr">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="J161" t="n">
+        <v>75</v>
+      </c>
+      <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6242,22 +5769,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>75</v>
-      </c>
-      <c r="L162" t="inlineStr">
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>75</v>
+      </c>
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6284,22 +5808,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>75</v>
-      </c>
-      <c r="L163" t="inlineStr">
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>75</v>
+      </c>
+      <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6326,22 +5847,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>75</v>
-      </c>
-      <c r="L164" t="inlineStr">
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>75</v>
+      </c>
+      <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6368,22 +5886,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>75</v>
-      </c>
-      <c r="L165" t="inlineStr">
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>75</v>
+      </c>
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6408,26 +5923,23 @@
         <v>-855234.6731884823</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="J166" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="K166" t="n">
-        <v>75</v>
-      </c>
-      <c r="L166" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6452,26 +5964,23 @@
         <v>-855234.6731884823</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="J167" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="K167" t="n">
-        <v>75</v>
-      </c>
-      <c r="L167" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6496,26 +6005,23 @@
         <v>-842498.8760884823</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="J168" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="K168" t="n">
-        <v>75</v>
-      </c>
-      <c r="L168" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6540,26 +6046,23 @@
         <v>-823603.0789884824</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="J169" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="K169" t="n">
-        <v>75</v>
-      </c>
-      <c r="L169" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6586,22 +6089,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>75</v>
-      </c>
-      <c r="L170" t="inlineStr">
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>75</v>
+      </c>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6628,22 +6128,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>75</v>
-      </c>
-      <c r="L171" t="inlineStr">
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>75</v>
+      </c>
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6670,22 +6167,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>75</v>
-      </c>
-      <c r="L172" t="inlineStr">
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>75</v>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6712,22 +6206,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>75</v>
-      </c>
-      <c r="L173" t="inlineStr">
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>75</v>
+      </c>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6754,22 +6245,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>75</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>75</v>
+      </c>
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6796,22 +6284,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>75</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>75</v>
+      </c>
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6836,24 +6321,23 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>75</v>
-      </c>
-      <c r="L176" t="inlineStr">
+        <v>76</v>
+      </c>
+      <c r="J176" t="n">
+        <v>75</v>
+      </c>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6878,24 +6362,23 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>75</v>
-      </c>
-      <c r="L177" t="inlineStr">
+        <v>76</v>
+      </c>
+      <c r="J177" t="n">
+        <v>75</v>
+      </c>
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6920,24 +6403,23 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>75</v>
-      </c>
-      <c r="L178" t="inlineStr">
+        <v>76</v>
+      </c>
+      <c r="J178" t="n">
+        <v>75</v>
+      </c>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6962,24 +6444,23 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>75</v>
-      </c>
-      <c r="L179" t="inlineStr">
+        <v>76</v>
+      </c>
+      <c r="J179" t="n">
+        <v>75</v>
+      </c>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7004,26 +6485,23 @@
         <v>-825715.1370884824</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="J180" t="n">
-        <v>76</v>
-      </c>
-      <c r="K180" t="n">
-        <v>75</v>
-      </c>
-      <c r="L180" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7048,26 +6526,23 @@
         <v>-825715.1370884824</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="J181" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="K181" t="n">
-        <v>75</v>
-      </c>
-      <c r="L181" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7092,26 +6567,23 @@
         <v>-824666.0038884823</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="J182" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="K182" t="n">
-        <v>75</v>
-      </c>
-      <c r="L182" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7136,26 +6608,23 @@
         <v>-824654.6773884824</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="J183" t="n">
-        <v>76</v>
-      </c>
-      <c r="K183" t="n">
-        <v>75</v>
-      </c>
-      <c r="L183" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7180,26 +6649,23 @@
         <v>-824669.6773884824</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>76.8</v>
       </c>
       <c r="J184" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="K184" t="n">
-        <v>75</v>
-      </c>
-      <c r="L184" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7224,26 +6690,23 @@
         <v>-824684.6773884824</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>76.7</v>
       </c>
       <c r="J185" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="K185" t="n">
-        <v>75</v>
-      </c>
-      <c r="L185" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7268,26 +6731,21 @@
         <v>-832875.3865884824</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="K186" t="n">
-        <v>75</v>
-      </c>
-      <c r="L186" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7312,26 +6770,21 @@
         <v>-828692.4023884825</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K187" t="n">
-        <v>75</v>
-      </c>
-      <c r="L187" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7356,26 +6809,23 @@
         <v>-823504.5601884825</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>76.5</v>
       </c>
       <c r="J188" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="K188" t="n">
-        <v>75</v>
-      </c>
-      <c r="L188" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7402,22 +6852,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>75</v>
-      </c>
-      <c r="L189" t="inlineStr">
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>75</v>
+      </c>
+      <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7442,26 +6889,21 @@
         <v>-823504.5601884825</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="K190" t="n">
-        <v>75</v>
-      </c>
-      <c r="L190" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7486,26 +6928,23 @@
         <v>-826304.5601884825</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>76.8</v>
       </c>
       <c r="J191" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="K191" t="n">
-        <v>75</v>
-      </c>
-      <c r="L191" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7530,26 +6969,23 @@
         <v>-827104.5601884825</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="J192" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="K192" t="n">
-        <v>75</v>
-      </c>
-      <c r="L192" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7574,26 +7010,23 @@
         <v>-836475.3865884825</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="J193" t="n">
-        <v>76</v>
-      </c>
-      <c r="K193" t="n">
-        <v>75</v>
-      </c>
-      <c r="L193" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7618,26 +7051,23 @@
         <v>-834748.9129884825</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>75.8</v>
       </c>
       <c r="J194" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="K194" t="n">
-        <v>75</v>
-      </c>
-      <c r="L194" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7662,26 +7092,23 @@
         <v>-841878.4478884825</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="J195" t="n">
-        <v>76</v>
-      </c>
-      <c r="K195" t="n">
-        <v>75</v>
-      </c>
-      <c r="L195" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7706,26 +7133,23 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>75.8</v>
       </c>
       <c r="J196" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="K196" t="n">
-        <v>75</v>
-      </c>
-      <c r="L196" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7750,26 +7174,23 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="J197" t="n">
-        <v>76</v>
-      </c>
-      <c r="K197" t="n">
-        <v>75</v>
-      </c>
-      <c r="L197" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7794,26 +7215,23 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="J198" t="n">
-        <v>76</v>
-      </c>
-      <c r="K198" t="n">
-        <v>75</v>
-      </c>
-      <c r="L198" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7838,26 +7256,21 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>76</v>
-      </c>
-      <c r="K199" t="n">
-        <v>75</v>
-      </c>
-      <c r="L199" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7882,26 +7295,21 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>76</v>
-      </c>
-      <c r="K200" t="n">
-        <v>75</v>
-      </c>
-      <c r="L200" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7926,26 +7334,21 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>76</v>
-      </c>
-      <c r="K201" t="n">
-        <v>75</v>
-      </c>
-      <c r="L201" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7970,26 +7373,23 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="J202" t="n">
-        <v>76</v>
-      </c>
-      <c r="K202" t="n">
-        <v>75</v>
-      </c>
-      <c r="L202" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8014,26 +7414,21 @@
         <v>-838158.4478884825</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>76</v>
-      </c>
-      <c r="K203" t="n">
-        <v>75</v>
-      </c>
-      <c r="L203" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8058,26 +7453,23 @@
         <v>-838158.4478884825</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>76.8</v>
       </c>
       <c r="J204" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="K204" t="n">
-        <v>75</v>
-      </c>
-      <c r="L204" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8102,26 +7494,21 @@
         <v>-838158.4478884825</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="K205" t="n">
-        <v>75</v>
-      </c>
-      <c r="L205" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8146,26 +7533,21 @@
         <v>-838158.4478884825</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="K206" t="n">
-        <v>75</v>
-      </c>
-      <c r="L206" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8190,24 +7572,23 @@
         <v>-838133.1354884824</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>75</v>
-      </c>
-      <c r="L207" t="inlineStr">
+        <v>76.8</v>
+      </c>
+      <c r="J207" t="n">
+        <v>75</v>
+      </c>
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8232,24 +7613,23 @@
         <v>-839054.1354884824</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>75</v>
-      </c>
-      <c r="L208" t="inlineStr">
+        <v>77.5</v>
+      </c>
+      <c r="J208" t="n">
+        <v>75</v>
+      </c>
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8276,22 +7656,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>75</v>
-      </c>
-      <c r="L209" t="inlineStr">
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>75</v>
+      </c>
+      <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8318,22 +7695,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>75</v>
-      </c>
-      <c r="L210" t="inlineStr">
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>75</v>
+      </c>
+      <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8360,22 +7734,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>75</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>75</v>
+      </c>
+      <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8402,22 +7773,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>75</v>
-      </c>
-      <c r="L212" t="inlineStr">
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>75</v>
+      </c>
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8444,22 +7812,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>75</v>
-      </c>
-      <c r="L213" t="inlineStr">
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>75</v>
+      </c>
+      <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8486,22 +7851,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>75</v>
-      </c>
-      <c r="L214" t="inlineStr">
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>75</v>
+      </c>
+      <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8528,22 +7890,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>75</v>
-      </c>
-      <c r="L215" t="inlineStr">
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>75</v>
+      </c>
+      <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8570,22 +7929,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>75</v>
-      </c>
-      <c r="L216" t="inlineStr">
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>75</v>
+      </c>
+      <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8612,22 +7968,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>75</v>
-      </c>
-      <c r="L217" t="inlineStr">
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>75</v>
+      </c>
+      <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8654,22 +8007,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>75</v>
-      </c>
-      <c r="L218" t="inlineStr">
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>75</v>
+      </c>
+      <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8696,22 +8046,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>75</v>
-      </c>
-      <c r="L219" t="inlineStr">
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>75</v>
+      </c>
+      <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8738,22 +8085,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>75</v>
-      </c>
-      <c r="L220" t="inlineStr">
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>75</v>
+      </c>
+      <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8780,22 +8124,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>75</v>
-      </c>
-      <c r="L221" t="inlineStr">
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>75</v>
+      </c>
+      <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8822,22 +8163,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>75</v>
-      </c>
-      <c r="L222" t="inlineStr">
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>75</v>
+      </c>
+      <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8864,22 +8202,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>75</v>
-      </c>
-      <c r="L223" t="inlineStr">
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>75</v>
+      </c>
+      <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8906,22 +8241,19 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>75</v>
-      </c>
-      <c r="L224" t="inlineStr">
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>75</v>
+      </c>
+      <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8948,22 +8280,19 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>75</v>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>75</v>
+      </c>
+      <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8990,22 +8319,19 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>75</v>
-      </c>
-      <c r="L226" t="inlineStr">
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>75</v>
+      </c>
+      <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9032,22 +8358,19 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>75</v>
-      </c>
-      <c r="L227" t="inlineStr">
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>75</v>
+      </c>
+      <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9074,22 +8397,19 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>75</v>
-      </c>
-      <c r="L228" t="inlineStr">
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>75</v>
+      </c>
+      <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9116,22 +8436,19 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>75</v>
-      </c>
-      <c r="L229" t="inlineStr">
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>75</v>
+      </c>
+      <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9158,22 +8475,19 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>75</v>
-      </c>
-      <c r="L230" t="inlineStr">
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>75</v>
+      </c>
+      <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9200,22 +8514,19 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>75</v>
-      </c>
-      <c r="L231" t="inlineStr">
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>75</v>
+      </c>
+      <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9240,24 +8551,23 @@
         <v>-856380.1963884825</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>75</v>
-      </c>
-      <c r="L232" t="inlineStr">
+        <v>77.2</v>
+      </c>
+      <c r="J232" t="n">
+        <v>75</v>
+      </c>
+      <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9284,22 +8594,19 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>75</v>
-      </c>
-      <c r="L233" t="inlineStr">
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>75</v>
+      </c>
+      <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9326,22 +8633,19 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>75</v>
-      </c>
-      <c r="L234" t="inlineStr">
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>75</v>
+      </c>
+      <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9368,22 +8672,19 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>75</v>
-      </c>
-      <c r="L235" t="inlineStr">
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>75</v>
+      </c>
+      <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9410,22 +8711,19 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>75</v>
-      </c>
-      <c r="L236" t="inlineStr">
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>75</v>
+      </c>
+      <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9452,22 +8750,19 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>75</v>
-      </c>
-      <c r="L237" t="inlineStr">
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>75</v>
+      </c>
+      <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9494,22 +8789,19 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>75</v>
-      </c>
-      <c r="L238" t="inlineStr">
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>75</v>
+      </c>
+      <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9536,22 +8828,19 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>75</v>
-      </c>
-      <c r="L239" t="inlineStr">
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>75</v>
+      </c>
+      <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9578,22 +8867,19 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>75</v>
-      </c>
-      <c r="L240" t="inlineStr">
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>75</v>
+      </c>
+      <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9620,22 +8906,19 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>75</v>
-      </c>
-      <c r="L241" t="inlineStr">
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>75</v>
+      </c>
+      <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9662,22 +8945,19 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>75</v>
-      </c>
-      <c r="L242" t="inlineStr">
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>75</v>
+      </c>
+      <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9704,22 +8984,19 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>75</v>
-      </c>
-      <c r="L243" t="inlineStr">
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>75</v>
+      </c>
+      <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9746,22 +9023,19 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>75</v>
-      </c>
-      <c r="L244" t="inlineStr">
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>75</v>
+      </c>
+      <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9786,24 +9060,23 @@
         <v>-862323.1413884824</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>75</v>
-      </c>
-      <c r="L245" t="inlineStr">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J245" t="n">
+        <v>75</v>
+      </c>
+      <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9828,24 +9101,23 @@
         <v>-862323.1413884824</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>75</v>
-      </c>
-      <c r="L246" t="inlineStr">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J246" t="n">
+        <v>75</v>
+      </c>
+      <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9872,22 +9144,19 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>75</v>
-      </c>
-      <c r="L247" t="inlineStr">
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>75</v>
+      </c>
+      <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9914,22 +9183,19 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>75</v>
-      </c>
-      <c r="L248" t="inlineStr">
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>75</v>
+      </c>
+      <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9954,24 +9220,23 @@
         <v>-862323.1413884824</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>75</v>
-      </c>
-      <c r="L249" t="inlineStr">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J249" t="n">
+        <v>75</v>
+      </c>
+      <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9998,22 +9263,19 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>75</v>
-      </c>
-      <c r="L250" t="inlineStr">
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>75</v>
+      </c>
+      <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10040,22 +9302,19 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>75</v>
-      </c>
-      <c r="L251" t="inlineStr">
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>75</v>
+      </c>
+      <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10082,22 +9341,19 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>75</v>
-      </c>
-      <c r="L252" t="inlineStr">
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>75</v>
+      </c>
+      <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10124,22 +9380,19 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>75</v>
-      </c>
-      <c r="L253" t="inlineStr">
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>75</v>
+      </c>
+      <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10166,22 +9419,19 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>75</v>
-      </c>
-      <c r="L254" t="inlineStr">
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>75</v>
+      </c>
+      <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10208,22 +9458,19 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>75</v>
-      </c>
-      <c r="L255" t="inlineStr">
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>75</v>
+      </c>
+      <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10250,22 +9497,19 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>75</v>
-      </c>
-      <c r="L256" t="inlineStr">
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>75</v>
+      </c>
+      <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10290,24 +9534,21 @@
         <v>-845311.040581075</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>75</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>75</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1.037666666666667</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10334,22 +9575,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>75</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10376,22 +9608,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>75</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10418,22 +9641,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>75</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10460,22 +9674,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>75</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10502,22 +9707,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>75</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10542,24 +9738,15 @@
         <v>-845384.0672810751</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>75</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10584,24 +9771,15 @@
         <v>-845235.378981075</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>75</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10626,24 +9804,15 @@
         <v>-846035.378981075</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>75</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10668,24 +9837,15 @@
         <v>-862443.481781075</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>75</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10710,24 +9870,15 @@
         <v>-859154.481781075</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>75</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10752,24 +9903,15 @@
         <v>-848178.728381075</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>75</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10794,24 +9936,15 @@
         <v>-850578.728381075</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>75</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10836,24 +9969,15 @@
         <v>-839444.256181075</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>75</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10878,24 +10002,15 @@
         <v>-849838.783681075</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>75</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10920,24 +10035,15 @@
         <v>-849110.783681075</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>75</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10962,24 +10068,15 @@
         <v>-848078.783681075</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>75</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -11004,26 +10101,17 @@
         <v>-848078.783681075</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>75</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest PAY.xlsx
+++ b/BackTest/2019-10-27 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-261288.5281</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-261870.5281</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-262161.5281</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-262452.5281</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-260886.5281</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-258522.5281</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-258522.5281</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-247563.3287</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-251800.3287</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-251047.1762</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-252718.1242</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-252707.1242</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-223742.522</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-405756.4278</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-405174.4278</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-399543.4278</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-399543.4278</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-402381.4278</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-398525.3866688946</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-404326.7139884823</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-404010.1502884823</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-404010.1502884823</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-404010.1502884823</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-404010.1502884823</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-404010.1502884823</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-403210.1502884823</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-393340.1502884823</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-393340.1502884823</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-393340.1502884823</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-388263.7423884823</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-392796.7423884823</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-399785.7423884823</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-399385.7423884823</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-426687.1672884822</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-432027.8183884822</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-432154.9019884822</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-432154.9019884822</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-432063.8129884822</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-432052.2895884822</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-432052.2895884822</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-428972.2895884822</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-428972.2895884822</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-428949.1571884822</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-431531.1571884822</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-416286.2770884822</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-434888.6955884823</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-434877.6955884823</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-444498.6183884823</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-471484.1529884823</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-473877.0346884823</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-491701.1847884823</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-491701.1847884823</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-796534.2671884822</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-808570.4115884822</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-804192.6267884822</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-804192.6267884822</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-799392.6267884822</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-782917.6282884822</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-797917.6282884822</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-834445.7550884822</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-842297.4538884822</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,11 +4741,17 @@
         <v>-813458.1023884822</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>75.3</v>
+      </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +4780,17 @@
         <v>-807847.5910884822</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>75.5</v>
+      </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +4819,17 @@
         <v>-809610.5910884822</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>76.2</v>
+      </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4840,11 +4858,17 @@
         <v>-809584.5910884822</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>75</v>
+      </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +4897,17 @@
         <v>-808276.5910884822</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +4936,17 @@
         <v>-828039.8590884822</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>76</v>
+      </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4939,11 +4975,17 @@
         <v>-827919.8590884822</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>75</v>
+      </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +5014,17 @@
         <v>-828920.4199884823</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>75.2</v>
+      </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +5053,17 @@
         <v>-830151.6185884823</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>75.09999999999999</v>
+      </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +5092,17 @@
         <v>-824172.8098884822</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>75</v>
+      </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5131,17 @@
         <v>-824172.8098884822</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>75.2</v>
+      </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5170,17 @@
         <v>-825874.8098884822</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>75.2</v>
+      </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +5209,17 @@
         <v>-825874.8098884822</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>75</v>
+      </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5248,17 @@
         <v>-828174.1662884823</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>75</v>
+      </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5287,17 @@
         <v>-827334.1662884823</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5326,17 @@
         <v>-827334.1662884823</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>75</v>
+      </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5365,17 @@
         <v>-827334.1662884823</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>75</v>
+      </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5404,17 @@
         <v>-827334.1662884823</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>75</v>
+      </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5443,17 @@
         <v>-842480.1598884823</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>75</v>
+      </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5482,17 @@
         <v>-842102.1598884823</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>74.5</v>
+      </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5521,17 @@
         <v>-842530.1598884823</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>75</v>
+      </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5560,17 @@
         <v>-842105.1598884823</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5599,17 @@
         <v>-842105.1598884823</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>75</v>
+      </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5638,17 @@
         <v>-842105.1598884823</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>75</v>
+      </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5677,17 @@
         <v>-842105.1598884823</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>75</v>
+      </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,15 +5716,17 @@
         <v>-842105.1598884823</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>75</v>
       </c>
-      <c r="J157" t="n">
-        <v>75</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5603,17 +5755,15 @@
         <v>-841305.1598884823</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>75</v>
       </c>
-      <c r="J158" t="n">
-        <v>75</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L158" t="n">
@@ -5644,17 +5794,15 @@
         <v>-855324.7031884823</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>75.90000000000001</v>
       </c>
-      <c r="J159" t="n">
-        <v>75</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L159" t="n">
@@ -5685,14 +5833,12 @@
         <v>-854936.7031884823</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>74.7</v>
       </c>
-      <c r="J160" t="n">
-        <v>75</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5726,14 +5872,12 @@
         <v>-856099.7031884823</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c r="J161" t="n">
-        <v>75</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5767,12 +5911,12 @@
         <v>-856123.6731884823</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5806,12 +5950,12 @@
         <v>-855787.6731884823</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5845,12 +5989,12 @@
         <v>-855787.6731884823</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5884,12 +6028,12 @@
         <v>-855234.6731884823</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5923,14 +6067,12 @@
         <v>-855234.6731884823</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c r="J166" t="n">
-        <v>75</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5964,14 +6106,12 @@
         <v>-855234.6731884823</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c r="J167" t="n">
-        <v>75</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6005,14 +6145,12 @@
         <v>-842498.8760884823</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c r="J168" t="n">
-        <v>75</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6046,14 +6184,12 @@
         <v>-823603.0789884824</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>75.90000000000001</v>
       </c>
-      <c r="J169" t="n">
-        <v>75</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6087,12 +6223,12 @@
         <v>-823593.0789884824</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>76</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6129,9 +6265,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>75</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6168,9 +6302,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>75</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6204,12 +6336,12 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>76</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6246,9 +6378,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>75</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6285,9 +6415,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>75</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6321,14 +6449,10 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>76</v>
-      </c>
-      <c r="J176" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6362,14 +6486,10 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="n">
-        <v>76</v>
-      </c>
-      <c r="J177" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6403,14 +6523,12 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>76</v>
       </c>
-      <c r="J178" t="n">
-        <v>75</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6444,14 +6562,10 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>76</v>
-      </c>
-      <c r="J179" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6485,14 +6599,10 @@
         <v>-825715.1370884824</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>76</v>
-      </c>
-      <c r="J180" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6526,14 +6636,12 @@
         <v>-825715.1370884824</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>75.90000000000001</v>
       </c>
-      <c r="J181" t="n">
-        <v>75</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6567,14 +6675,12 @@
         <v>-824666.0038884823</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>75.90000000000001</v>
       </c>
-      <c r="J182" t="n">
-        <v>75</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6608,14 +6714,12 @@
         <v>-824654.6773884824</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>76</v>
       </c>
-      <c r="J183" t="n">
-        <v>75</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6649,14 +6753,10 @@
         <v>-824669.6773884824</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="J184" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6690,14 +6790,10 @@
         <v>-824684.6773884824</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="J185" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6734,9 +6830,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>75</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6773,9 +6867,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>75</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6809,14 +6901,10 @@
         <v>-823504.5601884825</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="J188" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6853,9 +6941,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>75</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6892,9 +6978,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>75</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6928,14 +7012,12 @@
         <v>-826304.5601884825</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>76.8</v>
       </c>
-      <c r="J191" t="n">
-        <v>75</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6969,14 +7051,12 @@
         <v>-827104.5601884825</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>76.09999999999999</v>
       </c>
-      <c r="J192" t="n">
-        <v>75</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7010,14 +7090,12 @@
         <v>-836475.3865884825</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>76</v>
       </c>
-      <c r="J193" t="n">
-        <v>75</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7051,14 +7129,12 @@
         <v>-834748.9129884825</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>75.8</v>
       </c>
-      <c r="J194" t="n">
-        <v>75</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7092,14 +7168,12 @@
         <v>-841878.4478884825</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>76</v>
       </c>
-      <c r="J195" t="n">
-        <v>75</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7133,14 +7207,12 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>75.8</v>
       </c>
-      <c r="J196" t="n">
-        <v>75</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7174,14 +7246,12 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>76</v>
       </c>
-      <c r="J197" t="n">
-        <v>75</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7215,14 +7285,12 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>76</v>
       </c>
-      <c r="J198" t="n">
-        <v>75</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7256,12 +7324,12 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>76</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7295,12 +7363,12 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>76</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7334,12 +7402,12 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>76</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7373,14 +7441,12 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>76</v>
       </c>
-      <c r="J202" t="n">
-        <v>75</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7414,12 +7480,12 @@
         <v>-838158.4478884825</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>76</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7453,14 +7519,12 @@
         <v>-838158.4478884825</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>76.8</v>
       </c>
-      <c r="J204" t="n">
-        <v>75</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7494,12 +7558,12 @@
         <v>-838158.4478884825</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7533,12 +7597,12 @@
         <v>-838158.4478884825</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7572,14 +7636,10 @@
         <v>-838133.1354884824</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="J207" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7613,14 +7673,10 @@
         <v>-839054.1354884824</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="J208" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7657,9 +7713,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>75</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7696,9 +7750,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>75</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7735,9 +7787,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>75</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7774,9 +7824,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>75</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7813,9 +7861,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>75</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7849,12 +7895,12 @@
         <v>-842040.4009884824</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7891,9 +7937,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>75</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7930,9 +7974,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>75</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7969,9 +8011,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>75</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8008,9 +8048,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>75</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8044,12 +8082,12 @@
         <v>-856625.9964884825</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8083,12 +8121,12 @@
         <v>-855825.9964884825</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8125,9 +8163,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>75</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8161,12 +8197,12 @@
         <v>-854835.3287884825</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>76</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8203,9 +8239,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>75</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8242,9 +8276,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>75</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8281,9 +8313,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>75</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8317,12 +8347,12 @@
         <v>-851928.3287884825</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8356,12 +8386,12 @@
         <v>-851928.3287884825</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8398,9 +8428,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>75</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8437,9 +8465,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>75</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8476,9 +8502,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>75</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8515,9 +8539,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>75</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8551,14 +8573,10 @@
         <v>-856380.1963884825</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="J232" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8595,9 +8613,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>75</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8634,9 +8650,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>75</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8673,9 +8687,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>75</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8709,12 +8721,12 @@
         <v>-862323.1413884824</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8748,12 +8760,12 @@
         <v>-862323.1413884824</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8790,9 +8802,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>75</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8829,9 +8839,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>75</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8865,12 +8873,12 @@
         <v>-862323.1413884824</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8907,9 +8915,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>75</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8946,9 +8952,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>75</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8982,12 +8986,12 @@
         <v>-862323.1413884824</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9024,9 +9028,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>75</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9060,14 +9062,12 @@
         <v>-862323.1413884824</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>76.40000000000001</v>
       </c>
-      <c r="J245" t="n">
-        <v>75</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9101,14 +9101,10 @@
         <v>-862323.1413884824</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="J246" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9142,12 +9138,12 @@
         <v>-862323.1413884824</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9184,9 +9180,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>75</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9220,14 +9214,10 @@
         <v>-862323.1413884824</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="n">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="J249" t="n">
-        <v>75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9264,9 +9254,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>75</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9300,12 +9288,12 @@
         <v>-862323.1413884824</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9342,9 +9330,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>75</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9381,9 +9367,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>75</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9420,9 +9404,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>75</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9459,9 +9441,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>75</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9498,9 +9478,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>75</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9534,19 +9512,17 @@
         <v>-845311.040581075</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>75</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L257" t="n">
-        <v>1.037666666666667</v>
+        <v>1</v>
       </c>
       <c r="M257" t="inlineStr"/>
     </row>
@@ -9577,7 +9553,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9610,7 +9590,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9643,7 +9627,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9676,7 +9664,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9709,7 +9701,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9738,11 +9734,15 @@
         <v>-845384.0672810751</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9771,11 +9771,15 @@
         <v>-845235.378981075</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9804,11 +9808,15 @@
         <v>-846035.378981075</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9837,11 +9845,15 @@
         <v>-862443.481781075</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9870,11 +9882,15 @@
         <v>-859154.481781075</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9903,11 +9919,15 @@
         <v>-848178.728381075</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9936,11 +9956,15 @@
         <v>-850578.728381075</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9969,11 +9993,15 @@
         <v>-839444.256181075</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10002,11 +10030,15 @@
         <v>-849838.783681075</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10035,11 +10067,15 @@
         <v>-849110.783681075</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10068,11 +10104,15 @@
         <v>-848078.783681075</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10101,17 +10141,21 @@
         <v>-848078.783681075</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
       <c r="M274" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest PAY.xlsx
+++ b/BackTest/2019-10-27 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-261288.5281</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-261870.5281</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-262161.5281</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-262452.5281</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-260886.5281</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-258522.5281</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-258522.5281</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-247563.3287</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-251800.3287</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-251047.1762</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-252718.1242</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-432052.2895884822</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-428972.2895884822</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-428972.2895884822</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-428949.1571884822</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-431531.1571884822</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-416286.2770884822</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-414216.2770884822</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-414016.2770884822</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-422471.5175884822</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-434888.6955884823</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-434877.6955884823</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-444498.6183884823</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-471484.1529884823</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4741,641 +4741,555 @@
         <v>-813458.1023884822</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="C133" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="D133" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="E133" t="n">
+        <v>74</v>
+      </c>
+      <c r="F133" t="n">
+        <v>5610.5113</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-807847.5910884822</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>75</v>
+      </c>
+      <c r="C134" t="n">
+        <v>75</v>
+      </c>
+      <c r="D134" t="n">
+        <v>75</v>
+      </c>
+      <c r="E134" t="n">
+        <v>75</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1763</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-809610.5910884822</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="C135" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="D135" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="E135" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="F135" t="n">
+        <v>26</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-809584.5910884822</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
         <v>75.3</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
+      <c r="C136" t="n">
+        <v>76</v>
+      </c>
+      <c r="D136" t="n">
+        <v>76</v>
+      </c>
+      <c r="E136" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1308</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-808276.5910884822</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="C137" t="n">
+        <v>75</v>
+      </c>
+      <c r="D137" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="E137" t="n">
+        <v>75</v>
+      </c>
+      <c r="F137" t="n">
+        <v>19763.268</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-828039.8590884822</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="C138" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="D138" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="E138" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="F138" t="n">
+        <v>120</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-827919.8590884822</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="C139" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="D139" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="E139" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1000.5609</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-828920.4199884823</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="C140" t="n">
+        <v>75</v>
+      </c>
+      <c r="D140" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="E140" t="n">
+        <v>75</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1231.1986</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-830151.6185884823</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="C141" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="D141" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="E141" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="F141" t="n">
+        <v>5978.8087</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-824172.8098884822</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="C142" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="D142" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="E142" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2790.4328</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-824172.8098884822</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>75</v>
+      </c>
+      <c r="C143" t="n">
+        <v>75</v>
+      </c>
+      <c r="D143" t="n">
+        <v>75</v>
+      </c>
+      <c r="E143" t="n">
+        <v>75</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1702</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-825874.8098884822</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>75</v>
+      </c>
+      <c r="C144" t="n">
+        <v>75</v>
+      </c>
+      <c r="D144" t="n">
+        <v>75</v>
+      </c>
+      <c r="E144" t="n">
+        <v>75</v>
+      </c>
+      <c r="F144" t="n">
+        <v>280</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-825874.8098884822</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="C145" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="D145" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="E145" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2299.3564</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-828174.1662884823</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="C146" t="n">
+        <v>75</v>
+      </c>
+      <c r="D146" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="E146" t="n">
+        <v>75</v>
+      </c>
+      <c r="F146" t="n">
+        <v>840</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-827334.1662884823</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="J146" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="C147" t="n">
+        <v>75</v>
+      </c>
+      <c r="D147" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="E147" t="n">
+        <v>75</v>
+      </c>
+      <c r="F147" t="n">
+        <v>30429.9413</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-827334.1662884823</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="C148" t="n">
+        <v>75</v>
+      </c>
+      <c r="D148" t="n">
+        <v>75</v>
+      </c>
+      <c r="E148" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="F148" t="n">
+        <v>832</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-827334.1662884823</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="K148" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>74.09999999999999</v>
-      </c>
-      <c r="C133" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="D133" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="E133" t="n">
-        <v>74</v>
-      </c>
-      <c r="F133" t="n">
-        <v>5610.5113</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-807847.5910884822</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>75.5</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>75</v>
-      </c>
-      <c r="C134" t="n">
-        <v>75</v>
-      </c>
-      <c r="D134" t="n">
-        <v>75</v>
-      </c>
-      <c r="E134" t="n">
-        <v>75</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1763</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-809610.5910884822</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="C135" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="D135" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="E135" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="F135" t="n">
-        <v>26</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-809584.5910884822</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>75</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="C136" t="n">
-        <v>76</v>
-      </c>
-      <c r="D136" t="n">
-        <v>76</v>
-      </c>
-      <c r="E136" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1308</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-808276.5910884822</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="C137" t="n">
-        <v>75</v>
-      </c>
-      <c r="D137" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="E137" t="n">
-        <v>75</v>
-      </c>
-      <c r="F137" t="n">
-        <v>19763.268</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-828039.8590884822</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>76</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="C138" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="D138" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="E138" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="F138" t="n">
-        <v>120</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-827919.8590884822</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>75</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="C139" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="D139" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="E139" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1000.5609</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-828920.4199884823</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="C140" t="n">
-        <v>75</v>
-      </c>
-      <c r="D140" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="E140" t="n">
-        <v>75</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1231.1986</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-830151.6185884823</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="C141" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="D141" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="E141" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="F141" t="n">
-        <v>5978.8087</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-824172.8098884822</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>75</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="C142" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="D142" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="E142" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="F142" t="n">
-        <v>2790.4328</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-824172.8098884822</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>75</v>
-      </c>
-      <c r="C143" t="n">
-        <v>75</v>
-      </c>
-      <c r="D143" t="n">
-        <v>75</v>
-      </c>
-      <c r="E143" t="n">
-        <v>75</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1702</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-825874.8098884822</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>75</v>
-      </c>
-      <c r="C144" t="n">
-        <v>75</v>
-      </c>
-      <c r="D144" t="n">
-        <v>75</v>
-      </c>
-      <c r="E144" t="n">
-        <v>75</v>
-      </c>
-      <c r="F144" t="n">
-        <v>280</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-825874.8098884822</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>75</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="C145" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="D145" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="E145" t="n">
-        <v>74.8</v>
-      </c>
-      <c r="F145" t="n">
-        <v>2299.3564</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-828174.1662884823</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>75</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="C146" t="n">
-        <v>75</v>
-      </c>
-      <c r="D146" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="E146" t="n">
-        <v>75</v>
-      </c>
-      <c r="F146" t="n">
-        <v>840</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-827334.1662884823</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="C147" t="n">
-        <v>75</v>
-      </c>
-      <c r="D147" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="E147" t="n">
-        <v>75</v>
-      </c>
-      <c r="F147" t="n">
-        <v>30429.9413</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-827334.1662884823</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>75</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="C148" t="n">
-        <v>75</v>
-      </c>
-      <c r="D148" t="n">
-        <v>75</v>
-      </c>
-      <c r="E148" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="F148" t="n">
-        <v>832</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-827334.1662884823</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>75</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5404,12 +5318,12 @@
         <v>-827334.1662884823</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>75</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5443,12 +5357,12 @@
         <v>-842480.1598884823</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>75</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5487,7 +5401,9 @@
       <c r="I151" t="n">
         <v>74.5</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5526,7 +5442,9 @@
       <c r="I152" t="n">
         <v>75</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5565,7 +5483,9 @@
       <c r="I153" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5604,7 +5524,9 @@
       <c r="I154" t="n">
         <v>75</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5643,7 +5565,9 @@
       <c r="I155" t="n">
         <v>75</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5677,12 +5601,12 @@
         <v>-842105.1598884823</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>75</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5716,12 +5640,12 @@
         <v>-842105.1598884823</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>75</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5755,12 +5679,12 @@
         <v>-841305.1598884823</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>75</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5794,12 +5718,12 @@
         <v>-855324.7031884823</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5838,7 +5762,9 @@
       <c r="I160" t="n">
         <v>74.7</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5877,7 +5803,9 @@
       <c r="I161" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5911,12 +5839,12 @@
         <v>-856123.6731884823</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5955,7 +5883,9 @@
       <c r="I163" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5994,7 +5924,9 @@
       <c r="I164" t="n">
         <v>75.3</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6033,7 +5965,9 @@
       <c r="I165" t="n">
         <v>75.3</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6072,7 +6006,9 @@
       <c r="I166" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6111,7 +6047,9 @@
       <c r="I167" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6150,7 +6088,9 @@
       <c r="I168" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6189,7 +6129,9 @@
       <c r="I169" t="n">
         <v>75.90000000000001</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6223,12 +6165,12 @@
         <v>-823593.0789884824</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>76</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6265,7 +6207,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6302,7 +6246,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6336,12 +6282,12 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>76</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6378,7 +6324,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6415,7 +6363,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6452,7 +6402,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6489,7 +6441,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6523,12 +6477,12 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>76</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6565,7 +6519,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6602,7 +6558,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6636,12 +6594,12 @@
         <v>-825715.1370884824</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6675,12 +6633,12 @@
         <v>-824666.0038884823</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6714,12 +6672,12 @@
         <v>-824654.6773884824</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>76</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6756,7 +6714,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6793,7 +6753,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6830,7 +6792,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6867,7 +6831,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6904,7 +6870,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6941,7 +6909,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6978,7 +6948,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7012,12 +6984,12 @@
         <v>-826304.5601884825</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7051,12 +7023,12 @@
         <v>-827104.5601884825</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7090,12 +7062,12 @@
         <v>-836475.3865884825</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>76</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7129,12 +7101,12 @@
         <v>-834748.9129884825</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7168,12 +7140,12 @@
         <v>-841878.4478884825</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>76</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7207,12 +7179,12 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7246,12 +7218,12 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>76</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7285,12 +7257,12 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>76</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7324,12 +7296,12 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>76</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7363,12 +7335,12 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>76</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7402,12 +7374,12 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>76</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7441,12 +7413,12 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>76</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7480,12 +7452,12 @@
         <v>-838158.4478884825</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>76</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7519,12 +7491,12 @@
         <v>-838158.4478884825</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7558,12 +7530,12 @@
         <v>-838158.4478884825</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7597,12 +7569,12 @@
         <v>-838158.4478884825</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7636,17 +7608,19 @@
         <v>-838133.1354884824</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>74.90000000000001</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>1</v>
+        <v>1.029712950600801</v>
       </c>
       <c r="M207" t="inlineStr"/>
     </row>
@@ -7673,15 +7647,11 @@
         <v>-839054.1354884824</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7710,15 +7680,11 @@
         <v>-841406.3011884824</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7747,15 +7713,11 @@
         <v>-841406.3011884824</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7784,15 +7746,11 @@
         <v>-841396.3011884824</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7821,15 +7779,11 @@
         <v>-844701.0674884825</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7858,15 +7812,11 @@
         <v>-842073.5333884824</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7895,17 +7845,11 @@
         <v>-842040.4009884824</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>76.90000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7934,15 +7878,11 @@
         <v>-842209.1640884824</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +7915,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8012,11 +7948,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8049,11 +7981,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8082,17 +8010,11 @@
         <v>-856625.9964884825</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>75.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8121,17 +8043,11 @@
         <v>-855825.9964884825</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>76.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8164,11 +8080,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8197,17 +8109,11 @@
         <v>-854835.3287884825</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8240,11 +8146,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8277,11 +8179,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8314,11 +8212,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8347,17 +8241,11 @@
         <v>-851928.3287884825</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>76.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8386,17 +8274,11 @@
         <v>-851928.3287884825</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>76.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8429,11 +8311,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8466,11 +8344,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8503,11 +8377,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8540,11 +8410,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8577,11 +8443,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8614,11 +8476,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8651,11 +8509,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8688,11 +8542,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8721,17 +8571,11 @@
         <v>-862323.1413884824</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>76.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8760,17 +8604,11 @@
         <v>-862323.1413884824</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>76.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8803,11 +8641,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8840,11 +8674,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8873,17 +8703,11 @@
         <v>-862323.1413884824</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>76.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8916,11 +8740,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8953,11 +8773,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8986,17 +8802,11 @@
         <v>-862323.1413884824</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>76.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9029,11 +8839,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9067,12 +8873,10 @@
       <c r="I245" t="n">
         <v>76.40000000000001</v>
       </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9104,10 +8908,12 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>76.40000000000001</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L246" t="n">
@@ -9138,15 +8944,15 @@
         <v>-862323.1413884824</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>76.40000000000001</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L247" t="n">
@@ -9181,11 +8987,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9214,15 +9016,15 @@
         <v>-862323.1413884824</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="J249" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9254,10 +9056,12 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>76.40000000000001</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L250" t="n">
@@ -9288,15 +9092,15 @@
         <v>-862323.1413884824</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>76.40000000000001</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L251" t="n">
@@ -9331,11 +9135,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9368,11 +9168,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9405,11 +9201,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9442,11 +9234,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9479,11 +9267,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9516,11 +9300,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9549,15 +9329,11 @@
         <v>-843432.0992810751</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9586,15 +9362,11 @@
         <v>-843432.0992810751</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9623,15 +9395,11 @@
         <v>-843432.0992810751</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9660,15 +9428,11 @@
         <v>-845909.0672810751</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9697,15 +9461,11 @@
         <v>-845384.0672810751</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9734,15 +9494,11 @@
         <v>-845384.0672810751</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9771,15 +9527,11 @@
         <v>-845235.378981075</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9808,15 +9560,11 @@
         <v>-846035.378981075</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9845,15 +9593,11 @@
         <v>-862443.481781075</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9882,15 +9626,11 @@
         <v>-859154.481781075</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9923,11 +9663,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9960,11 +9696,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9997,11 +9729,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10034,11 +9762,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10071,11 +9795,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10108,11 +9828,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10145,17 +9861,13 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
       <c r="M274" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest PAY.xlsx
+++ b/BackTest/2019-10-27 BackTest PAY.xlsx
@@ -451,7 +451,7 @@
         <v>-261288.5281</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-261870.5281</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-262161.5281</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-262452.5281</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-251800.3287</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-251047.1762</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-251047.1762</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-251022.1762</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-252718.1242</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-252707.1242</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-252756.9992</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-220823.9992</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-221522.9992</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-432052.2895884822</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-428972.2895884822</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-428972.2895884822</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-428949.1571884822</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-431531.1571884822</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-416286.2770884822</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-414216.2770884822</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-414016.2770884822</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-422471.5175884822</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-434888.6955884823</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-434877.6955884823</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-444498.6183884823</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-471484.1529884823</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -5203,14 +5203,10 @@
         <v>-827334.1662884823</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="J146" t="n">
-        <v>74.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
@@ -5243,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5282,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5321,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5360,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5396,19 +5368,11 @@
         <v>-842102.1598884823</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="J151" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5437,19 +5401,11 @@
         <v>-842530.1598884823</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>75</v>
-      </c>
-      <c r="J152" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5478,19 +5434,11 @@
         <v>-842105.1598884823</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="J153" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5519,19 +5467,11 @@
         <v>-842105.1598884823</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>75</v>
-      </c>
-      <c r="J154" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5560,19 +5500,11 @@
         <v>-842105.1598884823</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>75</v>
-      </c>
-      <c r="J155" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5601,17 +5533,15 @@
         <v>-842105.1598884823</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>75</v>
+      </c>
       <c r="J156" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5640,15 +5570,17 @@
         <v>-842105.1598884823</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>75</v>
+      </c>
       <c r="J157" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L157" t="n">
@@ -5679,15 +5611,17 @@
         <v>-841305.1598884823</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>75</v>
+      </c>
       <c r="J158" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L158" t="n">
@@ -5718,15 +5652,17 @@
         <v>-855324.7031884823</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>75.90000000000001</v>
+      </c>
       <c r="J159" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L159" t="n">
@@ -5763,7 +5699,7 @@
         <v>74.7</v>
       </c>
       <c r="J160" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5804,7 +5740,7 @@
         <v>75.40000000000001</v>
       </c>
       <c r="J161" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -5839,11 +5775,13 @@
         <v>-856123.6731884823</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>75.3</v>
+      </c>
       <c r="J162" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -5884,7 +5822,7 @@
         <v>74.90000000000001</v>
       </c>
       <c r="J163" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -5925,7 +5863,7 @@
         <v>75.3</v>
       </c>
       <c r="J164" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -5966,7 +5904,7 @@
         <v>75.3</v>
       </c>
       <c r="J165" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6007,7 +5945,7 @@
         <v>75.40000000000001</v>
       </c>
       <c r="J166" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6048,7 +5986,7 @@
         <v>75.40000000000001</v>
       </c>
       <c r="J167" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6089,7 +6027,7 @@
         <v>75.40000000000001</v>
       </c>
       <c r="J168" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6130,7 +6068,7 @@
         <v>75.90000000000001</v>
       </c>
       <c r="J169" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6165,11 +6103,13 @@
         <v>-823593.0789884824</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>76</v>
+      </c>
       <c r="J170" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6204,11 +6144,13 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>76.8</v>
+      </c>
       <c r="J171" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6243,11 +6185,13 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>76</v>
+      </c>
       <c r="J172" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6282,11 +6226,13 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>76</v>
+      </c>
       <c r="J173" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6321,11 +6267,13 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>76</v>
+      </c>
       <c r="J174" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6360,11 +6308,13 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>76</v>
+      </c>
       <c r="J175" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6399,11 +6349,13 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>76</v>
+      </c>
       <c r="J176" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6438,11 +6390,13 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>76</v>
+      </c>
       <c r="J177" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6477,11 +6431,13 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>76</v>
+      </c>
       <c r="J178" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6516,11 +6472,13 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>76</v>
+      </c>
       <c r="J179" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6555,11 +6513,13 @@
         <v>-825715.1370884824</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>76</v>
+      </c>
       <c r="J180" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6594,11 +6554,13 @@
         <v>-825715.1370884824</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>75.90000000000001</v>
+      </c>
       <c r="J181" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6633,11 +6595,13 @@
         <v>-824666.0038884823</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>75.90000000000001</v>
+      </c>
       <c r="J182" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6672,11 +6636,13 @@
         <v>-824654.6773884824</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>76</v>
+      </c>
       <c r="J183" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6711,11 +6677,13 @@
         <v>-824669.6773884824</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>76.8</v>
+      </c>
       <c r="J184" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6750,11 +6718,13 @@
         <v>-824684.6773884824</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>76.7</v>
+      </c>
       <c r="J185" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6789,11 +6759,13 @@
         <v>-832875.3865884824</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>76.5</v>
+      </c>
       <c r="J186" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6828,11 +6800,13 @@
         <v>-828692.4023884825</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>75.7</v>
+      </c>
       <c r="J187" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6867,11 +6841,13 @@
         <v>-823504.5601884825</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>76.5</v>
+      </c>
       <c r="J188" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6906,11 +6882,13 @@
         <v>-823504.5601884825</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>76.8</v>
+      </c>
       <c r="J189" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6945,11 +6923,13 @@
         <v>-823504.5601884825</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>76.8</v>
+      </c>
       <c r="J190" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6984,11 +6964,13 @@
         <v>-826304.5601884825</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>76.8</v>
+      </c>
       <c r="J191" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7023,11 +7005,13 @@
         <v>-827104.5601884825</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>76.09999999999999</v>
+      </c>
       <c r="J192" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7062,11 +7046,13 @@
         <v>-836475.3865884825</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>76</v>
+      </c>
       <c r="J193" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7101,11 +7087,13 @@
         <v>-834748.9129884825</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>75.8</v>
+      </c>
       <c r="J194" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7140,11 +7128,13 @@
         <v>-841878.4478884825</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>76</v>
+      </c>
       <c r="J195" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7179,11 +7169,13 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>75.8</v>
+      </c>
       <c r="J196" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7218,11 +7210,13 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>76</v>
+      </c>
       <c r="J197" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7257,11 +7251,13 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>76</v>
+      </c>
       <c r="J198" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7296,11 +7292,13 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>76</v>
+      </c>
       <c r="J199" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7335,11 +7333,13 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>76</v>
+      </c>
       <c r="J200" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7374,11 +7374,13 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>76</v>
+      </c>
       <c r="J201" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7413,11 +7415,13 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>76</v>
+      </c>
       <c r="J202" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7452,11 +7456,13 @@
         <v>-838158.4478884825</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>76</v>
+      </c>
       <c r="J203" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7491,11 +7497,13 @@
         <v>-838158.4478884825</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>76.8</v>
+      </c>
       <c r="J204" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7530,11 +7538,13 @@
         <v>-838158.4478884825</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>76.8</v>
+      </c>
       <c r="J205" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7569,11 +7579,13 @@
         <v>-838158.4478884825</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>76.8</v>
+      </c>
       <c r="J206" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7608,19 +7620,21 @@
         <v>-838133.1354884824</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>76.8</v>
+      </c>
       <c r="J207" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>1.029712950600801</v>
+        <v>1</v>
       </c>
       <c r="M207" t="inlineStr"/>
     </row>
@@ -7647,11 +7661,17 @@
         <v>-839054.1354884824</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>75</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7680,11 +7700,17 @@
         <v>-841406.3011884824</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>75</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7713,11 +7739,17 @@
         <v>-841406.3011884824</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>75</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7746,11 +7778,17 @@
         <v>-841396.3011884824</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>75</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7779,11 +7817,17 @@
         <v>-844701.0674884825</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>75</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7812,11 +7856,17 @@
         <v>-842073.5333884824</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>75</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7845,11 +7895,17 @@
         <v>-842040.4009884824</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>75</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7878,11 +7934,17 @@
         <v>-842209.1640884824</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>75</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7914,8 +7976,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>75</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7947,8 +8015,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>75</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7980,8 +8054,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>75</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8013,8 +8093,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>75</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8046,8 +8132,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>75</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8079,8 +8171,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>75</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8112,8 +8210,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>75</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8145,8 +8249,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>75</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8178,8 +8288,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>75</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8211,8 +8327,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>75</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8244,8 +8366,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>75</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8277,8 +8405,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>75</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8310,8 +8444,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>75</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8343,8 +8483,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>75</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8376,8 +8522,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>75</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8409,8 +8561,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>75</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8442,8 +8600,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>75</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8475,8 +8639,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>75</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8508,8 +8678,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>75</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8541,8 +8717,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>75</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8574,8 +8756,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>75</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8607,8 +8795,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>75</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8640,8 +8834,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>75</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8673,8 +8873,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>75</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8706,8 +8912,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>75</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8739,8 +8951,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>75</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8772,8 +8990,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>75</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8805,8 +9029,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>75</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8838,8 +9068,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>75</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8868,15 +9104,17 @@
         <v>-862323.1413884824</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>76.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="K245" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8909,11 +9147,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>76.40000000000001</v>
+        <v>75</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L246" t="n">
@@ -8948,11 +9186,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>76.40000000000001</v>
+        <v>75</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L247" t="n">
@@ -8986,8 +9224,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>75</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9016,15 +9260,17 @@
         <v>-862323.1413884824</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>76.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="K249" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9057,11 +9303,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>76.40000000000001</v>
+        <v>75</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L250" t="n">
@@ -9096,11 +9342,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>76.40000000000001</v>
+        <v>75</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L251" t="n">
@@ -9134,8 +9380,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>75</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9167,8 +9419,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>75</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9200,8 +9458,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>75</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9233,8 +9497,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>75</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9266,8 +9536,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>75</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9299,8 +9575,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>75</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9329,11 +9611,17 @@
         <v>-843432.0992810751</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>75</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9362,11 +9650,17 @@
         <v>-843432.0992810751</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>75</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9395,11 +9689,17 @@
         <v>-843432.0992810751</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>75</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9428,11 +9728,17 @@
         <v>-845909.0672810751</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>75</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9461,11 +9767,17 @@
         <v>-845384.0672810751</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>75</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9494,11 +9806,17 @@
         <v>-845384.0672810751</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>75</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9527,11 +9845,17 @@
         <v>-845235.378981075</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>75</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9560,11 +9884,17 @@
         <v>-846035.378981075</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>75</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9593,11 +9923,17 @@
         <v>-862443.481781075</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>75</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9626,11 +9962,17 @@
         <v>-859154.481781075</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>75</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9662,8 +10004,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>75</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9695,8 +10043,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>75</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9728,8 +10082,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>75</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9761,8 +10121,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>75</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9794,8 +10160,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>75</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9827,8 +10199,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>75</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9860,8 +10238,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>75</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-27 BackTest PAY.xlsx
+++ b/BackTest/2019-10-27 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M274"/>
+  <dimension ref="A1:L274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>-261288.5281</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>582</v>
       </c>
       <c r="G3" t="n">
-        <v>-261870.5281</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>291</v>
       </c>
       <c r="G4" t="n">
-        <v>-262161.5281</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>291</v>
       </c>
       <c r="G5" t="n">
-        <v>-262452.5281</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1566</v>
       </c>
       <c r="G6" t="n">
-        <v>-260886.5281</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>2364</v>
       </c>
       <c r="G7" t="n">
-        <v>-258522.5281</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>873</v>
       </c>
       <c r="G8" t="n">
-        <v>-258522.5281</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>10959.1994</v>
       </c>
       <c r="G9" t="n">
-        <v>-247563.3287</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>4237</v>
       </c>
       <c r="G10" t="n">
-        <v>-251800.3287</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>753.1525</v>
       </c>
       <c r="G11" t="n">
-        <v>-251047.1762</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>7000</v>
       </c>
       <c r="G12" t="n">
-        <v>-251047.1762</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>25</v>
       </c>
       <c r="G13" t="n">
-        <v>-251022.1762</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>1695.948</v>
       </c>
       <c r="G14" t="n">
-        <v>-252718.1242</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>11</v>
       </c>
       <c r="G15" t="n">
-        <v>-252707.1242</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>49.875</v>
       </c>
       <c r="G16" t="n">
-        <v>-252756.9992</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>31933</v>
       </c>
       <c r="G17" t="n">
-        <v>-220823.9992</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>699</v>
       </c>
       <c r="G18" t="n">
-        <v>-221522.9992</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>616.5228</v>
       </c>
       <c r="G19" t="n">
-        <v>-222139.522</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>15</v>
       </c>
       <c r="G20" t="n">
-        <v>-222124.522</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1653</v>
       </c>
       <c r="G21" t="n">
-        <v>-223777.522</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>29</v>
       </c>
       <c r="G22" t="n">
-        <v>-223748.522</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1512</v>
       </c>
       <c r="G23" t="n">
-        <v>-225260.522</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>1118</v>
       </c>
       <c r="G24" t="n">
-        <v>-224142.522</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>400</v>
       </c>
       <c r="G25" t="n">
-        <v>-223742.522</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>2989</v>
       </c>
       <c r="G26" t="n">
-        <v>-220753.522</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>400</v>
       </c>
       <c r="G27" t="n">
-        <v>-221153.522</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>70800</v>
       </c>
       <c r="G28" t="n">
-        <v>-291953.522</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>104282.9058</v>
       </c>
       <c r="G29" t="n">
-        <v>-396236.4278</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>5241</v>
       </c>
       <c r="G30" t="n">
-        <v>-401477.4278</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>400</v>
       </c>
       <c r="G31" t="n">
-        <v>-401877.4278</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>-401867.4278</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>873</v>
       </c>
       <c r="G33" t="n">
-        <v>-402740.4278</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>291</v>
       </c>
       <c r="G34" t="n">
-        <v>-403031.4278</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>873</v>
       </c>
       <c r="G35" t="n">
-        <v>-403904.4278</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>148.7764</v>
       </c>
       <c r="G36" t="n">
-        <v>-403904.4278</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>470</v>
       </c>
       <c r="G37" t="n">
-        <v>-404374.4278</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>800</v>
       </c>
       <c r="G38" t="n">
-        <v>-404374.4278</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>800</v>
       </c>
       <c r="G39" t="n">
-        <v>-405174.4278</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>582</v>
       </c>
       <c r="G40" t="n">
-        <v>-405756.4278</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>582</v>
       </c>
       <c r="G41" t="n">
-        <v>-405174.4278</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>5631</v>
       </c>
       <c r="G42" t="n">
-        <v>-399543.4278</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>1420</v>
       </c>
       <c r="G43" t="n">
-        <v>-399543.4278</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>291</v>
       </c>
       <c r="G44" t="n">
-        <v>-399834.4278</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>291</v>
       </c>
       <c r="G45" t="n">
-        <v>-399834.4278</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>2227</v>
       </c>
       <c r="G46" t="n">
-        <v>-402061.4278</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>342</v>
       </c>
       <c r="G47" t="n">
-        <v>-402061.4278</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>2031</v>
       </c>
       <c r="G48" t="n">
-        <v>-402061.4278</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>2800</v>
       </c>
       <c r="G49" t="n">
-        <v>-402061.4278</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1051</v>
       </c>
       <c r="G50" t="n">
-        <v>-402061.4278</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>175</v>
       </c>
       <c r="G51" t="n">
-        <v>-401886.4278</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>291</v>
       </c>
       <c r="G52" t="n">
-        <v>-402177.4278</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>982</v>
       </c>
       <c r="G53" t="n">
-        <v>-401195.4278</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>1206</v>
       </c>
       <c r="G54" t="n">
-        <v>-402401.4278</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>20</v>
       </c>
       <c r="G55" t="n">
-        <v>-402381.4278</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>3856.041131105399</v>
       </c>
       <c r="G56" t="n">
-        <v>-398525.3866688946</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>5801.327319587629</v>
       </c>
       <c r="G57" t="n">
-        <v>-404326.7139884823</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>316.5637</v>
       </c>
       <c r="G58" t="n">
-        <v>-404010.1502884823</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>240</v>
       </c>
       <c r="G59" t="n">
-        <v>-404010.1502884823</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>800</v>
       </c>
       <c r="G60" t="n">
-        <v>-404010.1502884823</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>1200</v>
       </c>
       <c r="G61" t="n">
-        <v>-404010.1502884823</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>1700.5461</v>
       </c>
       <c r="G62" t="n">
-        <v>-404010.1502884823</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>800</v>
       </c>
       <c r="G63" t="n">
-        <v>-403210.1502884823</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>9870</v>
       </c>
       <c r="G64" t="n">
-        <v>-393340.1502884823</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>2650181.5922</v>
       </c>
       <c r="G65" t="n">
-        <v>-393340.1502884823</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>3642396.4078</v>
       </c>
       <c r="G66" t="n">
-        <v>-393340.1502884823</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>297184</v>
       </c>
       <c r="G67" t="n">
-        <v>-393340.1502884823</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>200800</v>
       </c>
       <c r="G68" t="n">
-        <v>-393340.1502884823</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>7330.8184</v>
       </c>
       <c r="G69" t="n">
-        <v>-386009.3318884823</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>2254.4105</v>
       </c>
       <c r="G70" t="n">
-        <v>-388263.7423884823</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>400</v>
       </c>
       <c r="G71" t="n">
-        <v>-388663.7423884823</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>4133</v>
       </c>
       <c r="G72" t="n">
-        <v>-392796.7423884823</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>500</v>
       </c>
       <c r="G73" t="n">
-        <v>-392296.7423884823</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>7489</v>
       </c>
       <c r="G74" t="n">
-        <v>-399785.7423884823</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>1188.2008</v>
       </c>
       <c r="G75" t="n">
-        <v>-399785.7423884823</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>400</v>
       </c>
       <c r="G76" t="n">
-        <v>-399385.7423884823</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>3200</v>
       </c>
       <c r="G77" t="n">
-        <v>-402585.7423884823</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>22</v>
       </c>
       <c r="G78" t="n">
-        <v>-402607.7423884823</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>1200</v>
       </c>
       <c r="G79" t="n">
-        <v>-403807.7423884823</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>17103.4181</v>
       </c>
       <c r="G80" t="n">
-        <v>-420911.1604884823</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>163</v>
       </c>
       <c r="G81" t="n">
-        <v>-420911.1604884823</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>0.1311</v>
       </c>
       <c r="G82" t="n">
-        <v>-420911.1604884823</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>299.25</v>
       </c>
       <c r="G83" t="n">
-        <v>-420611.9104884823</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>6075.2568</v>
       </c>
       <c r="G84" t="n">
-        <v>-426687.1672884822</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>5467.7311</v>
       </c>
       <c r="G85" t="n">
-        <v>-432154.8983884822</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>127.08</v>
       </c>
       <c r="G86" t="n">
-        <v>-432027.8183884822</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>127.0836</v>
       </c>
       <c r="G87" t="n">
-        <v>-432154.9019884822</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>54.5454</v>
       </c>
       <c r="G88" t="n">
-        <v>-432154.9019884822</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>90.90900000000001</v>
       </c>
       <c r="G89" t="n">
-        <v>-432063.9929884822</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>36.3636</v>
       </c>
       <c r="G90" t="n">
-        <v>-432063.9929884822</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>0.18</v>
       </c>
       <c r="G91" t="n">
-        <v>-432063.8129884822</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>11.5234</v>
       </c>
       <c r="G92" t="n">
-        <v>-432052.2895884822</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>4552.9664</v>
       </c>
       <c r="G93" t="n">
-        <v>-432052.2895884822</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>3080</v>
       </c>
       <c r="G94" t="n">
-        <v>-428972.2895884822</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>822.2741</v>
       </c>
       <c r="G95" t="n">
-        <v>-428972.2895884822</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>23.1324</v>
       </c>
       <c r="G96" t="n">
-        <v>-428949.1571884822</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>2582</v>
       </c>
       <c r="G97" t="n">
-        <v>-431531.1571884822</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>15244.8801</v>
       </c>
       <c r="G98" t="n">
-        <v>-416286.2770884822</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>2070</v>
       </c>
       <c r="G99" t="n">
-        <v>-414216.2770884822</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>200</v>
       </c>
       <c r="G100" t="n">
-        <v>-414016.2770884822</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>8455.2405</v>
       </c>
       <c r="G101" t="n">
-        <v>-422471.5175884822</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>12417.178</v>
       </c>
       <c r="G102" t="n">
-        <v>-434888.6955884823</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>11</v>
       </c>
       <c r="G103" t="n">
-        <v>-434877.6955884823</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>9620.9228</v>
       </c>
       <c r="G104" t="n">
-        <v>-444498.6183884823</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>26985.5346</v>
       </c>
       <c r="G105" t="n">
-        <v>-471484.1529884823</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>2392.8817</v>
       </c>
       <c r="G106" t="n">
-        <v>-473877.0346884823</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>24216.3855</v>
       </c>
       <c r="G107" t="n">
-        <v>-498093.4201884823</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>5616.801</v>
       </c>
       <c r="G108" t="n">
-        <v>-498093.4201884823</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>2839.923</v>
       </c>
       <c r="G109" t="n">
-        <v>-495253.4971884823</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>3552.3124</v>
       </c>
       <c r="G110" t="n">
-        <v>-491701.1847884823</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>115756.0838</v>
       </c>
       <c r="G111" t="n">
-        <v>-491701.1847884823</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>315532.1936</v>
       </c>
       <c r="G112" t="n">
-        <v>-807233.3783884823</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>2652.5596</v>
       </c>
       <c r="G113" t="n">
-        <v>-804580.8187884822</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>8597.402</v>
       </c>
       <c r="G114" t="n">
-        <v>-804580.8187884822</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>446</v>
       </c>
       <c r="G115" t="n">
-        <v>-805026.8187884822</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>1954</v>
       </c>
       <c r="G116" t="n">
-        <v>-803072.8187884822</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>23.97</v>
       </c>
       <c r="G117" t="n">
-        <v>-803096.7887884822</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>11</v>
       </c>
       <c r="G118" t="n">
-        <v>-803085.7887884822</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>1608.7542</v>
       </c>
       <c r="G119" t="n">
-        <v>-804694.5429884822</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>1754.7242</v>
       </c>
       <c r="G120" t="n">
-        <v>-806449.2671884822</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>9915</v>
       </c>
       <c r="G121" t="n">
-        <v>-796534.2671884822</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>12036.1444</v>
       </c>
       <c r="G122" t="n">
-        <v>-808570.4115884822</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>4377.7848</v>
       </c>
       <c r="G123" t="n">
-        <v>-804192.6267884822</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>5727.6779</v>
       </c>
       <c r="G124" t="n">
-        <v>-804192.6267884822</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>4800</v>
       </c>
       <c r="G125" t="n">
-        <v>-799392.6267884822</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>16474.9985</v>
       </c>
       <c r="G126" t="n">
-        <v>-782917.6282884822</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>15000</v>
       </c>
       <c r="G127" t="n">
-        <v>-797917.6282884822</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>36528.1268</v>
       </c>
       <c r="G128" t="n">
-        <v>-834445.7550884822</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>27702.7752</v>
       </c>
       <c r="G129" t="n">
-        <v>-862148.5302884822</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>23452.9294</v>
       </c>
       <c r="G130" t="n">
-        <v>-885601.4596884822</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>43304.0058</v>
       </c>
       <c r="G131" t="n">
-        <v>-842297.4538884822</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>28839.3515</v>
       </c>
       <c r="G132" t="n">
-        <v>-813458.1023884822</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>5610.5113</v>
       </c>
       <c r="G133" t="n">
-        <v>-807847.5910884822</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>1763</v>
       </c>
       <c r="G134" t="n">
-        <v>-809610.5910884822</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>26</v>
       </c>
       <c r="G135" t="n">
-        <v>-809584.5910884822</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>1308</v>
       </c>
       <c r="G136" t="n">
-        <v>-808276.5910884822</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>19763.268</v>
       </c>
       <c r="G137" t="n">
-        <v>-828039.8590884822</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>120</v>
       </c>
       <c r="G138" t="n">
-        <v>-827919.8590884822</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>1000.5609</v>
       </c>
       <c r="G139" t="n">
-        <v>-828920.4199884823</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>1231.1986</v>
       </c>
       <c r="G140" t="n">
-        <v>-830151.6185884823</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>5978.8087</v>
       </c>
       <c r="G141" t="n">
-        <v>-824172.8098884822</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>2790.4328</v>
       </c>
       <c r="G142" t="n">
-        <v>-824172.8098884822</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>1702</v>
       </c>
       <c r="G143" t="n">
-        <v>-825874.8098884822</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>280</v>
       </c>
       <c r="G144" t="n">
-        <v>-825874.8098884822</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>2299.3564</v>
       </c>
       <c r="G145" t="n">
-        <v>-828174.1662884823</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>840</v>
       </c>
       <c r="G146" t="n">
-        <v>-827334.1662884823</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>30429.9413</v>
       </c>
       <c r="G147" t="n">
-        <v>-827334.1662884823</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>832</v>
       </c>
       <c r="G148" t="n">
-        <v>-827334.1662884823</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>800</v>
       </c>
       <c r="G149" t="n">
-        <v>-827334.1662884823</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>15145.9936</v>
       </c>
       <c r="G150" t="n">
-        <v>-842480.1598884823</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>378</v>
       </c>
       <c r="G151" t="n">
-        <v>-842102.1598884823</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>428</v>
       </c>
       <c r="G152" t="n">
-        <v>-842530.1598884823</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>425</v>
       </c>
       <c r="G153" t="n">
-        <v>-842105.1598884823</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>65</v>
       </c>
       <c r="G154" t="n">
-        <v>-842105.1598884823</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,19 @@
         <v>269</v>
       </c>
       <c r="G155" t="n">
-        <v>-842105.1598884823</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="I155" t="n">
+        <v>75</v>
+      </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,22 +5067,23 @@
         <v>338</v>
       </c>
       <c r="G156" t="n">
-        <v>-842105.1598884823</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="I156" t="n">
         <v>75</v>
       </c>
-      <c r="J156" t="n">
-        <v>75</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5567,26 +5105,23 @@
         <v>15180.7866</v>
       </c>
       <c r="G157" t="n">
-        <v>-842105.1598884823</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="I157" t="n">
         <v>75</v>
       </c>
-      <c r="J157" t="n">
-        <v>75</v>
-      </c>
-      <c r="K157" t="inlineStr">
+      <c r="J157" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5608,26 +5143,19 @@
         <v>800</v>
       </c>
       <c r="G158" t="n">
-        <v>-841305.1598884823</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="I158" t="n">
         <v>75</v>
       </c>
-      <c r="J158" t="n">
-        <v>75</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5649,26 +5177,21 @@
         <v>14019.5433</v>
       </c>
       <c r="G159" t="n">
-        <v>-855324.7031884823</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="J159" t="n">
-        <v>75</v>
-      </c>
-      <c r="K159" t="inlineStr">
+        <v>75</v>
+      </c>
+      <c r="J159" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5690,26 +5213,23 @@
         <v>388</v>
       </c>
       <c r="G160" t="n">
-        <v>-854936.7031884823</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>74.7</v>
       </c>
       <c r="I160" t="n">
-        <v>74.7</v>
-      </c>
-      <c r="J160" t="n">
-        <v>75</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5731,26 +5251,23 @@
         <v>1163</v>
       </c>
       <c r="G161" t="n">
-        <v>-856099.7031884823</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="I161" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="J161" t="n">
-        <v>75</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5772,26 +5289,23 @@
         <v>23.97</v>
       </c>
       <c r="G162" t="n">
-        <v>-856123.6731884823</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>75.3</v>
       </c>
       <c r="I162" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="J162" t="n">
-        <v>75</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5813,26 +5327,23 @@
         <v>336</v>
       </c>
       <c r="G163" t="n">
-        <v>-855787.6731884823</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="I163" t="n">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="J163" t="n">
-        <v>75</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5854,26 +5365,23 @@
         <v>7945.4847</v>
       </c>
       <c r="G164" t="n">
-        <v>-855787.6731884823</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>75.3</v>
       </c>
       <c r="I164" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="J164" t="n">
-        <v>75</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5895,26 +5403,23 @@
         <v>553</v>
       </c>
       <c r="G165" t="n">
-        <v>-855234.6731884823</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>75.3</v>
       </c>
       <c r="I165" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="J165" t="n">
-        <v>75</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5936,26 +5441,23 @@
         <v>418</v>
       </c>
       <c r="G166" t="n">
-        <v>-855234.6731884823</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="I166" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="J166" t="n">
-        <v>75</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5977,26 +5479,23 @@
         <v>925</v>
       </c>
       <c r="G167" t="n">
-        <v>-855234.6731884823</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="I167" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="J167" t="n">
-        <v>75</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6018,26 +5517,23 @@
         <v>12735.7971</v>
       </c>
       <c r="G168" t="n">
-        <v>-842498.8760884823</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="I168" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="J168" t="n">
-        <v>75</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6059,26 +5555,21 @@
         <v>18895.7971</v>
       </c>
       <c r="G169" t="n">
-        <v>-823603.0789884824</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="J169" t="n">
-        <v>75</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6100,26 +5591,21 @@
         <v>10</v>
       </c>
       <c r="G170" t="n">
-        <v>-823593.0789884824</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="n">
-        <v>76</v>
-      </c>
-      <c r="J170" t="n">
-        <v>75</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6141,26 +5627,21 @@
         <v>122.0581</v>
       </c>
       <c r="G171" t="n">
-        <v>-823715.1370884824</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="J171" t="n">
-        <v>75</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6182,26 +5663,21 @@
         <v>1322.3124</v>
       </c>
       <c r="G172" t="n">
-        <v>-823715.1370884824</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="n">
-        <v>76</v>
-      </c>
-      <c r="J172" t="n">
-        <v>75</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6223,26 +5699,21 @@
         <v>1418.7236</v>
       </c>
       <c r="G173" t="n">
-        <v>-823715.1370884824</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="n">
-        <v>76</v>
-      </c>
-      <c r="J173" t="n">
-        <v>75</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6264,26 +5735,21 @@
         <v>1000</v>
       </c>
       <c r="G174" t="n">
-        <v>-823715.1370884824</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="n">
-        <v>76</v>
-      </c>
-      <c r="J174" t="n">
-        <v>75</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6305,26 +5771,21 @@
         <v>123</v>
       </c>
       <c r="G175" t="n">
-        <v>-823715.1370884824</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="n">
-        <v>76</v>
-      </c>
-      <c r="J175" t="n">
-        <v>75</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6346,26 +5807,21 @@
         <v>10</v>
       </c>
       <c r="G176" t="n">
-        <v>-823715.1370884824</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="n">
-        <v>76</v>
-      </c>
-      <c r="J176" t="n">
-        <v>75</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6387,26 +5843,21 @@
         <v>23</v>
       </c>
       <c r="G177" t="n">
-        <v>-823715.1370884824</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="n">
-        <v>76</v>
-      </c>
-      <c r="J177" t="n">
-        <v>75</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6428,26 +5879,21 @@
         <v>109</v>
       </c>
       <c r="G178" t="n">
-        <v>-823715.1370884824</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="n">
-        <v>76</v>
-      </c>
-      <c r="J178" t="n">
-        <v>75</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6469,26 +5915,21 @@
         <v>1329.3815</v>
       </c>
       <c r="G179" t="n">
-        <v>-823715.1370884824</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="n">
-        <v>76</v>
-      </c>
-      <c r="J179" t="n">
-        <v>75</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6510,26 +5951,21 @@
         <v>2000</v>
       </c>
       <c r="G180" t="n">
-        <v>-825715.1370884824</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="n">
-        <v>76</v>
-      </c>
-      <c r="J180" t="n">
-        <v>75</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6551,26 +5987,21 @@
         <v>15</v>
       </c>
       <c r="G181" t="n">
-        <v>-825715.1370884824</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="J181" t="n">
-        <v>75</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6592,26 +6023,21 @@
         <v>1049.1332</v>
       </c>
       <c r="G182" t="n">
-        <v>-824666.0038884823</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="J182" t="n">
-        <v>75</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6633,26 +6059,21 @@
         <v>11.3265</v>
       </c>
       <c r="G183" t="n">
-        <v>-824654.6773884824</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="n">
-        <v>76</v>
-      </c>
-      <c r="J183" t="n">
-        <v>75</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6674,26 +6095,21 @@
         <v>15</v>
       </c>
       <c r="G184" t="n">
-        <v>-824669.6773884824</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="J184" t="n">
-        <v>75</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6715,26 +6131,21 @@
         <v>15</v>
       </c>
       <c r="G185" t="n">
-        <v>-824684.6773884824</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="J185" t="n">
-        <v>75</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6756,26 +6167,21 @@
         <v>8190.7092</v>
       </c>
       <c r="G186" t="n">
-        <v>-832875.3865884824</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="J186" t="n">
-        <v>75</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6797,26 +6203,21 @@
         <v>4182.9842</v>
       </c>
       <c r="G187" t="n">
-        <v>-828692.4023884825</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="J187" t="n">
-        <v>75</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6838,26 +6239,21 @@
         <v>5187.8422</v>
       </c>
       <c r="G188" t="n">
-        <v>-823504.5601884825</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="J188" t="n">
-        <v>75</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6879,26 +6275,21 @@
         <v>1200</v>
       </c>
       <c r="G189" t="n">
-        <v>-823504.5601884825</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="J189" t="n">
-        <v>75</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6920,26 +6311,21 @@
         <v>2285</v>
       </c>
       <c r="G190" t="n">
-        <v>-823504.5601884825</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="J190" t="n">
-        <v>75</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6961,26 +6347,21 @@
         <v>2800</v>
       </c>
       <c r="G191" t="n">
-        <v>-826304.5601884825</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="J191" t="n">
-        <v>75</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7002,26 +6383,21 @@
         <v>800</v>
       </c>
       <c r="G192" t="n">
-        <v>-827104.5601884825</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="J192" t="n">
-        <v>75</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7043,26 +6419,21 @@
         <v>9370.8264</v>
       </c>
       <c r="G193" t="n">
-        <v>-836475.3865884825</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="n">
-        <v>76</v>
-      </c>
-      <c r="J193" t="n">
-        <v>75</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7084,26 +6455,21 @@
         <v>1726.4736</v>
       </c>
       <c r="G194" t="n">
-        <v>-834748.9129884825</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="J194" t="n">
-        <v>75</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7125,26 +6491,21 @@
         <v>7129.5349</v>
       </c>
       <c r="G195" t="n">
-        <v>-841878.4478884825</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="n">
-        <v>76</v>
-      </c>
-      <c r="J195" t="n">
-        <v>75</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7166,26 +6527,21 @@
         <v>80</v>
       </c>
       <c r="G196" t="n">
-        <v>-841798.4478884825</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="J196" t="n">
-        <v>75</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7207,26 +6563,21 @@
         <v>104</v>
       </c>
       <c r="G197" t="n">
-        <v>-841798.4478884825</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="n">
-        <v>76</v>
-      </c>
-      <c r="J197" t="n">
-        <v>75</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7248,26 +6599,21 @@
         <v>400</v>
       </c>
       <c r="G198" t="n">
-        <v>-841798.4478884825</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="n">
-        <v>76</v>
-      </c>
-      <c r="J198" t="n">
-        <v>75</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7289,26 +6635,21 @@
         <v>1747.2479</v>
       </c>
       <c r="G199" t="n">
-        <v>-841798.4478884825</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="n">
-        <v>76</v>
-      </c>
-      <c r="J199" t="n">
-        <v>75</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7330,26 +6671,21 @@
         <v>1315.0104</v>
       </c>
       <c r="G200" t="n">
-        <v>-841798.4478884825</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="n">
-        <v>76</v>
-      </c>
-      <c r="J200" t="n">
-        <v>75</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7371,26 +6707,21 @@
         <v>1468.0657</v>
       </c>
       <c r="G201" t="n">
-        <v>-841798.4478884825</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="n">
-        <v>76</v>
-      </c>
-      <c r="J201" t="n">
-        <v>75</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7412,26 +6743,21 @@
         <v>15</v>
       </c>
       <c r="G202" t="n">
-        <v>-841798.4478884825</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="n">
-        <v>76</v>
-      </c>
-      <c r="J202" t="n">
-        <v>75</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7453,26 +6779,21 @@
         <v>3640</v>
       </c>
       <c r="G203" t="n">
-        <v>-838158.4478884825</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="n">
-        <v>76</v>
-      </c>
-      <c r="J203" t="n">
-        <v>75</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7494,26 +6815,21 @@
         <v>4095</v>
       </c>
       <c r="G204" t="n">
-        <v>-838158.4478884825</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="J204" t="n">
-        <v>75</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7535,26 +6851,21 @@
         <v>417.0165</v>
       </c>
       <c r="G205" t="n">
-        <v>-838158.4478884825</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="J205" t="n">
-        <v>75</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7576,26 +6887,21 @@
         <v>38.625</v>
       </c>
       <c r="G206" t="n">
-        <v>-838158.4478884825</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="J206" t="n">
-        <v>75</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7617,26 +6923,21 @@
         <v>25.3124</v>
       </c>
       <c r="G207" t="n">
-        <v>-838133.1354884824</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="J207" t="n">
-        <v>75</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7658,24 +6959,21 @@
         <v>921</v>
       </c>
       <c r="G208" t="n">
-        <v>-839054.1354884824</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>75</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>75</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7697,24 +6995,21 @@
         <v>2352.1657</v>
       </c>
       <c r="G209" t="n">
-        <v>-841406.3011884824</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>75</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>75</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7736,24 +7031,21 @@
         <v>380.6248</v>
       </c>
       <c r="G210" t="n">
-        <v>-841406.3011884824</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>75</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>75</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7775,24 +7067,21 @@
         <v>10</v>
       </c>
       <c r="G211" t="n">
-        <v>-841396.3011884824</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>75</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="n">
+        <v>75</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7814,24 +7103,21 @@
         <v>3304.7663</v>
       </c>
       <c r="G212" t="n">
-        <v>-844701.0674884825</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>75</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="n">
+        <v>75</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7853,24 +7139,21 @@
         <v>2627.5341</v>
       </c>
       <c r="G213" t="n">
-        <v>-842073.5333884824</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>75</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="n">
+        <v>75</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7892,24 +7175,21 @@
         <v>33.1324</v>
       </c>
       <c r="G214" t="n">
-        <v>-842040.4009884824</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>75</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="n">
+        <v>75</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7931,24 +7211,21 @@
         <v>168.7631</v>
       </c>
       <c r="G215" t="n">
-        <v>-842209.1640884824</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>75</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="n">
+        <v>75</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7970,24 +7247,21 @@
         <v>19723.7398</v>
       </c>
       <c r="G216" t="n">
-        <v>-822485.4242884824</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>75</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="n">
+        <v>75</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8009,24 +7283,21 @@
         <v>200</v>
       </c>
       <c r="G217" t="n">
-        <v>-822685.4242884824</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>75</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="n">
+        <v>75</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8048,24 +7319,21 @@
         <v>34007.6914</v>
       </c>
       <c r="G218" t="n">
-        <v>-856693.1156884824</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>75</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="n">
+        <v>75</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8087,24 +7355,21 @@
         <v>67.11920000000001</v>
       </c>
       <c r="G219" t="n">
-        <v>-856625.9964884825</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>75</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="n">
+        <v>75</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8126,24 +7391,21 @@
         <v>800</v>
       </c>
       <c r="G220" t="n">
-        <v>-855825.9964884825</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>75</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="n">
+        <v>75</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8165,24 +7427,21 @@
         <v>1697.3323</v>
       </c>
       <c r="G221" t="n">
-        <v>-857523.3287884825</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>75</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="n">
+        <v>75</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8204,24 +7463,21 @@
         <v>2688</v>
       </c>
       <c r="G222" t="n">
-        <v>-854835.3287884825</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>75</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="n">
+        <v>75</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8243,24 +7499,21 @@
         <v>1200</v>
       </c>
       <c r="G223" t="n">
-        <v>-854835.3287884825</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>75</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="n">
+        <v>75</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8282,24 +7535,21 @@
         <v>800</v>
       </c>
       <c r="G224" t="n">
-        <v>-855635.3287884825</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>75</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="n">
+        <v>75</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8321,24 +7571,21 @@
         <v>12013.617</v>
       </c>
       <c r="G225" t="n">
-        <v>-855635.3287884825</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>75</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="n">
+        <v>75</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8360,24 +7607,21 @@
         <v>3707</v>
       </c>
       <c r="G226" t="n">
-        <v>-851928.3287884825</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>75</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="n">
+        <v>75</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8399,24 +7643,21 @@
         <v>1200</v>
       </c>
       <c r="G227" t="n">
-        <v>-851928.3287884825</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>75</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="n">
+        <v>75</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8438,24 +7679,21 @@
         <v>3355.1324</v>
       </c>
       <c r="G228" t="n">
-        <v>-848573.1963884825</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>75</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="n">
+        <v>75</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8477,24 +7715,21 @@
         <v>4877</v>
       </c>
       <c r="G229" t="n">
-        <v>-848573.1963884825</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>75</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="n">
+        <v>75</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8516,24 +7751,21 @@
         <v>4610</v>
       </c>
       <c r="G230" t="n">
-        <v>-848573.1963884825</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>75</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="n">
+        <v>75</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8555,24 +7787,21 @@
         <v>3000</v>
       </c>
       <c r="G231" t="n">
-        <v>-845573.1963884825</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>75</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="n">
+        <v>75</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8594,24 +7823,21 @@
         <v>10807</v>
       </c>
       <c r="G232" t="n">
-        <v>-856380.1963884825</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>75</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="n">
+        <v>75</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8633,24 +7859,21 @@
         <v>3823</v>
       </c>
       <c r="G233" t="n">
-        <v>-856380.1963884825</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>75</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="n">
+        <v>75</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8672,24 +7895,21 @@
         <v>2800</v>
       </c>
       <c r="G234" t="n">
-        <v>-859180.1963884825</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>75</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="n">
+        <v>75</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8711,24 +7931,21 @@
         <v>12096.5032</v>
       </c>
       <c r="G235" t="n">
-        <v>-859180.1963884825</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>75</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="n">
+        <v>75</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8750,24 +7967,21 @@
         <v>3142.945</v>
       </c>
       <c r="G236" t="n">
-        <v>-862323.1413884824</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>75</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="n">
+        <v>75</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8789,24 +8003,21 @@
         <v>1220</v>
       </c>
       <c r="G237" t="n">
-        <v>-862323.1413884824</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>75</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="n">
+        <v>75</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8828,24 +8039,21 @@
         <v>280.0523</v>
       </c>
       <c r="G238" t="n">
-        <v>-862323.1413884824</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>75</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="n">
+        <v>75</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8867,24 +8075,21 @@
         <v>1799.1917</v>
       </c>
       <c r="G239" t="n">
-        <v>-862323.1413884824</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>75</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="n">
+        <v>75</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8906,24 +8111,21 @@
         <v>12393.2146</v>
       </c>
       <c r="G240" t="n">
-        <v>-862323.1413884824</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>75</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="n">
+        <v>75</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8945,24 +8147,21 @@
         <v>1600</v>
       </c>
       <c r="G241" t="n">
-        <v>-862323.1413884824</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>75</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="n">
+        <v>75</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8984,24 +8183,21 @@
         <v>12273</v>
       </c>
       <c r="G242" t="n">
-        <v>-862323.1413884824</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>75</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="n">
+        <v>75</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9023,24 +8219,21 @@
         <v>400</v>
       </c>
       <c r="G243" t="n">
-        <v>-862323.1413884824</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>75</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="n">
+        <v>75</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9062,24 +8255,21 @@
         <v>15</v>
       </c>
       <c r="G244" t="n">
-        <v>-862323.1413884824</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>75</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="n">
+        <v>75</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9101,24 +8291,21 @@
         <v>2760.0009</v>
       </c>
       <c r="G245" t="n">
-        <v>-862323.1413884824</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>75</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="n">
+        <v>75</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9140,24 +8327,21 @@
         <v>339</v>
       </c>
       <c r="G246" t="n">
-        <v>-862323.1413884824</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>75</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="n">
+        <v>75</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9179,24 +8363,21 @@
         <v>300</v>
       </c>
       <c r="G247" t="n">
-        <v>-862323.1413884824</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>75</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="n">
+        <v>75</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9218,24 +8399,21 @@
         <v>2452</v>
       </c>
       <c r="G248" t="n">
-        <v>-862323.1413884824</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>75</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="n">
+        <v>75</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9257,24 +8435,21 @@
         <v>479</v>
       </c>
       <c r="G249" t="n">
-        <v>-862323.1413884824</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>75</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="n">
+        <v>75</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9296,24 +8471,21 @@
         <v>2185</v>
       </c>
       <c r="G250" t="n">
-        <v>-862323.1413884824</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>75</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="n">
+        <v>75</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9335,24 +8507,21 @@
         <v>249.2135</v>
       </c>
       <c r="G251" t="n">
-        <v>-862323.1413884824</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>75</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="n">
+        <v>75</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9374,24 +8543,21 @@
         <v>13.6782</v>
       </c>
       <c r="G252" t="n">
-        <v>-862309.4631884824</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>75</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="n">
+        <v>75</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9413,24 +8579,21 @@
         <v>4669</v>
       </c>
       <c r="G253" t="n">
-        <v>-862309.4631884824</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>75</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="n">
+        <v>75</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9452,24 +8615,21 @@
         <v>32112.90970740741</v>
       </c>
       <c r="G254" t="n">
-        <v>-830196.553481075</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>75</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="n">
+        <v>75</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9491,24 +8651,21 @@
         <v>14846.1518</v>
       </c>
       <c r="G255" t="n">
-        <v>-845042.705281075</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>75</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="n">
+        <v>75</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9530,24 +8687,21 @@
         <v>1211.6157</v>
       </c>
       <c r="G256" t="n">
-        <v>-843831.089581075</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>75</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="n">
+        <v>75</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9569,24 +8723,21 @@
         <v>1479.951</v>
       </c>
       <c r="G257" t="n">
-        <v>-845311.040581075</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>75</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="n">
+        <v>75</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9608,24 +8759,21 @@
         <v>1878.9413</v>
       </c>
       <c r="G258" t="n">
-        <v>-843432.0992810751</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>75</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="n">
+        <v>75</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9647,24 +8795,21 @@
         <v>414.9459</v>
       </c>
       <c r="G259" t="n">
-        <v>-843432.0992810751</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>75</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="n">
+        <v>75</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9686,24 +8831,21 @@
         <v>43.3163</v>
       </c>
       <c r="G260" t="n">
-        <v>-843432.0992810751</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>75</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="n">
+        <v>75</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9725,24 +8867,21 @@
         <v>2476.968</v>
       </c>
       <c r="G261" t="n">
-        <v>-845909.0672810751</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>75</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="n">
+        <v>75</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9764,24 +8903,21 @@
         <v>525</v>
       </c>
       <c r="G262" t="n">
-        <v>-845384.0672810751</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>75</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="n">
+        <v>75</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9803,24 +8939,21 @@
         <v>3442</v>
       </c>
       <c r="G263" t="n">
-        <v>-845384.0672810751</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>75</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="n">
+        <v>75</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9842,24 +8975,21 @@
         <v>148.6883</v>
       </c>
       <c r="G264" t="n">
-        <v>-845235.378981075</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>75</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="n">
+        <v>75</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9881,24 +9011,21 @@
         <v>800</v>
       </c>
       <c r="G265" t="n">
-        <v>-846035.378981075</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>75</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="n">
+        <v>75</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9920,24 +9047,21 @@
         <v>16408.1028</v>
       </c>
       <c r="G266" t="n">
-        <v>-862443.481781075</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>75</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="n">
+        <v>75</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9959,24 +9083,21 @@
         <v>3289</v>
       </c>
       <c r="G267" t="n">
-        <v>-859154.481781075</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>75</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="n">
+        <v>75</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9998,24 +9119,21 @@
         <v>10975.7534</v>
       </c>
       <c r="G268" t="n">
-        <v>-848178.728381075</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>75</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="n">
+        <v>75</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10037,24 +9155,21 @@
         <v>2400</v>
       </c>
       <c r="G269" t="n">
-        <v>-850578.728381075</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>75</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="n">
+        <v>75</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10076,24 +9191,21 @@
         <v>11134.4722</v>
       </c>
       <c r="G270" t="n">
-        <v>-839444.256181075</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>75</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="n">
+        <v>75</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10115,24 +9227,21 @@
         <v>10394.5275</v>
       </c>
       <c r="G271" t="n">
-        <v>-849838.783681075</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>75</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="n">
+        <v>75</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10154,24 +9263,21 @@
         <v>728</v>
       </c>
       <c r="G272" t="n">
-        <v>-849110.783681075</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>75</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="n">
+        <v>75</v>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10193,24 +9299,21 @@
         <v>1032</v>
       </c>
       <c r="G273" t="n">
-        <v>-848078.783681075</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>75</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="n">
+        <v>75</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10232,24 +9335,21 @@
         <v>90.7868</v>
       </c>
       <c r="G274" t="n">
-        <v>-848078.783681075</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>75</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="n">
+        <v>75</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
